--- a/deletefuture/librarylist.xlsx
+++ b/deletefuture/librarylist.xlsx
@@ -399,12 +399,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{ id:'-.Date', href:'/detail/base/-Date.html',funcname:'-.Date'},</t>
+          <t>{ id:'-.Date', href:'/detail/base/-_Date.html',funcname:'-.Date'},</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-.Date</t>
+          <t>-_Date</t>
         </is>
       </c>
     </row>
@@ -416,12 +416,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{ id:'-.POSIXt', href:'/detail/base/-POSIXt.html',funcname:'-.POSIXt'},</t>
+          <t>{ id:'-.POSIXt', href:'/detail/base/-_POSIXt.html',funcname:'-.POSIXt'},</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-.POSIXt</t>
+          <t>-_POSIXt</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{ id:'!.hexmode', href:'/detail/base/!hexmode.html',funcname:'!.hexmode'},</t>
+          <t>{ id:'!.hexmode', href:'/detail/base/!_hexmode.html',funcname:'!.hexmode'},</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>!.hexmode</t>
+          <t>!_hexmode</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{ id:'!.octmode', href:'/detail/base/!octmode.html',funcname:'!.octmode'},</t>
+          <t>{ id:'!.octmode', href:'/detail/base/!_octmode.html',funcname:'!.octmode'},</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>!.octmode</t>
+          <t>!_octmode</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{ id:'[.AsIs', href:'/detail/base/[AsIs.html',funcname:'[.AsIs'},</t>
+          <t>{ id:'[.AsIs', href:'/detail/base/[_AsIs.html',funcname:'[.AsIs'},</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[.AsIs</t>
+          <t>[_AsIs</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{ id:'[.data.frame', href:'/detail/base/[data.frame.html',funcname:'[.data.frame'},</t>
+          <t>{ id:'[.data.frame', href:'/detail/base/[_data_frame.html',funcname:'[.data.frame'},</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[.data.frame</t>
+          <t>[_data_frame</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{ id:'[.Date', href:'/detail/base/[Date.html',funcname:'[.Date'},</t>
+          <t>{ id:'[.Date', href:'/detail/base/[_Date.html',funcname:'[.Date'},</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[.Date</t>
+          <t>[_Date</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{ id:'[.difftime', href:'/detail/base/[difftime.html',funcname:'[.difftime'},</t>
+          <t>{ id:'[.difftime', href:'/detail/base/[_difftime.html',funcname:'[.difftime'},</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[.difftime</t>
+          <t>[_difftime</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{ id:'[.Dlist', href:'/detail/base/[Dlist.html',funcname:'[.Dlist'},</t>
+          <t>{ id:'[.Dlist', href:'/detail/base/[_Dlist.html',funcname:'[.Dlist'},</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[.Dlist</t>
+          <t>[_Dlist</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{ id:'[.DLLInfoList', href:'/detail/base/[DLLInfoList.html',funcname:'[.DLLInfoList'},</t>
+          <t>{ id:'[.DLLInfoList', href:'/detail/base/[_DLLInfoList.html',funcname:'[.DLLInfoList'},</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[.DLLInfoList</t>
+          <t>[_DLLInfoList</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{ id:'[.factor', href:'/detail/base/[factor.html',funcname:'[.factor'},</t>
+          <t>{ id:'[.factor', href:'/detail/base/[_factor.html',funcname:'[.factor'},</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[.factor</t>
+          <t>[_factor</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{ id:'[.hexmode', href:'/detail/base/[hexmode.html',funcname:'[.hexmode'},</t>
+          <t>{ id:'[.hexmode', href:'/detail/base/[_hexmode.html',funcname:'[.hexmode'},</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[.hexmode</t>
+          <t>[_hexmode</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{ id:'[.listof', href:'/detail/base/[listof.html',funcname:'[.listof'},</t>
+          <t>{ id:'[.listof', href:'/detail/base/[_listof.html',funcname:'[.listof'},</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[.listof</t>
+          <t>[_listof</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{ id:'[.noquote', href:'/detail/base/[noquote.html',funcname:'[.noquote'},</t>
+          <t>{ id:'[.noquote', href:'/detail/base/[_noquote.html',funcname:'[.noquote'},</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[.noquote</t>
+          <t>[_noquote</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{ id:'[.numeric_version', href:'/detail/base/[numeric_version.html',funcname:'[.numeric_version'},</t>
+          <t>{ id:'[.numeric_version', href:'/detail/base/[_numeric_version.html',funcname:'[.numeric_version'},</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[.numeric_version</t>
+          <t>[_numeric_version</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{ id:'[.octmode', href:'/detail/base/[octmode.html',funcname:'[.octmode'},</t>
+          <t>{ id:'[.octmode', href:'/detail/base/[_octmode.html',funcname:'[.octmode'},</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[.octmode</t>
+          <t>[_octmode</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{ id:'[.POSIXct', href:'/detail/base/[POSIXct.html',funcname:'[.POSIXct'},</t>
+          <t>{ id:'[.POSIXct', href:'/detail/base/[_POSIXct.html',funcname:'[.POSIXct'},</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[.POSIXct</t>
+          <t>[_POSIXct</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{ id:'[.POSIXlt', href:'/detail/base/[POSIXlt.html',funcname:'[.POSIXlt'},</t>
+          <t>{ id:'[.POSIXlt', href:'/detail/base/[_POSIXlt.html',funcname:'[.POSIXlt'},</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[.POSIXlt</t>
+          <t>[_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{ id:'[.simple.list', href:'/detail/base/[simple.list.html',funcname:'[.simple.list'},</t>
+          <t>{ id:'[.simple.list', href:'/detail/base/[_simple_list.html',funcname:'[.simple.list'},</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[.simple.list</t>
+          <t>[_simple_list</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{ id:'[.table', href:'/detail/base/[table.html',funcname:'[.table'},</t>
+          <t>{ id:'[.table', href:'/detail/base/[_table.html',funcname:'[.table'},</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[.table</t>
+          <t>[_table</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{ id:'[.warnings', href:'/detail/base/[warnings.html',funcname:'[.warnings'},</t>
+          <t>{ id:'[.warnings', href:'/detail/base/[_warnings.html',funcname:'[.warnings'},</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[.warnings</t>
+          <t>[_warnings</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{ id:'[[.data.frame', href:'/detail/base/[[data.frame.html',funcname:'[[.data.frame'},</t>
+          <t>{ id:'[[.data.frame', href:'/detail/base/[[_data_frame.html',funcname:'[[.data.frame'},</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[[.data.frame</t>
+          <t>[[_data_frame</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{ id:'[[.Date', href:'/detail/base/[[Date.html',funcname:'[[.Date'},</t>
+          <t>{ id:'[[.Date', href:'/detail/base/[[_Date.html',funcname:'[[.Date'},</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[[.Date</t>
+          <t>[[_Date</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{ id:'[[.factor', href:'/detail/base/[[factor.html',funcname:'[[.factor'},</t>
+          <t>{ id:'[[.factor', href:'/detail/base/[[_factor.html',funcname:'[[.factor'},</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[[.factor</t>
+          <t>[[_factor</t>
         </is>
       </c>
     </row>
@@ -943,12 +943,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{ id:'[[.numeric_version', href:'/detail/base/[[numeric_version.html',funcname:'[[.numeric_version'},</t>
+          <t>{ id:'[[.numeric_version', href:'/detail/base/[[_numeric_version.html',funcname:'[[.numeric_version'},</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[[.numeric_version</t>
+          <t>[[_numeric_version</t>
         </is>
       </c>
     </row>
@@ -960,12 +960,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{ id:'[[.POSIXct', href:'/detail/base/[[POSIXct.html',funcname:'[[.POSIXct'},</t>
+          <t>{ id:'[[.POSIXct', href:'/detail/base/[[_POSIXct.html',funcname:'[[.POSIXct'},</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[[.POSIXct</t>
+          <t>[[_POSIXct</t>
         </is>
       </c>
     </row>
@@ -977,12 +977,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{ id:'[[.POSIXlt', href:'/detail/base/[[POSIXlt.html',funcname:'[[.POSIXlt'},</t>
+          <t>{ id:'[[.POSIXlt', href:'/detail/base/[[_POSIXlt.html',funcname:'[[.POSIXlt'},</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[[.POSIXlt</t>
+          <t>[[_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{ id:'[[&lt;-.data.frame', href:'/detail/base/[[_-data.frame.html',funcname:'[[&lt;-.data.frame'},</t>
+          <t>{ id:'[[&lt;-.data.frame', href:'/detail/base/[[_-_data_frame.html',funcname:'[[&lt;-.data.frame'},</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[[_-.data.frame</t>
+          <t>[[_-_data_frame</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{ id:'[[&lt;-.factor', href:'/detail/base/[[_-factor.html',funcname:'[[&lt;-.factor'},</t>
+          <t>{ id:'[[&lt;-.factor', href:'/detail/base/[[_-_factor.html',funcname:'[[&lt;-.factor'},</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[[_-.factor</t>
+          <t>[[_-_factor</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{ id:'[[&lt;-.numeric_version', href:'/detail/base/[[_-numeric_version.html',funcname:'[[&lt;-.numeric_version'},</t>
+          <t>{ id:'[[&lt;-.numeric_version', href:'/detail/base/[[_-_numeric_version.html',funcname:'[[&lt;-.numeric_version'},</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[[_-.numeric_version</t>
+          <t>[[_-_numeric_version</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{ id:'[[&lt;-.POSIXlt', href:'/detail/base/[[_-POSIXlt.html',funcname:'[[&lt;-.POSIXlt'},</t>
+          <t>{ id:'[[&lt;-.POSIXlt', href:'/detail/base/[[_-_POSIXlt.html',funcname:'[[&lt;-.POSIXlt'},</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[[_-.POSIXlt</t>
+          <t>[[_-_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.data.frame', href:'/detail/base/[_-data.frame.html',funcname:'[&lt;-.data.frame'},</t>
+          <t>{ id:'[&lt;-.data.frame', href:'/detail/base/[_-_data_frame.html',funcname:'[&lt;-.data.frame'},</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[_-.data.frame</t>
+          <t>[_-_data_frame</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.Date', href:'/detail/base/[_-Date.html',funcname:'[&lt;-.Date'},</t>
+          <t>{ id:'[&lt;-.Date', href:'/detail/base/[_-_Date.html',funcname:'[&lt;-.Date'},</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[_-.Date</t>
+          <t>[_-_Date</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.difftime', href:'/detail/base/[_-difftime.html',funcname:'[&lt;-.difftime'},</t>
+          <t>{ id:'[&lt;-.difftime', href:'/detail/base/[_-_difftime.html',funcname:'[&lt;-.difftime'},</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[_-.difftime</t>
+          <t>[_-_difftime</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.factor', href:'/detail/base/[_-factor.html',funcname:'[&lt;-.factor'},</t>
+          <t>{ id:'[&lt;-.factor', href:'/detail/base/[_-_factor.html',funcname:'[&lt;-.factor'},</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[_-.factor</t>
+          <t>[_-_factor</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.numeric_version', href:'/detail/base/[_-numeric_version.html',funcname:'[&lt;-.numeric_version'},</t>
+          <t>{ id:'[&lt;-.numeric_version', href:'/detail/base/[_-_numeric_version.html',funcname:'[&lt;-.numeric_version'},</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[_-.numeric_version</t>
+          <t>[_-_numeric_version</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.POSIXct', href:'/detail/base/[_-POSIXct.html',funcname:'[&lt;-.POSIXct'},</t>
+          <t>{ id:'[&lt;-.POSIXct', href:'/detail/base/[_-_POSIXct.html',funcname:'[&lt;-.POSIXct'},</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[_-.POSIXct</t>
+          <t>[_-_POSIXct</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{ id:'[&lt;-.POSIXlt', href:'/detail/base/[_-POSIXlt.html',funcname:'[&lt;-.POSIXlt'},</t>
+          <t>{ id:'[&lt;-.POSIXlt', href:'/detail/base/[_-_POSIXlt.html',funcname:'[&lt;-.POSIXlt'},</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[_-.POSIXlt</t>
+          <t>[_-_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{ id:'*.difftime', href:'/detail/base/_difftime.html',funcname:'*.difftime'},</t>
+          <t>{ id:'*.difftime', href:'/detail/base/__difftime.html',funcname:'*.difftime'},</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>_.difftime</t>
+          <t>__difftime</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{ id:'/.difftime', href:'/detail/base/_difftime.html',funcname:'/.difftime'},</t>
+          <t>{ id:'/.difftime', href:'/detail/base/__difftime.html',funcname:'/.difftime'},</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>_.difftime</t>
+          <t>__difftime</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{ id:'&amp;.hexmode', href:'/detail/base/&amp;hexmode.html',funcname:'&amp;.hexmode'},</t>
+          <t>{ id:'&amp;.hexmode', href:'/detail/base/&amp;_hexmode.html',funcname:'&amp;.hexmode'},</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>&amp;.hexmode</t>
+          <t>&amp;_hexmode</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{ id:'&amp;.octmode', href:'/detail/base/&amp;octmode.html',funcname:'&amp;.octmode'},</t>
+          <t>{ id:'&amp;.octmode', href:'/detail/base/&amp;_octmode.html',funcname:'&amp;.octmode'},</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>&amp;.octmode</t>
+          <t>&amp;_octmode</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{ id:'+.Date', href:'/detail/base/+Date.html',funcname:'+.Date'},</t>
+          <t>{ id:'+.Date', href:'/detail/base/+_Date.html',funcname:'+.Date'},</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>+.Date</t>
+          <t>+_Date</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{ id:'+.POSIXt', href:'/detail/base/+POSIXt.html',funcname:'+.POSIXt'},</t>
+          <t>{ id:'+.POSIXt', href:'/detail/base/+_POSIXt.html',funcname:'+.POSIXt'},</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+.POSIXt</t>
+          <t>+_POSIXt</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{ id:'|.hexmode', href:'/detail/base/_hexmode.html',funcname:'|.hexmode'},</t>
+          <t>{ id:'|.hexmode', href:'/detail/base/__hexmode.html',funcname:'|.hexmode'},</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>_.hexmode</t>
+          <t>__hexmode</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1742,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{ id:'|.octmode', href:'/detail/base/_octmode.html',funcname:'|.octmode'},</t>
+          <t>{ id:'|.octmode', href:'/detail/base/__octmode.html',funcname:'|.octmode'},</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>_.octmode</t>
+          <t>__octmode</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{ id:'$.DLLInfo', href:'/detail/base/$DLLInfo.html',funcname:'$.DLLInfo'},</t>
+          <t>{ id:'$.DLLInfo', href:'/detail/base/$_DLLInfo.html',funcname:'$.DLLInfo'},</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$.DLLInfo</t>
+          <t>$_DLLInfo</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{ id:'$.package_version', href:'/detail/base/$package_version.html',funcname:'$.package_version'},</t>
+          <t>{ id:'$.package_version', href:'/detail/base/$_package_version.html',funcname:'$.package_version'},</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$.package_version</t>
+          <t>$_package_version</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{ id:'$&lt;-.data.frame', href:'/detail/base/$_-data.frame.html',funcname:'$&lt;-.data.frame'},</t>
+          <t>{ id:'$&lt;-.data.frame', href:'/detail/base/$_-_data_frame.html',funcname:'$&lt;-.data.frame'},</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$_-.data.frame</t>
+          <t>$_-_data_frame</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>{ id:'all.equal', href:'/detail/base/allequal.html',funcname:'all.equal'},</t>
+          <t>{ id:'all.equal', href:'/detail/base/all_equal.html',funcname:'all.equal'},</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>all.equal</t>
+          <t>all_equal</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2082,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.character', href:'/detail/base/allequal.character.html',funcname:'all.equal.character'},</t>
+          <t>{ id:'all.equal.character', href:'/detail/base/all_equal_character.html',funcname:'all.equal.character'},</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>all.equal.character</t>
+          <t>all_equal_character</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.default', href:'/detail/base/allequal.default.html',funcname:'all.equal.default'},</t>
+          <t>{ id:'all.equal.default', href:'/detail/base/all_equal_default.html',funcname:'all.equal.default'},</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>all.equal.default</t>
+          <t>all_equal_default</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.environment', href:'/detail/base/allequal.environment.html',funcname:'all.equal.environment'},</t>
+          <t>{ id:'all.equal.environment', href:'/detail/base/all_equal_environment.html',funcname:'all.equal.environment'},</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>all.equal.environment</t>
+          <t>all_equal_environment</t>
         </is>
       </c>
     </row>
@@ -2133,12 +2133,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.envRefClass', href:'/detail/base/allequal.envRefClass.html',funcname:'all.equal.envRefClass'},</t>
+          <t>{ id:'all.equal.envRefClass', href:'/detail/base/all_equal_envRefClass.html',funcname:'all.equal.envRefClass'},</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>all.equal.envRefClass</t>
+          <t>all_equal_envRefClass</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.factor', href:'/detail/base/allequal.factor.html',funcname:'all.equal.factor'},</t>
+          <t>{ id:'all.equal.factor', href:'/detail/base/all_equal_factor.html',funcname:'all.equal.factor'},</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>all.equal.factor</t>
+          <t>all_equal_factor</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.formula', href:'/detail/base/allequal.formula.html',funcname:'all.equal.formula'},</t>
+          <t>{ id:'all.equal.formula', href:'/detail/base/all_equal_formula.html',funcname:'all.equal.formula'},</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>all.equal.formula</t>
+          <t>all_equal_formula</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.function', href:'/detail/base/allequal.function.html',funcname:'all.equal.function'},</t>
+          <t>{ id:'all.equal.function', href:'/detail/base/all_equal_function.html',funcname:'all.equal.function'},</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>all.equal.function</t>
+          <t>all_equal_function</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.language', href:'/detail/base/allequal.language.html',funcname:'all.equal.language'},</t>
+          <t>{ id:'all.equal.language', href:'/detail/base/all_equal_language.html',funcname:'all.equal.language'},</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>all.equal.language</t>
+          <t>all_equal_language</t>
         </is>
       </c>
     </row>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.list', href:'/detail/base/allequal.list.html',funcname:'all.equal.list'},</t>
+          <t>{ id:'all.equal.list', href:'/detail/base/all_equal_list.html',funcname:'all.equal.list'},</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>all.equal.list</t>
+          <t>all_equal_list</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.numeric', href:'/detail/base/allequal.numeric.html',funcname:'all.equal.numeric'},</t>
+          <t>{ id:'all.equal.numeric', href:'/detail/base/all_equal_numeric.html',funcname:'all.equal.numeric'},</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>all.equal.numeric</t>
+          <t>all_equal_numeric</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.POSIXt', href:'/detail/base/allequal.POSIXt.html',funcname:'all.equal.POSIXt'},</t>
+          <t>{ id:'all.equal.POSIXt', href:'/detail/base/all_equal_POSIXt.html',funcname:'all.equal.POSIXt'},</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>all.equal.POSIXt</t>
+          <t>all_equal_POSIXt</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>{ id:'all.equal.raw', href:'/detail/base/allequal.raw.html',funcname:'all.equal.raw'},</t>
+          <t>{ id:'all.equal.raw', href:'/detail/base/all_equal_raw.html',funcname:'all.equal.raw'},</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>all.equal.raw</t>
+          <t>all_equal_raw</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>{ id:'all.names', href:'/detail/base/allnames.html',funcname:'all.names'},</t>
+          <t>{ id:'all.names', href:'/detail/base/all_names.html',funcname:'all.names'},</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>all.names</t>
+          <t>all_names</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>{ id:'all.vars', href:'/detail/base/allvars.html',funcname:'all.vars'},</t>
+          <t>{ id:'all.vars', href:'/detail/base/all_vars.html',funcname:'all.vars'},</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>all.vars</t>
+          <t>all_vars</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>{ id:'anyDuplicated.array', href:'/detail/base/anyDuplicatedarray.html',funcname:'anyDuplicated.array'},</t>
+          <t>{ id:'anyDuplicated.array', href:'/detail/base/anyDuplicated_array.html',funcname:'anyDuplicated.array'},</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>anyDuplicated.array</t>
+          <t>anyDuplicated_array</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>{ id:'anyDuplicated.data.frame', href:'/detail/base/anyDuplicateddata.frame.html',funcname:'anyDuplicated.data.frame'},</t>
+          <t>{ id:'anyDuplicated.data.frame', href:'/detail/base/anyDuplicated_data_frame.html',funcname:'anyDuplicated.data.frame'},</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>anyDuplicated.data.frame</t>
+          <t>anyDuplicated_data_frame</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>{ id:'anyDuplicated.default', href:'/detail/base/anyDuplicateddefault.html',funcname:'anyDuplicated.default'},</t>
+          <t>{ id:'anyDuplicated.default', href:'/detail/base/anyDuplicated_default.html',funcname:'anyDuplicated.default'},</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>anyDuplicated.default</t>
+          <t>anyDuplicated_default</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>{ id:'anyDuplicated.matrix', href:'/detail/base/anyDuplicatedmatrix.html',funcname:'anyDuplicated.matrix'},</t>
+          <t>{ id:'anyDuplicated.matrix', href:'/detail/base/anyDuplicated_matrix.html',funcname:'anyDuplicated.matrix'},</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>anyDuplicated.matrix</t>
+          <t>anyDuplicated_matrix</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>{ id:'anyNA.data.frame', href:'/detail/base/anyNAdata.frame.html',funcname:'anyNA.data.frame'},</t>
+          <t>{ id:'anyNA.data.frame', href:'/detail/base/anyNA_data_frame.html',funcname:'anyNA.data.frame'},</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>anyNA.data.frame</t>
+          <t>anyNA_data_frame</t>
         </is>
       </c>
     </row>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>{ id:'anyNA.numeric_version', href:'/detail/base/anyNAnumeric_version.html',funcname:'anyNA.numeric_version'},</t>
+          <t>{ id:'anyNA.numeric_version', href:'/detail/base/anyNA_numeric_version.html',funcname:'anyNA.numeric_version'},</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>anyNA.numeric_version</t>
+          <t>anyNA_numeric_version</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>{ id:'anyNA.POSIXlt', href:'/detail/base/anyNAPOSIXlt.html',funcname:'anyNA.POSIXlt'},</t>
+          <t>{ id:'anyNA.POSIXlt', href:'/detail/base/anyNA_POSIXlt.html',funcname:'anyNA.POSIXlt'},</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>anyNA.POSIXlt</t>
+          <t>anyNA_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>{ id:'aperm.default', href:'/detail/base/apermdefault.html',funcname:'aperm.default'},</t>
+          <t>{ id:'aperm.default', href:'/detail/base/aperm_default.html',funcname:'aperm.default'},</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>aperm.default</t>
+          <t>aperm_default</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>{ id:'aperm.table', href:'/detail/base/apermtable.html',funcname:'aperm.table'},</t>
+          <t>{ id:'aperm.table', href:'/detail/base/aperm_table.html',funcname:'aperm.table'},</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>aperm.table</t>
+          <t>aperm_table</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>{ id:'as.array', href:'/detail/base/asarray.html',funcname:'as.array'},</t>
+          <t>{ id:'as.array', href:'/detail/base/as_array.html',funcname:'as.array'},</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>as.array</t>
+          <t>as_array</t>
         </is>
       </c>
     </row>
@@ -2677,12 +2677,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>{ id:'as.array.default', href:'/detail/base/asarray.default.html',funcname:'as.array.default'},</t>
+          <t>{ id:'as.array.default', href:'/detail/base/as_array_default.html',funcname:'as.array.default'},</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>as.array.default</t>
+          <t>as_array_default</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>{ id:'as.call', href:'/detail/base/ascall.html',funcname:'as.call'},</t>
+          <t>{ id:'as.call', href:'/detail/base/as_call.html',funcname:'as.call'},</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>as.call</t>
+          <t>as_call</t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>{ id:'as.character', href:'/detail/base/ascharacter.html',funcname:'as.character'},</t>
+          <t>{ id:'as.character', href:'/detail/base/as_character.html',funcname:'as.character'},</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>as.character</t>
+          <t>as_character</t>
         </is>
       </c>
     </row>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>{ id:'as.character.condition', href:'/detail/base/ascharacter.condition.html',funcname:'as.character.condition'},</t>
+          <t>{ id:'as.character.condition', href:'/detail/base/as_character_condition.html',funcname:'as.character.condition'},</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>as.character.condition</t>
+          <t>as_character_condition</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>{ id:'as.character.Date', href:'/detail/base/ascharacter.Date.html',funcname:'as.character.Date'},</t>
+          <t>{ id:'as.character.Date', href:'/detail/base/as_character_Date.html',funcname:'as.character.Date'},</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>as.character.Date</t>
+          <t>as_character_Date</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2762,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>{ id:'as.character.default', href:'/detail/base/ascharacter.default.html',funcname:'as.character.default'},</t>
+          <t>{ id:'as.character.default', href:'/detail/base/as_character_default.html',funcname:'as.character.default'},</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>as.character.default</t>
+          <t>as_character_default</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>{ id:'as.character.error', href:'/detail/base/ascharacter.error.html',funcname:'as.character.error'},</t>
+          <t>{ id:'as.character.error', href:'/detail/base/as_character_error.html',funcname:'as.character.error'},</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>as.character.error</t>
+          <t>as_character_error</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>{ id:'as.character.factor', href:'/detail/base/ascharacter.factor.html',funcname:'as.character.factor'},</t>
+          <t>{ id:'as.character.factor', href:'/detail/base/as_character_factor.html',funcname:'as.character.factor'},</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>as.character.factor</t>
+          <t>as_character_factor</t>
         </is>
       </c>
     </row>
@@ -2813,12 +2813,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>{ id:'as.character.hexmode', href:'/detail/base/ascharacter.hexmode.html',funcname:'as.character.hexmode'},</t>
+          <t>{ id:'as.character.hexmode', href:'/detail/base/as_character_hexmode.html',funcname:'as.character.hexmode'},</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>as.character.hexmode</t>
+          <t>as_character_hexmode</t>
         </is>
       </c>
     </row>
@@ -2830,12 +2830,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>{ id:'as.character.numeric_version', href:'/detail/base/ascharacter.numeric_version.html',funcname:'as.character.numeric_version'},</t>
+          <t>{ id:'as.character.numeric_version', href:'/detail/base/as_character_numeric_version.html',funcname:'as.character.numeric_version'},</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>as.character.numeric_version</t>
+          <t>as_character_numeric_version</t>
         </is>
       </c>
     </row>
@@ -2847,12 +2847,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>{ id:'as.character.octmode', href:'/detail/base/ascharacter.octmode.html',funcname:'as.character.octmode'},</t>
+          <t>{ id:'as.character.octmode', href:'/detail/base/as_character_octmode.html',funcname:'as.character.octmode'},</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>as.character.octmode</t>
+          <t>as_character_octmode</t>
         </is>
       </c>
     </row>
@@ -2864,12 +2864,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>{ id:'as.character.POSIXt', href:'/detail/base/ascharacter.POSIXt.html',funcname:'as.character.POSIXt'},</t>
+          <t>{ id:'as.character.POSIXt', href:'/detail/base/as_character_POSIXt.html',funcname:'as.character.POSIXt'},</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>as.character.POSIXt</t>
+          <t>as_character_POSIXt</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>{ id:'as.character.srcref', href:'/detail/base/ascharacter.srcref.html',funcname:'as.character.srcref'},</t>
+          <t>{ id:'as.character.srcref', href:'/detail/base/as_character_srcref.html',funcname:'as.character.srcref'},</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>as.character.srcref</t>
+          <t>as_character_srcref</t>
         </is>
       </c>
     </row>
@@ -2898,12 +2898,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>{ id:'as.complex', href:'/detail/base/ascomplex.html',funcname:'as.complex'},</t>
+          <t>{ id:'as.complex', href:'/detail/base/as_complex.html',funcname:'as.complex'},</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>as.complex</t>
+          <t>as_complex</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame', href:'/detail/base/asdata.frame.html',funcname:'as.data.frame'},</t>
+          <t>{ id:'as.data.frame', href:'/detail/base/as_data_frame.html',funcname:'as.data.frame'},</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>as.data.frame</t>
+          <t>as_data_frame</t>
         </is>
       </c>
     </row>
@@ -2932,12 +2932,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.array', href:'/detail/base/asdata.frame.array.html',funcname:'as.data.frame.array'},</t>
+          <t>{ id:'as.data.frame.array', href:'/detail/base/as_data_frame_array.html',funcname:'as.data.frame.array'},</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>as.data.frame.array</t>
+          <t>as_data_frame_array</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.AsIs', href:'/detail/base/asdata.frame.AsIs.html',funcname:'as.data.frame.AsIs'},</t>
+          <t>{ id:'as.data.frame.AsIs', href:'/detail/base/as_data_frame_AsIs.html',funcname:'as.data.frame.AsIs'},</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>as.data.frame.AsIs</t>
+          <t>as_data_frame_AsIs</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.character', href:'/detail/base/asdata.frame.character.html',funcname:'as.data.frame.character'},</t>
+          <t>{ id:'as.data.frame.character', href:'/detail/base/as_data_frame_character.html',funcname:'as.data.frame.character'},</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>as.data.frame.character</t>
+          <t>as_data_frame_character</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.complex', href:'/detail/base/asdata.frame.complex.html',funcname:'as.data.frame.complex'},</t>
+          <t>{ id:'as.data.frame.complex', href:'/detail/base/as_data_frame_complex.html',funcname:'as.data.frame.complex'},</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>as.data.frame.complex</t>
+          <t>as_data_frame_complex</t>
         </is>
       </c>
     </row>
@@ -3000,12 +3000,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.data.frame', href:'/detail/base/asdata.frame.data.frame.html',funcname:'as.data.frame.data.frame'},</t>
+          <t>{ id:'as.data.frame.data.frame', href:'/detail/base/as_data_frame_data_frame.html',funcname:'as.data.frame.data.frame'},</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>as.data.frame.data.frame</t>
+          <t>as_data_frame_data_frame</t>
         </is>
       </c>
     </row>
@@ -3017,12 +3017,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.Date', href:'/detail/base/asdata.frame.Date.html',funcname:'as.data.frame.Date'},</t>
+          <t>{ id:'as.data.frame.Date', href:'/detail/base/as_data_frame_Date.html',funcname:'as.data.frame.Date'},</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>as.data.frame.Date</t>
+          <t>as_data_frame_Date</t>
         </is>
       </c>
     </row>
@@ -3034,12 +3034,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.default', href:'/detail/base/asdata.frame.default.html',funcname:'as.data.frame.default'},</t>
+          <t>{ id:'as.data.frame.default', href:'/detail/base/as_data_frame_default.html',funcname:'as.data.frame.default'},</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>as.data.frame.default</t>
+          <t>as_data_frame_default</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3051,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.difftime', href:'/detail/base/asdata.frame.difftime.html',funcname:'as.data.frame.difftime'},</t>
+          <t>{ id:'as.data.frame.difftime', href:'/detail/base/as_data_frame_difftime.html',funcname:'as.data.frame.difftime'},</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>as.data.frame.difftime</t>
+          <t>as_data_frame_difftime</t>
         </is>
       </c>
     </row>
@@ -3068,12 +3068,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.factor', href:'/detail/base/asdata.frame.factor.html',funcname:'as.data.frame.factor'},</t>
+          <t>{ id:'as.data.frame.factor', href:'/detail/base/as_data_frame_factor.html',funcname:'as.data.frame.factor'},</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>as.data.frame.factor</t>
+          <t>as_data_frame_factor</t>
         </is>
       </c>
     </row>
@@ -3085,12 +3085,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.integer', href:'/detail/base/asdata.frame.integer.html',funcname:'as.data.frame.integer'},</t>
+          <t>{ id:'as.data.frame.integer', href:'/detail/base/as_data_frame_integer.html',funcname:'as.data.frame.integer'},</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>as.data.frame.integer</t>
+          <t>as_data_frame_integer</t>
         </is>
       </c>
     </row>
@@ -3102,12 +3102,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.list', href:'/detail/base/asdata.frame.list.html',funcname:'as.data.frame.list'},</t>
+          <t>{ id:'as.data.frame.list', href:'/detail/base/as_data_frame_list.html',funcname:'as.data.frame.list'},</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>as.data.frame.list</t>
+          <t>as_data_frame_list</t>
         </is>
       </c>
     </row>
@@ -3119,12 +3119,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.logical', href:'/detail/base/asdata.frame.logical.html',funcname:'as.data.frame.logical'},</t>
+          <t>{ id:'as.data.frame.logical', href:'/detail/base/as_data_frame_logical.html',funcname:'as.data.frame.logical'},</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>as.data.frame.logical</t>
+          <t>as_data_frame_logical</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.matrix', href:'/detail/base/asdata.frame.matrix.html',funcname:'as.data.frame.matrix'},</t>
+          <t>{ id:'as.data.frame.matrix', href:'/detail/base/as_data_frame_matrix.html',funcname:'as.data.frame.matrix'},</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>as.data.frame.matrix</t>
+          <t>as_data_frame_matrix</t>
         </is>
       </c>
     </row>
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.model.matrix', href:'/detail/base/asdata.frame.model.matrix.html',funcname:'as.data.frame.model.matrix'},</t>
+          <t>{ id:'as.data.frame.model.matrix', href:'/detail/base/as_data_frame_model_matrix.html',funcname:'as.data.frame.model.matrix'},</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>as.data.frame.model.matrix</t>
+          <t>as_data_frame_model_matrix</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3170,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.noquote', href:'/detail/base/asdata.frame.noquote.html',funcname:'as.data.frame.noquote'},</t>
+          <t>{ id:'as.data.frame.noquote', href:'/detail/base/as_data_frame_noquote.html',funcname:'as.data.frame.noquote'},</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>as.data.frame.noquote</t>
+          <t>as_data_frame_noquote</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.numeric', href:'/detail/base/asdata.frame.numeric.html',funcname:'as.data.frame.numeric'},</t>
+          <t>{ id:'as.data.frame.numeric', href:'/detail/base/as_data_frame_numeric.html',funcname:'as.data.frame.numeric'},</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>as.data.frame.numeric</t>
+          <t>as_data_frame_numeric</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.numeric_version', href:'/detail/base/asdata.frame.numeric_version.html',funcname:'as.data.frame.numeric_version'},</t>
+          <t>{ id:'as.data.frame.numeric_version', href:'/detail/base/as_data_frame_numeric_version.html',funcname:'as.data.frame.numeric_version'},</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>as.data.frame.numeric_version</t>
+          <t>as_data_frame_numeric_version</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.ordered', href:'/detail/base/asdata.frame.ordered.html',funcname:'as.data.frame.ordered'},</t>
+          <t>{ id:'as.data.frame.ordered', href:'/detail/base/as_data_frame_ordered.html',funcname:'as.data.frame.ordered'},</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>as.data.frame.ordered</t>
+          <t>as_data_frame_ordered</t>
         </is>
       </c>
     </row>
@@ -3238,12 +3238,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.POSIXct', href:'/detail/base/asdata.frame.POSIXct.html',funcname:'as.data.frame.POSIXct'},</t>
+          <t>{ id:'as.data.frame.POSIXct', href:'/detail/base/as_data_frame_POSIXct.html',funcname:'as.data.frame.POSIXct'},</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>as.data.frame.POSIXct</t>
+          <t>as_data_frame_POSIXct</t>
         </is>
       </c>
     </row>
@@ -3255,12 +3255,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.POSIXlt', href:'/detail/base/asdata.frame.POSIXlt.html',funcname:'as.data.frame.POSIXlt'},</t>
+          <t>{ id:'as.data.frame.POSIXlt', href:'/detail/base/as_data_frame_POSIXlt.html',funcname:'as.data.frame.POSIXlt'},</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>as.data.frame.POSIXlt</t>
+          <t>as_data_frame_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -3272,12 +3272,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.raw', href:'/detail/base/asdata.frame.raw.html',funcname:'as.data.frame.raw'},</t>
+          <t>{ id:'as.data.frame.raw', href:'/detail/base/as_data_frame_raw.html',funcname:'as.data.frame.raw'},</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>as.data.frame.raw</t>
+          <t>as_data_frame_raw</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.table', href:'/detail/base/asdata.frame.table.html',funcname:'as.data.frame.table'},</t>
+          <t>{ id:'as.data.frame.table', href:'/detail/base/as_data_frame_table.html',funcname:'as.data.frame.table'},</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>as.data.frame.table</t>
+          <t>as_data_frame_table</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.ts', href:'/detail/base/asdata.frame.ts.html',funcname:'as.data.frame.ts'},</t>
+          <t>{ id:'as.data.frame.ts', href:'/detail/base/as_data_frame_ts.html',funcname:'as.data.frame.ts'},</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>as.data.frame.ts</t>
+          <t>as_data_frame_ts</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>{ id:'as.data.frame.vector', href:'/detail/base/asdata.frame.vector.html',funcname:'as.data.frame.vector'},</t>
+          <t>{ id:'as.data.frame.vector', href:'/detail/base/as_data_frame_vector.html',funcname:'as.data.frame.vector'},</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>as.data.frame.vector</t>
+          <t>as_data_frame_vector</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3340,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>{ id:'as.Date', href:'/detail/base/asDate.html',funcname:'as.Date'},</t>
+          <t>{ id:'as.Date', href:'/detail/base/as_Date.html',funcname:'as.Date'},</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>as.Date</t>
+          <t>as_Date</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>{ id:'as.Date.character', href:'/detail/base/asDate.character.html',funcname:'as.Date.character'},</t>
+          <t>{ id:'as.Date.character', href:'/detail/base/as_Date_character.html',funcname:'as.Date.character'},</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>as.Date.character</t>
+          <t>as_Date_character</t>
         </is>
       </c>
     </row>
@@ -3374,12 +3374,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>{ id:'as.Date.default', href:'/detail/base/asDate.default.html',funcname:'as.Date.default'},</t>
+          <t>{ id:'as.Date.default', href:'/detail/base/as_Date_default.html',funcname:'as.Date.default'},</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>as.Date.default</t>
+          <t>as_Date_default</t>
         </is>
       </c>
     </row>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>{ id:'as.Date.factor', href:'/detail/base/asDate.factor.html',funcname:'as.Date.factor'},</t>
+          <t>{ id:'as.Date.factor', href:'/detail/base/as_Date_factor.html',funcname:'as.Date.factor'},</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>as.Date.factor</t>
+          <t>as_Date_factor</t>
         </is>
       </c>
     </row>
@@ -3408,12 +3408,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>{ id:'as.Date.numeric', href:'/detail/base/asDate.numeric.html',funcname:'as.Date.numeric'},</t>
+          <t>{ id:'as.Date.numeric', href:'/detail/base/as_Date_numeric.html',funcname:'as.Date.numeric'},</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>as.Date.numeric</t>
+          <t>as_Date_numeric</t>
         </is>
       </c>
     </row>
@@ -3425,12 +3425,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>{ id:'as.Date.POSIXct', href:'/detail/base/asDate.POSIXct.html',funcname:'as.Date.POSIXct'},</t>
+          <t>{ id:'as.Date.POSIXct', href:'/detail/base/as_Date_POSIXct.html',funcname:'as.Date.POSIXct'},</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>as.Date.POSIXct</t>
+          <t>as_Date_POSIXct</t>
         </is>
       </c>
     </row>
@@ -3442,12 +3442,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>{ id:'as.Date.POSIXlt', href:'/detail/base/asDate.POSIXlt.html',funcname:'as.Date.POSIXlt'},</t>
+          <t>{ id:'as.Date.POSIXlt', href:'/detail/base/as_Date_POSIXlt.html',funcname:'as.Date.POSIXlt'},</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>as.Date.POSIXlt</t>
+          <t>as_Date_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>{ id:'as.difftime', href:'/detail/base/asdifftime.html',funcname:'as.difftime'},</t>
+          <t>{ id:'as.difftime', href:'/detail/base/as_difftime.html',funcname:'as.difftime'},</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>as.difftime</t>
+          <t>as_difftime</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>{ id:'as.double', href:'/detail/base/asdouble.html',funcname:'as.double'},</t>
+          <t>{ id:'as.double', href:'/detail/base/as_double.html',funcname:'as.double'},</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>as.double</t>
+          <t>as_double</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>{ id:'as.double.difftime', href:'/detail/base/asdouble.difftime.html',funcname:'as.double.difftime'},</t>
+          <t>{ id:'as.double.difftime', href:'/detail/base/as_double_difftime.html',funcname:'as.double.difftime'},</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>as.double.difftime</t>
+          <t>as_double_difftime</t>
         </is>
       </c>
     </row>
@@ -3510,12 +3510,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>{ id:'as.double.POSIXlt', href:'/detail/base/asdouble.POSIXlt.html',funcname:'as.double.POSIXlt'},</t>
+          <t>{ id:'as.double.POSIXlt', href:'/detail/base/as_double_POSIXlt.html',funcname:'as.double.POSIXlt'},</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>as.double.POSIXlt</t>
+          <t>as_double_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -3527,12 +3527,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>{ id:'as.environment', href:'/detail/base/asenvironment.html',funcname:'as.environment'},</t>
+          <t>{ id:'as.environment', href:'/detail/base/as_environment.html',funcname:'as.environment'},</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>as.environment</t>
+          <t>as_environment</t>
         </is>
       </c>
     </row>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>{ id:'as.expression', href:'/detail/base/asexpression.html',funcname:'as.expression'},</t>
+          <t>{ id:'as.expression', href:'/detail/base/as_expression.html',funcname:'as.expression'},</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>as.expression</t>
+          <t>as_expression</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>{ id:'as.expression.default', href:'/detail/base/asexpression.default.html',funcname:'as.expression.default'},</t>
+          <t>{ id:'as.expression.default', href:'/detail/base/as_expression_default.html',funcname:'as.expression.default'},</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>as.expression.default</t>
+          <t>as_expression_default</t>
         </is>
       </c>
     </row>
@@ -3578,12 +3578,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>{ id:'as.factor', href:'/detail/base/asfactor.html',funcname:'as.factor'},</t>
+          <t>{ id:'as.factor', href:'/detail/base/as_factor.html',funcname:'as.factor'},</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>as.factor</t>
+          <t>as_factor</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>{ id:'as.function', href:'/detail/base/asfunction.html',funcname:'as.function'},</t>
+          <t>{ id:'as.function', href:'/detail/base/as_function.html',funcname:'as.function'},</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>as.function</t>
+          <t>as_function</t>
         </is>
       </c>
     </row>
@@ -3612,12 +3612,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>{ id:'as.function.default', href:'/detail/base/asfunction.default.html',funcname:'as.function.default'},</t>
+          <t>{ id:'as.function.default', href:'/detail/base/as_function_default.html',funcname:'as.function.default'},</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>as.function.default</t>
+          <t>as_function_default</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>{ id:'as.hexmode', href:'/detail/base/ashexmode.html',funcname:'as.hexmode'},</t>
+          <t>{ id:'as.hexmode', href:'/detail/base/as_hexmode.html',funcname:'as.hexmode'},</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>as.hexmode</t>
+          <t>as_hexmode</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>{ id:'as.integer', href:'/detail/base/asinteger.html',funcname:'as.integer'},</t>
+          <t>{ id:'as.integer', href:'/detail/base/as_integer.html',funcname:'as.integer'},</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>as.integer</t>
+          <t>as_integer</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>{ id:'as.list', href:'/detail/base/aslist.html',funcname:'as.list'},</t>
+          <t>{ id:'as.list', href:'/detail/base/as_list.html',funcname:'as.list'},</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>as.list</t>
+          <t>as_list</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>{ id:'as.list.data.frame', href:'/detail/base/aslist.data.frame.html',funcname:'as.list.data.frame'},</t>
+          <t>{ id:'as.list.data.frame', href:'/detail/base/as_list_data_frame.html',funcname:'as.list.data.frame'},</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>as.list.data.frame</t>
+          <t>as_list_data_frame</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>{ id:'as.list.Date', href:'/detail/base/aslist.Date.html',funcname:'as.list.Date'},</t>
+          <t>{ id:'as.list.Date', href:'/detail/base/as_list_Date.html',funcname:'as.list.Date'},</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>as.list.Date</t>
+          <t>as_list_Date</t>
         </is>
       </c>
     </row>
@@ -3714,12 +3714,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>{ id:'as.list.default', href:'/detail/base/aslist.default.html',funcname:'as.list.default'},</t>
+          <t>{ id:'as.list.default', href:'/detail/base/as_list_default.html',funcname:'as.list.default'},</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>as.list.default</t>
+          <t>as_list_default</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3731,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>{ id:'as.list.difftime', href:'/detail/base/aslist.difftime.html',funcname:'as.list.difftime'},</t>
+          <t>{ id:'as.list.difftime', href:'/detail/base/as_list_difftime.html',funcname:'as.list.difftime'},</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>as.list.difftime</t>
+          <t>as_list_difftime</t>
         </is>
       </c>
     </row>
@@ -3748,12 +3748,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>{ id:'as.list.environment', href:'/detail/base/aslist.environment.html',funcname:'as.list.environment'},</t>
+          <t>{ id:'as.list.environment', href:'/detail/base/as_list_environment.html',funcname:'as.list.environment'},</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>as.list.environment</t>
+          <t>as_list_environment</t>
         </is>
       </c>
     </row>
@@ -3765,12 +3765,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>{ id:'as.list.factor', href:'/detail/base/aslist.factor.html',funcname:'as.list.factor'},</t>
+          <t>{ id:'as.list.factor', href:'/detail/base/as_list_factor.html',funcname:'as.list.factor'},</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>as.list.factor</t>
+          <t>as_list_factor</t>
         </is>
       </c>
     </row>
@@ -3782,12 +3782,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>{ id:'as.list.function', href:'/detail/base/aslist.function.html',funcname:'as.list.function'},</t>
+          <t>{ id:'as.list.function', href:'/detail/base/as_list_function.html',funcname:'as.list.function'},</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>as.list.function</t>
+          <t>as_list_function</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>{ id:'as.list.numeric_version', href:'/detail/base/aslist.numeric_version.html',funcname:'as.list.numeric_version'},</t>
+          <t>{ id:'as.list.numeric_version', href:'/detail/base/as_list_numeric_version.html',funcname:'as.list.numeric_version'},</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>as.list.numeric_version</t>
+          <t>as_list_numeric_version</t>
         </is>
       </c>
     </row>
@@ -3816,12 +3816,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>{ id:'as.list.POSIXct', href:'/detail/base/aslist.POSIXct.html',funcname:'as.list.POSIXct'},</t>
+          <t>{ id:'as.list.POSIXct', href:'/detail/base/as_list_POSIXct.html',funcname:'as.list.POSIXct'},</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>as.list.POSIXct</t>
+          <t>as_list_POSIXct</t>
         </is>
       </c>
     </row>
@@ -3833,12 +3833,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>{ id:'as.list.POSIXlt', href:'/detail/base/aslist.POSIXlt.html',funcname:'as.list.POSIXlt'},</t>
+          <t>{ id:'as.list.POSIXlt', href:'/detail/base/as_list_POSIXlt.html',funcname:'as.list.POSIXlt'},</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>as.list.POSIXlt</t>
+          <t>as_list_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -3850,12 +3850,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>{ id:'as.logical', href:'/detail/base/aslogical.html',funcname:'as.logical'},</t>
+          <t>{ id:'as.logical', href:'/detail/base/as_logical.html',funcname:'as.logical'},</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>as.logical</t>
+          <t>as_logical</t>
         </is>
       </c>
     </row>
@@ -3867,12 +3867,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>{ id:'as.logical.factor', href:'/detail/base/aslogical.factor.html',funcname:'as.logical.factor'},</t>
+          <t>{ id:'as.logical.factor', href:'/detail/base/as_logical_factor.html',funcname:'as.logical.factor'},</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>as.logical.factor</t>
+          <t>as_logical_factor</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>{ id:'as.matrix', href:'/detail/base/asmatrix.html',funcname:'as.matrix'},</t>
+          <t>{ id:'as.matrix', href:'/detail/base/as_matrix.html',funcname:'as.matrix'},</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>as.matrix</t>
+          <t>as_matrix</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>{ id:'as.matrix.data.frame', href:'/detail/base/asmatrix.data.frame.html',funcname:'as.matrix.data.frame'},</t>
+          <t>{ id:'as.matrix.data.frame', href:'/detail/base/as_matrix_data_frame.html',funcname:'as.matrix.data.frame'},</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>as.matrix.data.frame</t>
+          <t>as_matrix_data_frame</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>{ id:'as.matrix.default', href:'/detail/base/asmatrix.default.html',funcname:'as.matrix.default'},</t>
+          <t>{ id:'as.matrix.default', href:'/detail/base/as_matrix_default.html',funcname:'as.matrix.default'},</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>as.matrix.default</t>
+          <t>as_matrix_default</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3935,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>{ id:'as.matrix.noquote', href:'/detail/base/asmatrix.noquote.html',funcname:'as.matrix.noquote'},</t>
+          <t>{ id:'as.matrix.noquote', href:'/detail/base/as_matrix_noquote.html',funcname:'as.matrix.noquote'},</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>as.matrix.noquote</t>
+          <t>as_matrix_noquote</t>
         </is>
       </c>
     </row>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>{ id:'as.matrix.POSIXlt', href:'/detail/base/asmatrix.POSIXlt.html',funcname:'as.matrix.POSIXlt'},</t>
+          <t>{ id:'as.matrix.POSIXlt', href:'/detail/base/as_matrix_POSIXlt.html',funcname:'as.matrix.POSIXlt'},</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>as.matrix.POSIXlt</t>
+          <t>as_matrix_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>{ id:'as.name', href:'/detail/base/asname.html',funcname:'as.name'},</t>
+          <t>{ id:'as.name', href:'/detail/base/as_name.html',funcname:'as.name'},</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>as.name</t>
+          <t>as_name</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>{ id:'as.null', href:'/detail/base/asnull.html',funcname:'as.null'},</t>
+          <t>{ id:'as.null', href:'/detail/base/as_null.html',funcname:'as.null'},</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>as.null</t>
+          <t>as_null</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>{ id:'as.null.default', href:'/detail/base/asnull.default.html',funcname:'as.null.default'},</t>
+          <t>{ id:'as.null.default', href:'/detail/base/as_null_default.html',funcname:'as.null.default'},</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>as.null.default</t>
+          <t>as_null_default</t>
         </is>
       </c>
     </row>
@@ -4020,12 +4020,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>{ id:'as.numeric', href:'/detail/base/asnumeric.html',funcname:'as.numeric'},</t>
+          <t>{ id:'as.numeric', href:'/detail/base/as_numeric.html',funcname:'as.numeric'},</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>as.numeric</t>
+          <t>as_numeric</t>
         </is>
       </c>
     </row>
@@ -4037,12 +4037,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>{ id:'as.numeric_version', href:'/detail/base/asnumeric_version.html',funcname:'as.numeric_version'},</t>
+          <t>{ id:'as.numeric_version', href:'/detail/base/as_numeric_version.html',funcname:'as.numeric_version'},</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>as.numeric_version</t>
+          <t>as_numeric_version</t>
         </is>
       </c>
     </row>
@@ -4054,12 +4054,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>{ id:'as.octmode', href:'/detail/base/asoctmode.html',funcname:'as.octmode'},</t>
+          <t>{ id:'as.octmode', href:'/detail/base/as_octmode.html',funcname:'as.octmode'},</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>as.octmode</t>
+          <t>as_octmode</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>{ id:'as.ordered', href:'/detail/base/asordered.html',funcname:'as.ordered'},</t>
+          <t>{ id:'as.ordered', href:'/detail/base/as_ordered.html',funcname:'as.ordered'},</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>as.ordered</t>
+          <t>as_ordered</t>
         </is>
       </c>
     </row>
@@ -4088,12 +4088,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>{ id:'as.package_version', href:'/detail/base/aspackage_version.html',funcname:'as.package_version'},</t>
+          <t>{ id:'as.package_version', href:'/detail/base/as_package_version.html',funcname:'as.package_version'},</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>as.package_version</t>
+          <t>as_package_version</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4105,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>{ id:'as.pairlist', href:'/detail/base/aspairlist.html',funcname:'as.pairlist'},</t>
+          <t>{ id:'as.pairlist', href:'/detail/base/as_pairlist.html',funcname:'as.pairlist'},</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>as.pairlist</t>
+          <t>as_pairlist</t>
         </is>
       </c>
     </row>
@@ -4122,12 +4122,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXct', href:'/detail/base/asPOSIXct.html',funcname:'as.POSIXct'},</t>
+          <t>{ id:'as.POSIXct', href:'/detail/base/as_POSIXct.html',funcname:'as.POSIXct'},</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>as.POSIXct</t>
+          <t>as_POSIXct</t>
         </is>
       </c>
     </row>
@@ -4139,12 +4139,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXct.Date', href:'/detail/base/asPOSIXct.Date.html',funcname:'as.POSIXct.Date'},</t>
+          <t>{ id:'as.POSIXct.Date', href:'/detail/base/as_POSIXct_Date.html',funcname:'as.POSIXct.Date'},</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>as.POSIXct.Date</t>
+          <t>as_POSIXct_Date</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4156,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXct.default', href:'/detail/base/asPOSIXct.default.html',funcname:'as.POSIXct.default'},</t>
+          <t>{ id:'as.POSIXct.default', href:'/detail/base/as_POSIXct_default.html',funcname:'as.POSIXct.default'},</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>as.POSIXct.default</t>
+          <t>as_POSIXct_default</t>
         </is>
       </c>
     </row>
@@ -4173,12 +4173,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXct.numeric', href:'/detail/base/asPOSIXct.numeric.html',funcname:'as.POSIXct.numeric'},</t>
+          <t>{ id:'as.POSIXct.numeric', href:'/detail/base/as_POSIXct_numeric.html',funcname:'as.POSIXct.numeric'},</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>as.POSIXct.numeric</t>
+          <t>as_POSIXct_numeric</t>
         </is>
       </c>
     </row>
@@ -4190,12 +4190,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXct.POSIXlt', href:'/detail/base/asPOSIXct.POSIXlt.html',funcname:'as.POSIXct.POSIXlt'},</t>
+          <t>{ id:'as.POSIXct.POSIXlt', href:'/detail/base/as_POSIXct_POSIXlt.html',funcname:'as.POSIXct.POSIXlt'},</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>as.POSIXct.POSIXlt</t>
+          <t>as_POSIXct_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt', href:'/detail/base/asPOSIXlt.html',funcname:'as.POSIXlt'},</t>
+          <t>{ id:'as.POSIXlt', href:'/detail/base/as_POSIXlt.html',funcname:'as.POSIXlt'},</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>as.POSIXlt</t>
+          <t>as_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -4224,12 +4224,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt.character', href:'/detail/base/asPOSIXlt.character.html',funcname:'as.POSIXlt.character'},</t>
+          <t>{ id:'as.POSIXlt.character', href:'/detail/base/as_POSIXlt_character.html',funcname:'as.POSIXlt.character'},</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>as.POSIXlt.character</t>
+          <t>as_POSIXlt_character</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt.Date', href:'/detail/base/asPOSIXlt.Date.html',funcname:'as.POSIXlt.Date'},</t>
+          <t>{ id:'as.POSIXlt.Date', href:'/detail/base/as_POSIXlt_Date.html',funcname:'as.POSIXlt.Date'},</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>as.POSIXlt.Date</t>
+          <t>as_POSIXlt_Date</t>
         </is>
       </c>
     </row>
@@ -4258,12 +4258,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt.default', href:'/detail/base/asPOSIXlt.default.html',funcname:'as.POSIXlt.default'},</t>
+          <t>{ id:'as.POSIXlt.default', href:'/detail/base/as_POSIXlt_default.html',funcname:'as.POSIXlt.default'},</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>as.POSIXlt.default</t>
+          <t>as_POSIXlt_default</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt.factor', href:'/detail/base/asPOSIXlt.factor.html',funcname:'as.POSIXlt.factor'},</t>
+          <t>{ id:'as.POSIXlt.factor', href:'/detail/base/as_POSIXlt_factor.html',funcname:'as.POSIXlt.factor'},</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>as.POSIXlt.factor</t>
+          <t>as_POSIXlt_factor</t>
         </is>
       </c>
     </row>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt.numeric', href:'/detail/base/asPOSIXlt.numeric.html',funcname:'as.POSIXlt.numeric'},</t>
+          <t>{ id:'as.POSIXlt.numeric', href:'/detail/base/as_POSIXlt_numeric.html',funcname:'as.POSIXlt.numeric'},</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>as.POSIXlt.numeric</t>
+          <t>as_POSIXlt_numeric</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>{ id:'as.POSIXlt.POSIXct', href:'/detail/base/asPOSIXlt.POSIXct.html',funcname:'as.POSIXlt.POSIXct'},</t>
+          <t>{ id:'as.POSIXlt.POSIXct', href:'/detail/base/as_POSIXlt_POSIXct.html',funcname:'as.POSIXlt.POSIXct'},</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>as.POSIXlt.POSIXct</t>
+          <t>as_POSIXlt_POSIXct</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>{ id:'as.qr', href:'/detail/base/asqr.html',funcname:'as.qr'},</t>
+          <t>{ id:'as.qr', href:'/detail/base/as_qr.html',funcname:'as.qr'},</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>as.qr</t>
+          <t>as_qr</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>{ id:'as.raw', href:'/detail/base/asraw.html',funcname:'as.raw'},</t>
+          <t>{ id:'as.raw', href:'/detail/base/as_raw.html',funcname:'as.raw'},</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>as.raw</t>
+          <t>as_raw</t>
         </is>
       </c>
     </row>
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>{ id:'as.single', href:'/detail/base/assingle.html',funcname:'as.single'},</t>
+          <t>{ id:'as.single', href:'/detail/base/as_single.html',funcname:'as.single'},</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>as.single</t>
+          <t>as_single</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4377,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>{ id:'as.single.default', href:'/detail/base/assingle.default.html',funcname:'as.single.default'},</t>
+          <t>{ id:'as.single.default', href:'/detail/base/as_single_default.html',funcname:'as.single.default'},</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>as.single.default</t>
+          <t>as_single_default</t>
         </is>
       </c>
     </row>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>{ id:'as.symbol', href:'/detail/base/assymbol.html',funcname:'as.symbol'},</t>
+          <t>{ id:'as.symbol', href:'/detail/base/as_symbol.html',funcname:'as.symbol'},</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>as.symbol</t>
+          <t>as_symbol</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>{ id:'as.table', href:'/detail/base/astable.html',funcname:'as.table'},</t>
+          <t>{ id:'as.table', href:'/detail/base/as_table.html',funcname:'as.table'},</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>as.table</t>
+          <t>as_table</t>
         </is>
       </c>
     </row>
@@ -4428,12 +4428,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>{ id:'as.table.default', href:'/detail/base/astable.default.html',funcname:'as.table.default'},</t>
+          <t>{ id:'as.table.default', href:'/detail/base/as_table_default.html',funcname:'as.table.default'},</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>as.table.default</t>
+          <t>as_table_default</t>
         </is>
       </c>
     </row>
@@ -4445,12 +4445,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>{ id:'as.vector', href:'/detail/base/asvector.html',funcname:'as.vector'},</t>
+          <t>{ id:'as.vector', href:'/detail/base/as_vector.html',funcname:'as.vector'},</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>as.vector</t>
+          <t>as_vector</t>
         </is>
       </c>
     </row>
@@ -4462,12 +4462,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>{ id:'as.vector.factor', href:'/detail/base/asvector.factor.html',funcname:'as.vector.factor'},</t>
+          <t>{ id:'as.vector.factor', href:'/detail/base/as_vector_factor.html',funcname:'as.vector.factor'},</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>as.vector.factor</t>
+          <t>as_vector_factor</t>
         </is>
       </c>
     </row>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>{ id:'attr.all.equal', href:'/detail/base/attrall.equal.html',funcname:'attr.all.equal'},</t>
+          <t>{ id:'attr.all.equal', href:'/detail/base/attr_all_equal.html',funcname:'attr.all.equal'},</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>attr.all.equal</t>
+          <t>attr_all_equal</t>
         </is>
       </c>
     </row>
@@ -5261,12 +5261,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>{ id:'by.data.frame', href:'/detail/base/bydata.frame.html',funcname:'by.data.frame'},</t>
+          <t>{ id:'by.data.frame', href:'/detail/base/by_data_frame.html',funcname:'by.data.frame'},</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>by.data.frame</t>
+          <t>by_data_frame</t>
         </is>
       </c>
     </row>
@@ -5278,12 +5278,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>{ id:'by.default', href:'/detail/base/bydefault.html',funcname:'by.default'},</t>
+          <t>{ id:'by.default', href:'/detail/base/by_default.html',funcname:'by.default'},</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>by.default</t>
+          <t>by_default</t>
         </is>
       </c>
     </row>
@@ -5329,12 +5329,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>{ id:'c.Date', href:'/detail/base/cDate.html',funcname:'c.Date'},</t>
+          <t>{ id:'c.Date', href:'/detail/base/c_Date.html',funcname:'c.Date'},</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>c.Date</t>
+          <t>c_Date</t>
         </is>
       </c>
     </row>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>{ id:'c.difftime', href:'/detail/base/cdifftime.html',funcname:'c.difftime'},</t>
+          <t>{ id:'c.difftime', href:'/detail/base/c_difftime.html',funcname:'c.difftime'},</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>c.difftime</t>
+          <t>c_difftime</t>
         </is>
       </c>
     </row>
@@ -5363,12 +5363,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>{ id:'c.factor', href:'/detail/base/cfactor.html',funcname:'c.factor'},</t>
+          <t>{ id:'c.factor', href:'/detail/base/c_factor.html',funcname:'c.factor'},</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>c.factor</t>
+          <t>c_factor</t>
         </is>
       </c>
     </row>
@@ -5380,12 +5380,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>{ id:'c.noquote', href:'/detail/base/cnoquote.html',funcname:'c.noquote'},</t>
+          <t>{ id:'c.noquote', href:'/detail/base/c_noquote.html',funcname:'c.noquote'},</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>c.noquote</t>
+          <t>c_noquote</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>{ id:'c.numeric_version', href:'/detail/base/cnumeric_version.html',funcname:'c.numeric_version'},</t>
+          <t>{ id:'c.numeric_version', href:'/detail/base/c_numeric_version.html',funcname:'c.numeric_version'},</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>c.numeric_version</t>
+          <t>c_numeric_version</t>
         </is>
       </c>
     </row>
@@ -5414,12 +5414,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>{ id:'c.POSIXct', href:'/detail/base/cPOSIXct.html',funcname:'c.POSIXct'},</t>
+          <t>{ id:'c.POSIXct', href:'/detail/base/c_POSIXct.html',funcname:'c.POSIXct'},</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>c.POSIXct</t>
+          <t>c_POSIXct</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>{ id:'c.POSIXlt', href:'/detail/base/cPOSIXlt.html',funcname:'c.POSIXlt'},</t>
+          <t>{ id:'c.POSIXlt', href:'/detail/base/c_POSIXlt.html',funcname:'c.POSIXlt'},</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>c.POSIXlt</t>
+          <t>c_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -5448,12 +5448,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>{ id:'c.warnings', href:'/detail/base/cwarnings.html',funcname:'c.warnings'},</t>
+          <t>{ id:'c.warnings', href:'/detail/base/c_warnings.html',funcname:'c.warnings'},</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>c.warnings</t>
+          <t>c_warnings</t>
         </is>
       </c>
     </row>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>{ id:'cbind.data.frame', href:'/detail/base/cbinddata.frame.html',funcname:'cbind.data.frame'},</t>
+          <t>{ id:'cbind.data.frame', href:'/detail/base/cbind_data_frame.html',funcname:'cbind.data.frame'},</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>cbind.data.frame</t>
+          <t>cbind_data_frame</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>{ id:'char.expand', href:'/detail/base/charexpand.html',funcname:'char.expand'},</t>
+          <t>{ id:'char.expand', href:'/detail/base/char_expand.html',funcname:'char.expand'},</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>char.expand</t>
+          <t>char_expand</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>{ id:'chol.default', href:'/detail/base/choldefault.html',funcname:'chol.default'},</t>
+          <t>{ id:'chol.default', href:'/detail/base/chol_default.html',funcname:'chol.default'},</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>chol.default</t>
+          <t>chol_default</t>
         </is>
       </c>
     </row>
@@ -5856,12 +5856,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>{ id:'close.connection', href:'/detail/base/closeconnection.html',funcname:'close.connection'},</t>
+          <t>{ id:'close.connection', href:'/detail/base/close_connection.html',funcname:'close.connection'},</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>close.connection</t>
+          <t>close_connection</t>
         </is>
       </c>
     </row>
@@ -5873,12 +5873,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>{ id:'close.srcfile', href:'/detail/base/closesrcfile.html',funcname:'close.srcfile'},</t>
+          <t>{ id:'close.srcfile', href:'/detail/base/close_srcfile.html',funcname:'close.srcfile'},</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>close.srcfile</t>
+          <t>close_srcfile</t>
         </is>
       </c>
     </row>
@@ -5890,12 +5890,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>{ id:'close.srcfilealias', href:'/detail/base/closesrcfilealias.html',funcname:'close.srcfilealias'},</t>
+          <t>{ id:'close.srcfilealias', href:'/detail/base/close_srcfilealias.html',funcname:'close.srcfilealias'},</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>close.srcfilealias</t>
+          <t>close_srcfilealias</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>{ id:'conditionCall.condition', href:'/detail/base/conditionCallcondition.html',funcname:'conditionCall.condition'},</t>
+          <t>{ id:'conditionCall.condition', href:'/detail/base/conditionCall_condition.html',funcname:'conditionCall.condition'},</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>conditionCall.condition</t>
+          <t>conditionCall_condition</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>{ id:'conditionMessage.condition', href:'/detail/base/conditionMessagecondition.html',funcname:'conditionMessage.condition'},</t>
+          <t>{ id:'conditionMessage.condition', href:'/detail/base/conditionMessage_condition.html',funcname:'conditionMessage.condition'},</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>conditionMessage.condition</t>
+          <t>conditionMessage_condition</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>{ id:'cut.Date', href:'/detail/base/cutDate.html',funcname:'cut.Date'},</t>
+          <t>{ id:'cut.Date', href:'/detail/base/cut_Date.html',funcname:'cut.Date'},</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>cut.Date</t>
+          <t>cut_Date</t>
         </is>
       </c>
     </row>
@@ -6434,12 +6434,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>{ id:'cut.default', href:'/detail/base/cutdefault.html',funcname:'cut.default'},</t>
+          <t>{ id:'cut.default', href:'/detail/base/cut_default.html',funcname:'cut.default'},</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>cut.default</t>
+          <t>cut_default</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>{ id:'cut.POSIXt', href:'/detail/base/cutPOSIXt.html',funcname:'cut.POSIXt'},</t>
+          <t>{ id:'cut.POSIXt', href:'/detail/base/cut_POSIXt.html',funcname:'cut.POSIXt'},</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cut.POSIXt</t>
+          <t>cut_POSIXt</t>
         </is>
       </c>
     </row>
@@ -6468,12 +6468,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>{ id:'data.class', href:'/detail/base/dataclass.html',funcname:'data.class'},</t>
+          <t>{ id:'data.class', href:'/detail/base/data_class.html',funcname:'data.class'},</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>data.class</t>
+          <t>data_class</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>{ id:'data.frame', href:'/detail/base/dataframe.html',funcname:'data.frame'},</t>
+          <t>{ id:'data.frame', href:'/detail/base/data_frame.html',funcname:'data.frame'},</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>data.frame</t>
+          <t>data_frame</t>
         </is>
       </c>
     </row>
@@ -6502,12 +6502,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>{ id:'data.matrix', href:'/detail/base/datamatrix.html',funcname:'data.matrix'},</t>
+          <t>{ id:'data.matrix', href:'/detail/base/data_matrix.html',funcname:'data.matrix'},</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>data.matrix</t>
+          <t>data_matrix</t>
         </is>
       </c>
     </row>
@@ -6587,12 +6587,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>{ id:'default.stringsAsFactors', href:'/detail/base/defaultstringsAsFactors.html',funcname:'default.stringsAsFactors'},</t>
+          <t>{ id:'default.stringsAsFactors', href:'/detail/base/default_stringsAsFactors.html',funcname:'default.stringsAsFactors'},</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>default.stringsAsFactors</t>
+          <t>default_stringsAsFactors</t>
         </is>
       </c>
     </row>
@@ -6706,12 +6706,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>{ id:'determinant.matrix', href:'/detail/base/determinantmatrix.html',funcname:'determinant.matrix'},</t>
+          <t>{ id:'determinant.matrix', href:'/detail/base/determinant_matrix.html',funcname:'determinant.matrix'},</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>determinant.matrix</t>
+          <t>determinant_matrix</t>
         </is>
       </c>
     </row>
@@ -6791,12 +6791,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>{ id:'diff.Date', href:'/detail/base/diffDate.html',funcname:'diff.Date'},</t>
+          <t>{ id:'diff.Date', href:'/detail/base/diff_Date.html',funcname:'diff.Date'},</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>diff.Date</t>
+          <t>diff_Date</t>
         </is>
       </c>
     </row>
@@ -6808,12 +6808,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>{ id:'diff.default', href:'/detail/base/diffdefault.html',funcname:'diff.default'},</t>
+          <t>{ id:'diff.default', href:'/detail/base/diff_default.html',funcname:'diff.default'},</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>diff.default</t>
+          <t>diff_default</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>{ id:'diff.difftime', href:'/detail/base/diffdifftime.html',funcname:'diff.difftime'},</t>
+          <t>{ id:'diff.difftime', href:'/detail/base/diff_difftime.html',funcname:'diff.difftime'},</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>diff.difftime</t>
+          <t>diff_difftime</t>
         </is>
       </c>
     </row>
@@ -6842,12 +6842,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>{ id:'diff.POSIXt', href:'/detail/base/diffPOSIXt.html',funcname:'diff.POSIXt'},</t>
+          <t>{ id:'diff.POSIXt', href:'/detail/base/diff_POSIXt.html',funcname:'diff.POSIXt'},</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>diff.POSIXt</t>
+          <t>diff_POSIXt</t>
         </is>
       </c>
     </row>
@@ -6910,12 +6910,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>{ id:'dim.data.frame', href:'/detail/base/dimdata.frame.html',funcname:'dim.data.frame'},</t>
+          <t>{ id:'dim.data.frame', href:'/detail/base/dim_data_frame.html',funcname:'dim.data.frame'},</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>dim.data.frame</t>
+          <t>dim_data_frame</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>{ id:'dimnames.data.frame', href:'/detail/base/dimnamesdata.frame.html',funcname:'dimnames.data.frame'},</t>
+          <t>{ id:'dimnames.data.frame', href:'/detail/base/dimnames_data_frame.html',funcname:'dimnames.data.frame'},</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>dimnames.data.frame</t>
+          <t>dimnames_data_frame</t>
         </is>
       </c>
     </row>
@@ -6995,12 +6995,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>{ id:'dimnames&lt;-.data.frame', href:'/detail/base/dimnames_-data.frame.html',funcname:'dimnames&lt;-.data.frame'},</t>
+          <t>{ id:'dimnames&lt;-.data.frame', href:'/detail/base/dimnames_-_data_frame.html',funcname:'dimnames&lt;-.data.frame'},</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>dimnames_-.data.frame</t>
+          <t>dimnames_-_data_frame</t>
         </is>
       </c>
     </row>
@@ -7029,12 +7029,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>{ id:'dir.create', href:'/detail/base/dircreate.html',funcname:'dir.create'},</t>
+          <t>{ id:'dir.create', href:'/detail/base/dir_create.html',funcname:'dir.create'},</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>dir.create</t>
+          <t>dir_create</t>
         </is>
       </c>
     </row>
@@ -7046,12 +7046,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>{ id:'dir.exists', href:'/detail/base/direxists.html',funcname:'dir.exists'},</t>
+          <t>{ id:'dir.exists', href:'/detail/base/dir_exists.html',funcname:'dir.exists'},</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>dir.exists</t>
+          <t>dir_exists</t>
         </is>
       </c>
     </row>
@@ -7080,12 +7080,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>{ id:'do.call', href:'/detail/base/docall.html',funcname:'do.call'},</t>
+          <t>{ id:'do.call', href:'/detail/base/do_call.html',funcname:'do.call'},</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>do.call</t>
+          <t>do_call</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>{ id:'droplevels.data.frame', href:'/detail/base/droplevelsdata.frame.html',funcname:'droplevels.data.frame'},</t>
+          <t>{ id:'droplevels.data.frame', href:'/detail/base/droplevels_data_frame.html',funcname:'droplevels.data.frame'},</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>droplevels.data.frame</t>
+          <t>droplevels_data_frame</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>{ id:'droplevels.factor', href:'/detail/base/droplevelsfactor.html',funcname:'droplevels.factor'},</t>
+          <t>{ id:'droplevels.factor', href:'/detail/base/droplevels_factor.html',funcname:'droplevels.factor'},</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>droplevels.factor</t>
+          <t>droplevels_factor</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.array', href:'/detail/base/duplicatedarray.html',funcname:'duplicated.array'},</t>
+          <t>{ id:'duplicated.array', href:'/detail/base/duplicated_array.html',funcname:'duplicated.array'},</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>duplicated.array</t>
+          <t>duplicated_array</t>
         </is>
       </c>
     </row>
@@ -7284,12 +7284,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.data.frame', href:'/detail/base/duplicateddata.frame.html',funcname:'duplicated.data.frame'},</t>
+          <t>{ id:'duplicated.data.frame', href:'/detail/base/duplicated_data_frame.html',funcname:'duplicated.data.frame'},</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>duplicated.data.frame</t>
+          <t>duplicated_data_frame</t>
         </is>
       </c>
     </row>
@@ -7301,12 +7301,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.default', href:'/detail/base/duplicateddefault.html',funcname:'duplicated.default'},</t>
+          <t>{ id:'duplicated.default', href:'/detail/base/duplicated_default.html',funcname:'duplicated.default'},</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>duplicated.default</t>
+          <t>duplicated_default</t>
         </is>
       </c>
     </row>
@@ -7318,12 +7318,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.matrix', href:'/detail/base/duplicatedmatrix.html',funcname:'duplicated.matrix'},</t>
+          <t>{ id:'duplicated.matrix', href:'/detail/base/duplicated_matrix.html',funcname:'duplicated.matrix'},</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>duplicated.matrix</t>
+          <t>duplicated_matrix</t>
         </is>
       </c>
     </row>
@@ -7335,12 +7335,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.numeric_version', href:'/detail/base/duplicatednumeric_version.html',funcname:'duplicated.numeric_version'},</t>
+          <t>{ id:'duplicated.numeric_version', href:'/detail/base/duplicated_numeric_version.html',funcname:'duplicated.numeric_version'},</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>duplicated.numeric_version</t>
+          <t>duplicated_numeric_version</t>
         </is>
       </c>
     </row>
@@ -7352,12 +7352,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.POSIXlt', href:'/detail/base/duplicatedPOSIXlt.html',funcname:'duplicated.POSIXlt'},</t>
+          <t>{ id:'duplicated.POSIXlt', href:'/detail/base/duplicated_POSIXlt.html',funcname:'duplicated.POSIXlt'},</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>duplicated.POSIXlt</t>
+          <t>duplicated_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -7369,12 +7369,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>{ id:'duplicated.warnings', href:'/detail/base/duplicatedwarnings.html',funcname:'duplicated.warnings'},</t>
+          <t>{ id:'duplicated.warnings', href:'/detail/base/duplicated_warnings.html',funcname:'duplicated.warnings'},</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>duplicated.warnings</t>
+          <t>duplicated_warnings</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>{ id:'dyn.load', href:'/detail/base/dynload.html',funcname:'dyn.load'},</t>
+          <t>{ id:'dyn.load', href:'/detail/base/dyn_load.html',funcname:'dyn.load'},</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>dyn.load</t>
+          <t>dyn_load</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>{ id:'dyn.unload', href:'/detail/base/dynunload.html',funcname:'dyn.unload'},</t>
+          <t>{ id:'dyn.unload', href:'/detail/base/dyn_unload.html',funcname:'dyn.unload'},</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>dyn.unload</t>
+          <t>dyn_unload</t>
         </is>
       </c>
     </row>
@@ -7607,12 +7607,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>{ id:'env.profile', href:'/detail/base/envprofile.html',funcname:'env.profile'},</t>
+          <t>{ id:'env.profile', href:'/detail/base/env_profile.html',funcname:'env.profile'},</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>env.profile</t>
+          <t>env_profile</t>
         </is>
       </c>
     </row>
@@ -7726,12 +7726,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>{ id:'eval.parent', href:'/detail/base/evalparent.html',funcname:'eval.parent'},</t>
+          <t>{ id:'eval.parent', href:'/detail/base/eval_parent.html',funcname:'eval.parent'},</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>eval.parent</t>
+          <t>eval_parent</t>
         </is>
       </c>
     </row>
@@ -7794,12 +7794,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>{ id:'expand.grid', href:'/detail/base/expandgrid.html',funcname:'expand.grid'},</t>
+          <t>{ id:'expand.grid', href:'/detail/base/expand_grid.html',funcname:'expand.grid'},</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>expand.grid</t>
+          <t>expand_grid</t>
         </is>
       </c>
     </row>
@@ -7947,12 +7947,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>{ id:'file.access', href:'/detail/base/fileaccess.html',funcname:'file.access'},</t>
+          <t>{ id:'file.access', href:'/detail/base/file_access.html',funcname:'file.access'},</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>file.access</t>
+          <t>file_access</t>
         </is>
       </c>
     </row>
@@ -7964,12 +7964,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>{ id:'file.append', href:'/detail/base/fileappend.html',funcname:'file.append'},</t>
+          <t>{ id:'file.append', href:'/detail/base/file_append.html',funcname:'file.append'},</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>file.append</t>
+          <t>file_append</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>{ id:'file.choose', href:'/detail/base/filechoose.html',funcname:'file.choose'},</t>
+          <t>{ id:'file.choose', href:'/detail/base/file_choose.html',funcname:'file.choose'},</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>file.choose</t>
+          <t>file_choose</t>
         </is>
       </c>
     </row>
@@ -7998,12 +7998,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>{ id:'file.copy', href:'/detail/base/filecopy.html',funcname:'file.copy'},</t>
+          <t>{ id:'file.copy', href:'/detail/base/file_copy.html',funcname:'file.copy'},</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>file.copy</t>
+          <t>file_copy</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8015,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>{ id:'file.create', href:'/detail/base/filecreate.html',funcname:'file.create'},</t>
+          <t>{ id:'file.create', href:'/detail/base/file_create.html',funcname:'file.create'},</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>file.create</t>
+          <t>file_create</t>
         </is>
       </c>
     </row>
@@ -8032,12 +8032,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>{ id:'file.exists', href:'/detail/base/fileexists.html',funcname:'file.exists'},</t>
+          <t>{ id:'file.exists', href:'/detail/base/file_exists.html',funcname:'file.exists'},</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>file.exists</t>
+          <t>file_exists</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>{ id:'file.info', href:'/detail/base/fileinfo.html',funcname:'file.info'},</t>
+          <t>{ id:'file.info', href:'/detail/base/file_info.html',funcname:'file.info'},</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>file.info</t>
+          <t>file_info</t>
         </is>
       </c>
     </row>
@@ -8066,12 +8066,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>{ id:'file.link', href:'/detail/base/filelink.html',funcname:'file.link'},</t>
+          <t>{ id:'file.link', href:'/detail/base/file_link.html',funcname:'file.link'},</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>file.link</t>
+          <t>file_link</t>
         </is>
       </c>
     </row>
@@ -8083,12 +8083,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>{ id:'file.mode', href:'/detail/base/filemode.html',funcname:'file.mode'},</t>
+          <t>{ id:'file.mode', href:'/detail/base/file_mode.html',funcname:'file.mode'},</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>file.mode</t>
+          <t>file_mode</t>
         </is>
       </c>
     </row>
@@ -8100,12 +8100,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>{ id:'file.mtime', href:'/detail/base/filemtime.html',funcname:'file.mtime'},</t>
+          <t>{ id:'file.mtime', href:'/detail/base/file_mtime.html',funcname:'file.mtime'},</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>file.mtime</t>
+          <t>file_mtime</t>
         </is>
       </c>
     </row>
@@ -8117,12 +8117,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>{ id:'file.path', href:'/detail/base/filepath.html',funcname:'file.path'},</t>
+          <t>{ id:'file.path', href:'/detail/base/file_path.html',funcname:'file.path'},</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>file.path</t>
+          <t>file_path</t>
         </is>
       </c>
     </row>
@@ -8134,12 +8134,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>{ id:'file.remove', href:'/detail/base/fileremove.html',funcname:'file.remove'},</t>
+          <t>{ id:'file.remove', href:'/detail/base/file_remove.html',funcname:'file.remove'},</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>file.remove</t>
+          <t>file_remove</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8151,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>{ id:'file.rename', href:'/detail/base/filerename.html',funcname:'file.rename'},</t>
+          <t>{ id:'file.rename', href:'/detail/base/file_rename.html',funcname:'file.rename'},</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>file.rename</t>
+          <t>file_rename</t>
         </is>
       </c>
     </row>
@@ -8168,12 +8168,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>{ id:'file.show', href:'/detail/base/fileshow.html',funcname:'file.show'},</t>
+          <t>{ id:'file.show', href:'/detail/base/file_show.html',funcname:'file.show'},</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>file.show</t>
+          <t>file_show</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8185,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>{ id:'file.size', href:'/detail/base/filesize.html',funcname:'file.size'},</t>
+          <t>{ id:'file.size', href:'/detail/base/file_size.html',funcname:'file.size'},</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>file.size</t>
+          <t>file_size</t>
         </is>
       </c>
     </row>
@@ -8202,12 +8202,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>{ id:'file.symlink', href:'/detail/base/filesymlink.html',funcname:'file.symlink'},</t>
+          <t>{ id:'file.symlink', href:'/detail/base/file_symlink.html',funcname:'file.symlink'},</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>file.symlink</t>
+          <t>file_symlink</t>
         </is>
       </c>
     </row>
@@ -8253,12 +8253,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>{ id:'find.package', href:'/detail/base/findpackage.html',funcname:'find.package'},</t>
+          <t>{ id:'find.package', href:'/detail/base/find_package.html',funcname:'find.package'},</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>find.package</t>
+          <t>find_package</t>
         </is>
       </c>
     </row>
@@ -8355,12 +8355,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>{ id:'flush.connection', href:'/detail/base/flushconnection.html',funcname:'flush.connection'},</t>
+          <t>{ id:'flush.connection', href:'/detail/base/flush_connection.html',funcname:'flush.connection'},</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>flush.connection</t>
+          <t>flush_connection</t>
         </is>
       </c>
     </row>
@@ -8474,12 +8474,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>{ id:'format.AsIs', href:'/detail/base/formatAsIs.html',funcname:'format.AsIs'},</t>
+          <t>{ id:'format.AsIs', href:'/detail/base/format_AsIs.html',funcname:'format.AsIs'},</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>format.AsIs</t>
+          <t>format_AsIs</t>
         </is>
       </c>
     </row>
@@ -8491,12 +8491,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>{ id:'format.data.frame', href:'/detail/base/formatdata.frame.html',funcname:'format.data.frame'},</t>
+          <t>{ id:'format.data.frame', href:'/detail/base/format_data_frame.html',funcname:'format.data.frame'},</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>format.data.frame</t>
+          <t>format_data_frame</t>
         </is>
       </c>
     </row>
@@ -8508,12 +8508,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>{ id:'format.Date', href:'/detail/base/formatDate.html',funcname:'format.Date'},</t>
+          <t>{ id:'format.Date', href:'/detail/base/format_Date.html',funcname:'format.Date'},</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>format.Date</t>
+          <t>format_Date</t>
         </is>
       </c>
     </row>
@@ -8525,12 +8525,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>{ id:'format.default', href:'/detail/base/formatdefault.html',funcname:'format.default'},</t>
+          <t>{ id:'format.default', href:'/detail/base/format_default.html',funcname:'format.default'},</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>format.default</t>
+          <t>format_default</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8542,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>{ id:'format.difftime', href:'/detail/base/formatdifftime.html',funcname:'format.difftime'},</t>
+          <t>{ id:'format.difftime', href:'/detail/base/format_difftime.html',funcname:'format.difftime'},</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>format.difftime</t>
+          <t>format_difftime</t>
         </is>
       </c>
     </row>
@@ -8559,12 +8559,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>{ id:'format.factor', href:'/detail/base/formatfactor.html',funcname:'format.factor'},</t>
+          <t>{ id:'format.factor', href:'/detail/base/format_factor.html',funcname:'format.factor'},</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>format.factor</t>
+          <t>format_factor</t>
         </is>
       </c>
     </row>
@@ -8576,12 +8576,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>{ id:'format.hexmode', href:'/detail/base/formathexmode.html',funcname:'format.hexmode'},</t>
+          <t>{ id:'format.hexmode', href:'/detail/base/format_hexmode.html',funcname:'format.hexmode'},</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>format.hexmode</t>
+          <t>format_hexmode</t>
         </is>
       </c>
     </row>
@@ -8593,12 +8593,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>{ id:'format.info', href:'/detail/base/formatinfo.html',funcname:'format.info'},</t>
+          <t>{ id:'format.info', href:'/detail/base/format_info.html',funcname:'format.info'},</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>format.info</t>
+          <t>format_info</t>
         </is>
       </c>
     </row>
@@ -8610,12 +8610,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>{ id:'format.libraryIQR', href:'/detail/base/formatlibraryIQR.html',funcname:'format.libraryIQR'},</t>
+          <t>{ id:'format.libraryIQR', href:'/detail/base/format_libraryIQR.html',funcname:'format.libraryIQR'},</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>format.libraryIQR</t>
+          <t>format_libraryIQR</t>
         </is>
       </c>
     </row>
@@ -8627,12 +8627,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>{ id:'format.numeric_version', href:'/detail/base/formatnumeric_version.html',funcname:'format.numeric_version'},</t>
+          <t>{ id:'format.numeric_version', href:'/detail/base/format_numeric_version.html',funcname:'format.numeric_version'},</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>format.numeric_version</t>
+          <t>format_numeric_version</t>
         </is>
       </c>
     </row>
@@ -8644,12 +8644,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>{ id:'format.octmode', href:'/detail/base/formatoctmode.html',funcname:'format.octmode'},</t>
+          <t>{ id:'format.octmode', href:'/detail/base/format_octmode.html',funcname:'format.octmode'},</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>format.octmode</t>
+          <t>format_octmode</t>
         </is>
       </c>
     </row>
@@ -8661,12 +8661,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>{ id:'format.packageInfo', href:'/detail/base/formatpackageInfo.html',funcname:'format.packageInfo'},</t>
+          <t>{ id:'format.packageInfo', href:'/detail/base/format_packageInfo.html',funcname:'format.packageInfo'},</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>format.packageInfo</t>
+          <t>format_packageInfo</t>
         </is>
       </c>
     </row>
@@ -8678,12 +8678,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>{ id:'format.POSIXct', href:'/detail/base/formatPOSIXct.html',funcname:'format.POSIXct'},</t>
+          <t>{ id:'format.POSIXct', href:'/detail/base/format_POSIXct.html',funcname:'format.POSIXct'},</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>format.POSIXct</t>
+          <t>format_POSIXct</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>{ id:'format.POSIXlt', href:'/detail/base/formatPOSIXlt.html',funcname:'format.POSIXlt'},</t>
+          <t>{ id:'format.POSIXlt', href:'/detail/base/format_POSIXlt.html',funcname:'format.POSIXlt'},</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>format.POSIXlt</t>
+          <t>format_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -8712,12 +8712,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>{ id:'format.pval', href:'/detail/base/formatpval.html',funcname:'format.pval'},</t>
+          <t>{ id:'format.pval', href:'/detail/base/format_pval.html',funcname:'format.pval'},</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>format.pval</t>
+          <t>format_pval</t>
         </is>
       </c>
     </row>
@@ -8729,12 +8729,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>{ id:'format.summaryDefault', href:'/detail/base/formatsummaryDefault.html',funcname:'format.summaryDefault'},</t>
+          <t>{ id:'format.summaryDefault', href:'/detail/base/format_summaryDefault.html',funcname:'format.summaryDefault'},</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>format.summaryDefault</t>
+          <t>format_summaryDefault</t>
         </is>
       </c>
     </row>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>{ id:'gc.time', href:'/detail/base/gctime.html',funcname:'gc.time'},</t>
+          <t>{ id:'gc.time', href:'/detail/base/gc_time.html',funcname:'gc.time'},</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>gc.time</t>
+          <t>gc_time</t>
         </is>
       </c>
     </row>
@@ -9035,12 +9035,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>{ id:'getDLLRegisteredRoutines.character', href:'/detail/base/getDLLRegisteredRoutinescharacter.html',funcname:'getDLLRegisteredRoutines.character'},</t>
+          <t>{ id:'getDLLRegisteredRoutines.character', href:'/detail/base/getDLLRegisteredRoutines_character.html',funcname:'getDLLRegisteredRoutines.character'},</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>getDLLRegisteredRoutines.character</t>
+          <t>getDLLRegisteredRoutines_character</t>
         </is>
       </c>
     </row>
@@ -9052,12 +9052,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>{ id:'getDLLRegisteredRoutines.DLLInfo', href:'/detail/base/getDLLRegisteredRoutinesDLLInfo.html',funcname:'getDLLRegisteredRoutines.DLLInfo'},</t>
+          <t>{ id:'getDLLRegisteredRoutines.DLLInfo', href:'/detail/base/getDLLRegisteredRoutines_DLLInfo.html',funcname:'getDLLRegisteredRoutines.DLLInfo'},</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>getDLLRegisteredRoutines.DLLInfo</t>
+          <t>getDLLRegisteredRoutines_DLLInfo</t>
         </is>
       </c>
     </row>
@@ -9936,12 +9936,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>{ id:'inverse.rle', href:'/detail/base/inverserle.html',funcname:'inverse.rle'},</t>
+          <t>{ id:'inverse.rle', href:'/detail/base/inverse_rle.html',funcname:'inverse.rle'},</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>inverse.rle</t>
+          <t>inverse_rle</t>
         </is>
       </c>
     </row>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>{ id:'is.array', href:'/detail/base/isarray.html',funcname:'is.array'},</t>
+          <t>{ id:'is.array', href:'/detail/base/is_array.html',funcname:'is.array'},</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>is.array</t>
+          <t>is_array</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>{ id:'is.atomic', href:'/detail/base/isatomic.html',funcname:'is.atomic'},</t>
+          <t>{ id:'is.atomic', href:'/detail/base/is_atomic.html',funcname:'is.atomic'},</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>is.atomic</t>
+          <t>is_atomic</t>
         </is>
       </c>
     </row>
@@ -10038,12 +10038,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>{ id:'is.call', href:'/detail/base/iscall.html',funcname:'is.call'},</t>
+          <t>{ id:'is.call', href:'/detail/base/is_call.html',funcname:'is.call'},</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>is.call</t>
+          <t>is_call</t>
         </is>
       </c>
     </row>
@@ -10055,12 +10055,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>{ id:'is.character', href:'/detail/base/ischaracter.html',funcname:'is.character'},</t>
+          <t>{ id:'is.character', href:'/detail/base/is_character.html',funcname:'is.character'},</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>is.character</t>
+          <t>is_character</t>
         </is>
       </c>
     </row>
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>{ id:'is.complex', href:'/detail/base/iscomplex.html',funcname:'is.complex'},</t>
+          <t>{ id:'is.complex', href:'/detail/base/is_complex.html',funcname:'is.complex'},</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>is.complex</t>
+          <t>is_complex</t>
         </is>
       </c>
     </row>
@@ -10089,12 +10089,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>{ id:'is.data.frame', href:'/detail/base/isdata.frame.html',funcname:'is.data.frame'},</t>
+          <t>{ id:'is.data.frame', href:'/detail/base/is_data_frame.html',funcname:'is.data.frame'},</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>is.data.frame</t>
+          <t>is_data_frame</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>{ id:'is.double', href:'/detail/base/isdouble.html',funcname:'is.double'},</t>
+          <t>{ id:'is.double', href:'/detail/base/is_double.html',funcname:'is.double'},</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>is.double</t>
+          <t>is_double</t>
         </is>
       </c>
     </row>
@@ -10123,12 +10123,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>{ id:'is.element', href:'/detail/base/iselement.html',funcname:'is.element'},</t>
+          <t>{ id:'is.element', href:'/detail/base/is_element.html',funcname:'is.element'},</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>is.element</t>
+          <t>is_element</t>
         </is>
       </c>
     </row>
@@ -10140,12 +10140,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>{ id:'is.environment', href:'/detail/base/isenvironment.html',funcname:'is.environment'},</t>
+          <t>{ id:'is.environment', href:'/detail/base/is_environment.html',funcname:'is.environment'},</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>is.environment</t>
+          <t>is_environment</t>
         </is>
       </c>
     </row>
@@ -10157,12 +10157,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>{ id:'is.expression', href:'/detail/base/isexpression.html',funcname:'is.expression'},</t>
+          <t>{ id:'is.expression', href:'/detail/base/is_expression.html',funcname:'is.expression'},</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>is.expression</t>
+          <t>is_expression</t>
         </is>
       </c>
     </row>
@@ -10174,12 +10174,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>{ id:'is.factor', href:'/detail/base/isfactor.html',funcname:'is.factor'},</t>
+          <t>{ id:'is.factor', href:'/detail/base/is_factor.html',funcname:'is.factor'},</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>is.factor</t>
+          <t>is_factor</t>
         </is>
       </c>
     </row>
@@ -10191,12 +10191,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>{ id:'is.finite', href:'/detail/base/isfinite.html',funcname:'is.finite'},</t>
+          <t>{ id:'is.finite', href:'/detail/base/is_finite.html',funcname:'is.finite'},</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>is.finite</t>
+          <t>is_finite</t>
         </is>
       </c>
     </row>
@@ -10208,12 +10208,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>{ id:'is.function', href:'/detail/base/isfunction.html',funcname:'is.function'},</t>
+          <t>{ id:'is.function', href:'/detail/base/is_function.html',funcname:'is.function'},</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>is.function</t>
+          <t>is_function</t>
         </is>
       </c>
     </row>
@@ -10225,12 +10225,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>{ id:'is.infinite', href:'/detail/base/isinfinite.html',funcname:'is.infinite'},</t>
+          <t>{ id:'is.infinite', href:'/detail/base/is_infinite.html',funcname:'is.infinite'},</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>is.infinite</t>
+          <t>is_infinite</t>
         </is>
       </c>
     </row>
@@ -10242,12 +10242,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>{ id:'is.integer', href:'/detail/base/isinteger.html',funcname:'is.integer'},</t>
+          <t>{ id:'is.integer', href:'/detail/base/is_integer.html',funcname:'is.integer'},</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>is.integer</t>
+          <t>is_integer</t>
         </is>
       </c>
     </row>
@@ -10259,12 +10259,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>{ id:'is.language', href:'/detail/base/islanguage.html',funcname:'is.language'},</t>
+          <t>{ id:'is.language', href:'/detail/base/is_language.html',funcname:'is.language'},</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>is.language</t>
+          <t>is_language</t>
         </is>
       </c>
     </row>
@@ -10276,12 +10276,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>{ id:'is.list', href:'/detail/base/islist.html',funcname:'is.list'},</t>
+          <t>{ id:'is.list', href:'/detail/base/is_list.html',funcname:'is.list'},</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>is.list</t>
+          <t>is_list</t>
         </is>
       </c>
     </row>
@@ -10293,12 +10293,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>{ id:'is.loaded', href:'/detail/base/isloaded.html',funcname:'is.loaded'},</t>
+          <t>{ id:'is.loaded', href:'/detail/base/is_loaded.html',funcname:'is.loaded'},</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>is.loaded</t>
+          <t>is_loaded</t>
         </is>
       </c>
     </row>
@@ -10310,12 +10310,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>{ id:'is.logical', href:'/detail/base/islogical.html',funcname:'is.logical'},</t>
+          <t>{ id:'is.logical', href:'/detail/base/is_logical.html',funcname:'is.logical'},</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>is.logical</t>
+          <t>is_logical</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10327,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>{ id:'is.matrix', href:'/detail/base/ismatrix.html',funcname:'is.matrix'},</t>
+          <t>{ id:'is.matrix', href:'/detail/base/is_matrix.html',funcname:'is.matrix'},</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>is.matrix</t>
+          <t>is_matrix</t>
         </is>
       </c>
     </row>
@@ -10344,12 +10344,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>{ id:'is.na', href:'/detail/base/isna.html',funcname:'is.na'},</t>
+          <t>{ id:'is.na', href:'/detail/base/is_na.html',funcname:'is.na'},</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>is.na</t>
+          <t>is_na</t>
         </is>
       </c>
     </row>
@@ -10361,12 +10361,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>{ id:'is.na.data.frame', href:'/detail/base/isna.data.frame.html',funcname:'is.na.data.frame'},</t>
+          <t>{ id:'is.na.data.frame', href:'/detail/base/is_na_data_frame.html',funcname:'is.na.data.frame'},</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>is.na.data.frame</t>
+          <t>is_na_data_frame</t>
         </is>
       </c>
     </row>
@@ -10378,12 +10378,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>{ id:'is.na.numeric_version', href:'/detail/base/isna.numeric_version.html',funcname:'is.na.numeric_version'},</t>
+          <t>{ id:'is.na.numeric_version', href:'/detail/base/is_na_numeric_version.html',funcname:'is.na.numeric_version'},</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>is.na.numeric_version</t>
+          <t>is_na_numeric_version</t>
         </is>
       </c>
     </row>
@@ -10395,12 +10395,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>{ id:'is.na.POSIXlt', href:'/detail/base/isna.POSIXlt.html',funcname:'is.na.POSIXlt'},</t>
+          <t>{ id:'is.na.POSIXlt', href:'/detail/base/is_na_POSIXlt.html',funcname:'is.na.POSIXlt'},</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>is.na.POSIXlt</t>
+          <t>is_na_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -10412,12 +10412,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>{ id:'is.na&lt;-', href:'/detail/base/isna_-.html',funcname:'is.na&lt;-'},</t>
+          <t>{ id:'is.na&lt;-', href:'/detail/base/is_na_-.html',funcname:'is.na&lt;-'},</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>is.na_-</t>
+          <t>is_na_-</t>
         </is>
       </c>
     </row>
@@ -10429,12 +10429,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>{ id:'is.na&lt;-.default', href:'/detail/base/isna_-.default.html',funcname:'is.na&lt;-.default'},</t>
+          <t>{ id:'is.na&lt;-.default', href:'/detail/base/is_na_-_default.html',funcname:'is.na&lt;-.default'},</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>is.na_-.default</t>
+          <t>is_na_-_default</t>
         </is>
       </c>
     </row>
@@ -10446,12 +10446,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>{ id:'is.na&lt;-.factor', href:'/detail/base/isna_-.factor.html',funcname:'is.na&lt;-.factor'},</t>
+          <t>{ id:'is.na&lt;-.factor', href:'/detail/base/is_na_-_factor.html',funcname:'is.na&lt;-.factor'},</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>is.na_-.factor</t>
+          <t>is_na_-_factor</t>
         </is>
       </c>
     </row>
@@ -10463,12 +10463,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>{ id:'is.na&lt;-.numeric_version', href:'/detail/base/isna_-.numeric_version.html',funcname:'is.na&lt;-.numeric_version'},</t>
+          <t>{ id:'is.na&lt;-.numeric_version', href:'/detail/base/is_na_-_numeric_version.html',funcname:'is.na&lt;-.numeric_version'},</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>is.na_-.numeric_version</t>
+          <t>is_na_-_numeric_version</t>
         </is>
       </c>
     </row>
@@ -10480,12 +10480,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>{ id:'is.name', href:'/detail/base/isname.html',funcname:'is.name'},</t>
+          <t>{ id:'is.name', href:'/detail/base/is_name.html',funcname:'is.name'},</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>is.name</t>
+          <t>is_name</t>
         </is>
       </c>
     </row>
@@ -10497,12 +10497,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>{ id:'is.nan', href:'/detail/base/isnan.html',funcname:'is.nan'},</t>
+          <t>{ id:'is.nan', href:'/detail/base/is_nan.html',funcname:'is.nan'},</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>is.nan</t>
+          <t>is_nan</t>
         </is>
       </c>
     </row>
@@ -10514,12 +10514,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>{ id:'is.null', href:'/detail/base/isnull.html',funcname:'is.null'},</t>
+          <t>{ id:'is.null', href:'/detail/base/is_null.html',funcname:'is.null'},</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>is.null</t>
+          <t>is_null</t>
         </is>
       </c>
     </row>
@@ -10531,12 +10531,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>{ id:'is.numeric', href:'/detail/base/isnumeric.html',funcname:'is.numeric'},</t>
+          <t>{ id:'is.numeric', href:'/detail/base/is_numeric.html',funcname:'is.numeric'},</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>is.numeric</t>
+          <t>is_numeric</t>
         </is>
       </c>
     </row>
@@ -10548,12 +10548,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>{ id:'is.numeric_version', href:'/detail/base/isnumeric_version.html',funcname:'is.numeric_version'},</t>
+          <t>{ id:'is.numeric_version', href:'/detail/base/is_numeric_version.html',funcname:'is.numeric_version'},</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>is.numeric_version</t>
+          <t>is_numeric_version</t>
         </is>
       </c>
     </row>
@@ -10565,12 +10565,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>{ id:'is.numeric.Date', href:'/detail/base/isnumeric.Date.html',funcname:'is.numeric.Date'},</t>
+          <t>{ id:'is.numeric.Date', href:'/detail/base/is_numeric_Date.html',funcname:'is.numeric.Date'},</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>is.numeric.Date</t>
+          <t>is_numeric_Date</t>
         </is>
       </c>
     </row>
@@ -10582,12 +10582,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>{ id:'is.numeric.difftime', href:'/detail/base/isnumeric.difftime.html',funcname:'is.numeric.difftime'},</t>
+          <t>{ id:'is.numeric.difftime', href:'/detail/base/is_numeric_difftime.html',funcname:'is.numeric.difftime'},</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>is.numeric.difftime</t>
+          <t>is_numeric_difftime</t>
         </is>
       </c>
     </row>
@@ -10599,12 +10599,12 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>{ id:'is.numeric.POSIXt', href:'/detail/base/isnumeric.POSIXt.html',funcname:'is.numeric.POSIXt'},</t>
+          <t>{ id:'is.numeric.POSIXt', href:'/detail/base/is_numeric_POSIXt.html',funcname:'is.numeric.POSIXt'},</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>is.numeric.POSIXt</t>
+          <t>is_numeric_POSIXt</t>
         </is>
       </c>
     </row>
@@ -10616,12 +10616,12 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>{ id:'is.object', href:'/detail/base/isobject.html',funcname:'is.object'},</t>
+          <t>{ id:'is.object', href:'/detail/base/is_object.html',funcname:'is.object'},</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>is.object</t>
+          <t>is_object</t>
         </is>
       </c>
     </row>
@@ -10633,12 +10633,12 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>{ id:'is.ordered', href:'/detail/base/isordered.html',funcname:'is.ordered'},</t>
+          <t>{ id:'is.ordered', href:'/detail/base/is_ordered.html',funcname:'is.ordered'},</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>is.ordered</t>
+          <t>is_ordered</t>
         </is>
       </c>
     </row>
@@ -10650,12 +10650,12 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>{ id:'is.package_version', href:'/detail/base/ispackage_version.html',funcname:'is.package_version'},</t>
+          <t>{ id:'is.package_version', href:'/detail/base/is_package_version.html',funcname:'is.package_version'},</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>is.package_version</t>
+          <t>is_package_version</t>
         </is>
       </c>
     </row>
@@ -10667,12 +10667,12 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>{ id:'is.pairlist', href:'/detail/base/ispairlist.html',funcname:'is.pairlist'},</t>
+          <t>{ id:'is.pairlist', href:'/detail/base/is_pairlist.html',funcname:'is.pairlist'},</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>is.pairlist</t>
+          <t>is_pairlist</t>
         </is>
       </c>
     </row>
@@ -10684,12 +10684,12 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>{ id:'is.primitive', href:'/detail/base/isprimitive.html',funcname:'is.primitive'},</t>
+          <t>{ id:'is.primitive', href:'/detail/base/is_primitive.html',funcname:'is.primitive'},</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>is.primitive</t>
+          <t>is_primitive</t>
         </is>
       </c>
     </row>
@@ -10701,12 +10701,12 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>{ id:'is.qr', href:'/detail/base/isqr.html',funcname:'is.qr'},</t>
+          <t>{ id:'is.qr', href:'/detail/base/is_qr.html',funcname:'is.qr'},</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>is.qr</t>
+          <t>is_qr</t>
         </is>
       </c>
     </row>
@@ -10718,12 +10718,12 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>{ id:'is.R', href:'/detail/base/isR.html',funcname:'is.R'},</t>
+          <t>{ id:'is.R', href:'/detail/base/is_R.html',funcname:'is.R'},</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>is.R</t>
+          <t>is_R</t>
         </is>
       </c>
     </row>
@@ -10735,12 +10735,12 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>{ id:'is.raw', href:'/detail/base/israw.html',funcname:'is.raw'},</t>
+          <t>{ id:'is.raw', href:'/detail/base/is_raw.html',funcname:'is.raw'},</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>is.raw</t>
+          <t>is_raw</t>
         </is>
       </c>
     </row>
@@ -10752,12 +10752,12 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>{ id:'is.recursive', href:'/detail/base/isrecursive.html',funcname:'is.recursive'},</t>
+          <t>{ id:'is.recursive', href:'/detail/base/is_recursive.html',funcname:'is.recursive'},</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>is.recursive</t>
+          <t>is_recursive</t>
         </is>
       </c>
     </row>
@@ -10769,12 +10769,12 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>{ id:'is.single', href:'/detail/base/issingle.html',funcname:'is.single'},</t>
+          <t>{ id:'is.single', href:'/detail/base/is_single.html',funcname:'is.single'},</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>is.single</t>
+          <t>is_single</t>
         </is>
       </c>
     </row>
@@ -10786,12 +10786,12 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>{ id:'is.symbol', href:'/detail/base/issymbol.html',funcname:'is.symbol'},</t>
+          <t>{ id:'is.symbol', href:'/detail/base/is_symbol.html',funcname:'is.symbol'},</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>is.symbol</t>
+          <t>is_symbol</t>
         </is>
       </c>
     </row>
@@ -10803,12 +10803,12 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>{ id:'is.table', href:'/detail/base/istable.html',funcname:'is.table'},</t>
+          <t>{ id:'is.table', href:'/detail/base/is_table.html',funcname:'is.table'},</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>is.table</t>
+          <t>is_table</t>
         </is>
       </c>
     </row>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>{ id:'is.unsorted', href:'/detail/base/isunsorted.html',funcname:'is.unsorted'},</t>
+          <t>{ id:'is.unsorted', href:'/detail/base/is_unsorted.html',funcname:'is.unsorted'},</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>is.unsorted</t>
+          <t>is_unsorted</t>
         </is>
       </c>
     </row>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>{ id:'is.vector', href:'/detail/base/isvector.html',funcname:'is.vector'},</t>
+          <t>{ id:'is.vector', href:'/detail/base/is_vector.html',funcname:'is.vector'},</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>is.vector</t>
+          <t>is_vector</t>
         </is>
       </c>
     </row>
@@ -11109,12 +11109,12 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>{ id:'isSymmetric.matrix', href:'/detail/base/isSymmetricmatrix.html',funcname:'isSymmetric.matrix'},</t>
+          <t>{ id:'isSymmetric.matrix', href:'/detail/base/isSymmetric_matrix.html',funcname:'isSymmetric.matrix'},</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>isSymmetric.matrix</t>
+          <t>isSymmetric_matrix</t>
         </is>
       </c>
     </row>
@@ -11177,12 +11177,12 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>{ id:'julian.Date', href:'/detail/base/julianDate.html',funcname:'julian.Date'},</t>
+          <t>{ id:'julian.Date', href:'/detail/base/julian_Date.html',funcname:'julian.Date'},</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>julian.Date</t>
+          <t>julian_Date</t>
         </is>
       </c>
     </row>
@@ -11194,12 +11194,12 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>{ id:'julian.POSIXt', href:'/detail/base/julianPOSIXt.html',funcname:'julian.POSIXt'},</t>
+          <t>{ id:'julian.POSIXt', href:'/detail/base/julian_POSIXt.html',funcname:'julian.POSIXt'},</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>julian.POSIXt</t>
+          <t>julian_POSIXt</t>
         </is>
       </c>
     </row>
@@ -11228,12 +11228,12 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>{ id:'kappa.default', href:'/detail/base/kappadefault.html',funcname:'kappa.default'},</t>
+          <t>{ id:'kappa.default', href:'/detail/base/kappa_default.html',funcname:'kappa.default'},</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>kappa.default</t>
+          <t>kappa_default</t>
         </is>
       </c>
     </row>
@@ -11245,12 +11245,12 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>{ id:'kappa.lm', href:'/detail/base/kappalm.html',funcname:'kappa.lm'},</t>
+          <t>{ id:'kappa.lm', href:'/detail/base/kappa_lm.html',funcname:'kappa.lm'},</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>kappa.lm</t>
+          <t>kappa_lm</t>
         </is>
       </c>
     </row>
@@ -11262,12 +11262,12 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>{ id:'kappa.qr', href:'/detail/base/kappaqr.html',funcname:'kappa.qr'},</t>
+          <t>{ id:'kappa.qr', href:'/detail/base/kappa_qr.html',funcname:'kappa.qr'},</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>kappa.qr</t>
+          <t>kappa_qr</t>
         </is>
       </c>
     </row>
@@ -11347,12 +11347,12 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>{ id:'La.svd', href:'/detail/base/Lasvd.html',funcname:'La.svd'},</t>
+          <t>{ id:'La.svd', href:'/detail/base/La_svd.html',funcname:'La.svd'},</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>La.svd</t>
+          <t>La_svd</t>
         </is>
       </c>
     </row>
@@ -11381,12 +11381,12 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>{ id:'labels.default', href:'/detail/base/labelsdefault.html',funcname:'labels.default'},</t>
+          <t>{ id:'labels.default', href:'/detail/base/labels_default.html',funcname:'labels.default'},</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>labels.default</t>
+          <t>labels_default</t>
         </is>
       </c>
     </row>
@@ -11415,12 +11415,12 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>{ id:'last.warning', href:'/detail/base/lastwarning.html',funcname:'last.warning'},</t>
+          <t>{ id:'last.warning', href:'/detail/base/last_warning.html',funcname:'last.warning'},</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>last.warning</t>
+          <t>last_warning</t>
         </is>
       </c>
     </row>
@@ -11534,12 +11534,12 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>{ id:'length.POSIXlt', href:'/detail/base/lengthPOSIXlt.html',funcname:'length.POSIXlt'},</t>
+          <t>{ id:'length.POSIXlt', href:'/detail/base/length_POSIXlt.html',funcname:'length.POSIXlt'},</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>length.POSIXlt</t>
+          <t>length_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -11568,12 +11568,12 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>{ id:'length&lt;-.Date', href:'/detail/base/length_-Date.html',funcname:'length&lt;-.Date'},</t>
+          <t>{ id:'length&lt;-.Date', href:'/detail/base/length_-_Date.html',funcname:'length&lt;-.Date'},</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>length_-.Date</t>
+          <t>length_-_Date</t>
         </is>
       </c>
     </row>
@@ -11585,12 +11585,12 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>{ id:'length&lt;-.difftime', href:'/detail/base/length_-difftime.html',funcname:'length&lt;-.difftime'},</t>
+          <t>{ id:'length&lt;-.difftime', href:'/detail/base/length_-_difftime.html',funcname:'length&lt;-.difftime'},</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>length_-.difftime</t>
+          <t>length_-_difftime</t>
         </is>
       </c>
     </row>
@@ -11602,12 +11602,12 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>{ id:'length&lt;-.factor', href:'/detail/base/length_-factor.html',funcname:'length&lt;-.factor'},</t>
+          <t>{ id:'length&lt;-.factor', href:'/detail/base/length_-_factor.html',funcname:'length&lt;-.factor'},</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>length_-.factor</t>
+          <t>length_-_factor</t>
         </is>
       </c>
     </row>
@@ -11619,12 +11619,12 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>{ id:'length&lt;-.POSIXct', href:'/detail/base/length_-POSIXct.html',funcname:'length&lt;-.POSIXct'},</t>
+          <t>{ id:'length&lt;-.POSIXct', href:'/detail/base/length_-_POSIXct.html',funcname:'length&lt;-.POSIXct'},</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>length_-.POSIXct</t>
+          <t>length_-_POSIXct</t>
         </is>
       </c>
     </row>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>{ id:'length&lt;-.POSIXlt', href:'/detail/base/length_-POSIXlt.html',funcname:'length&lt;-.POSIXlt'},</t>
+          <t>{ id:'length&lt;-.POSIXlt', href:'/detail/base/length_-_POSIXlt.html',funcname:'length&lt;-.POSIXlt'},</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>length_-.POSIXlt</t>
+          <t>length_-_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -11721,12 +11721,12 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>{ id:'levels.default', href:'/detail/base/levelsdefault.html',funcname:'levels.default'},</t>
+          <t>{ id:'levels.default', href:'/detail/base/levels_default.html',funcname:'levels.default'},</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>levels.default</t>
+          <t>levels_default</t>
         </is>
       </c>
     </row>
@@ -11755,12 +11755,12 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>{ id:'levels&lt;-.factor', href:'/detail/base/levels_-factor.html',funcname:'levels&lt;-.factor'},</t>
+          <t>{ id:'levels&lt;-.factor', href:'/detail/base/levels_-_factor.html',funcname:'levels&lt;-.factor'},</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>levels_-.factor</t>
+          <t>levels_-_factor</t>
         </is>
       </c>
     </row>
@@ -11840,12 +11840,12 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>{ id:'library.dynam', href:'/detail/base/librarydynam.html',funcname:'library.dynam'},</t>
+          <t>{ id:'library.dynam', href:'/detail/base/library_dynam.html',funcname:'library.dynam'},</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>library.dynam</t>
+          <t>library_dynam</t>
         </is>
       </c>
     </row>
@@ -11857,12 +11857,12 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>{ id:'library.dynam.unload', href:'/detail/base/librarydynam.unload.html',funcname:'library.dynam.unload'},</t>
+          <t>{ id:'library.dynam.unload', href:'/detail/base/library_dynam_unload.html',funcname:'library.dynam.unload'},</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>library.dynam.unload</t>
+          <t>library_dynam_unload</t>
         </is>
       </c>
     </row>
@@ -11925,12 +11925,12 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>{ id:'list.dirs', href:'/detail/base/listdirs.html',funcname:'list.dirs'},</t>
+          <t>{ id:'list.dirs', href:'/detail/base/list_dirs.html',funcname:'list.dirs'},</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>list.dirs</t>
+          <t>list_dirs</t>
         </is>
       </c>
     </row>
@@ -11942,12 +11942,12 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>{ id:'list.files', href:'/detail/base/listfiles.html',funcname:'list.files'},</t>
+          <t>{ id:'list.files', href:'/detail/base/list_files.html',funcname:'list.files'},</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>list.files</t>
+          <t>list_files</t>
         </is>
       </c>
     </row>
@@ -12214,12 +12214,12 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>{ id:'lower.tri', href:'/detail/base/lowertri.html',funcname:'lower.tri'},</t>
+          <t>{ id:'lower.tri', href:'/detail/base/lower_tri.html',funcname:'lower.tri'},</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>lower.tri</t>
+          <t>lower_tri</t>
         </is>
       </c>
     </row>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>{ id:'make.names', href:'/detail/base/makenames.html',funcname:'make.names'},</t>
+          <t>{ id:'make.names', href:'/detail/base/make_names.html',funcname:'make.names'},</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>make.names</t>
+          <t>make_names</t>
         </is>
       </c>
     </row>
@@ -12265,12 +12265,12 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>{ id:'make.unique', href:'/detail/base/makeunique.html',funcname:'make.unique'},</t>
+          <t>{ id:'make.unique', href:'/detail/base/make_unique.html',funcname:'make.unique'},</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>make.unique</t>
+          <t>make_unique</t>
         </is>
       </c>
     </row>
@@ -12333,12 +12333,12 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>{ id:'margin.table', href:'/detail/base/margintable.html',funcname:'margin.table'},</t>
+          <t>{ id:'margin.table', href:'/detail/base/margin_table.html',funcname:'margin.table'},</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>margin.table</t>
+          <t>margin_table</t>
         </is>
       </c>
     </row>
@@ -12367,12 +12367,12 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>{ id:'mat.or.vec', href:'/detail/base/mator.vec.html',funcname:'mat.or.vec'},</t>
+          <t>{ id:'mat.or.vec', href:'/detail/base/mat_or_vec.html',funcname:'mat.or.vec'},</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>mat.or.vec</t>
+          <t>mat_or_vec</t>
         </is>
       </c>
     </row>
@@ -12401,12 +12401,12 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>{ id:'match.arg', href:'/detail/base/matcharg.html',funcname:'match.arg'},</t>
+          <t>{ id:'match.arg', href:'/detail/base/match_arg.html',funcname:'match.arg'},</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>match.arg</t>
+          <t>match_arg</t>
         </is>
       </c>
     </row>
@@ -12418,12 +12418,12 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>{ id:'match.call', href:'/detail/base/matchcall.html',funcname:'match.call'},</t>
+          <t>{ id:'match.call', href:'/detail/base/match_call.html',funcname:'match.call'},</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>match.call</t>
+          <t>match_call</t>
         </is>
       </c>
     </row>
@@ -12435,12 +12435,12 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>{ id:'match.fun', href:'/detail/base/matchfun.html',funcname:'match.fun'},</t>
+          <t>{ id:'match.fun', href:'/detail/base/match_fun.html',funcname:'match.fun'},</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>match.fun</t>
+          <t>match_fun</t>
         </is>
       </c>
     </row>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>{ id:'Math.data.frame', href:'/detail/base/Mathdata.frame.html',funcname:'Math.data.frame'},</t>
+          <t>{ id:'Math.data.frame', href:'/detail/base/Math_data_frame.html',funcname:'Math.data.frame'},</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Math.data.frame</t>
+          <t>Math_data_frame</t>
         </is>
       </c>
     </row>
@@ -12469,12 +12469,12 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>{ id:'Math.Date', href:'/detail/base/MathDate.html',funcname:'Math.Date'},</t>
+          <t>{ id:'Math.Date', href:'/detail/base/Math_Date.html',funcname:'Math.Date'},</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Math.Date</t>
+          <t>Math_Date</t>
         </is>
       </c>
     </row>
@@ -12486,12 +12486,12 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>{ id:'Math.difftime', href:'/detail/base/Mathdifftime.html',funcname:'Math.difftime'},</t>
+          <t>{ id:'Math.difftime', href:'/detail/base/Math_difftime.html',funcname:'Math.difftime'},</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Math.difftime</t>
+          <t>Math_difftime</t>
         </is>
       </c>
     </row>
@@ -12503,12 +12503,12 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>{ id:'Math.factor', href:'/detail/base/Mathfactor.html',funcname:'Math.factor'},</t>
+          <t>{ id:'Math.factor', href:'/detail/base/Math_factor.html',funcname:'Math.factor'},</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Math.factor</t>
+          <t>Math_factor</t>
         </is>
       </c>
     </row>
@@ -12520,12 +12520,12 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>{ id:'Math.POSIXt', href:'/detail/base/MathPOSIXt.html',funcname:'Math.POSIXt'},</t>
+          <t>{ id:'Math.POSIXt', href:'/detail/base/Math_POSIXt.html',funcname:'Math.POSIXt'},</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Math.POSIXt</t>
+          <t>Math_POSIXt</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>{ id:'max.col', href:'/detail/base/maxcol.html',funcname:'max.col'},</t>
+          <t>{ id:'max.col', href:'/detail/base/max_col.html',funcname:'max.col'},</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>max.col</t>
+          <t>max_col</t>
         </is>
       </c>
     </row>
@@ -12605,12 +12605,12 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>{ id:'mean.Date', href:'/detail/base/meanDate.html',funcname:'mean.Date'},</t>
+          <t>{ id:'mean.Date', href:'/detail/base/mean_Date.html',funcname:'mean.Date'},</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>mean.Date</t>
+          <t>mean_Date</t>
         </is>
       </c>
     </row>
@@ -12622,12 +12622,12 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>{ id:'mean.default', href:'/detail/base/meandefault.html',funcname:'mean.default'},</t>
+          <t>{ id:'mean.default', href:'/detail/base/mean_default.html',funcname:'mean.default'},</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>mean.default</t>
+          <t>mean_default</t>
         </is>
       </c>
     </row>
@@ -12639,12 +12639,12 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>{ id:'mean.difftime', href:'/detail/base/meandifftime.html',funcname:'mean.difftime'},</t>
+          <t>{ id:'mean.difftime', href:'/detail/base/mean_difftime.html',funcname:'mean.difftime'},</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>mean.difftime</t>
+          <t>mean_difftime</t>
         </is>
       </c>
     </row>
@@ -12656,12 +12656,12 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>{ id:'mean.POSIXct', href:'/detail/base/meanPOSIXct.html',funcname:'mean.POSIXct'},</t>
+          <t>{ id:'mean.POSIXct', href:'/detail/base/mean_POSIXct.html',funcname:'mean.POSIXct'},</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>mean.POSIXct</t>
+          <t>mean_POSIXct</t>
         </is>
       </c>
     </row>
@@ -12673,12 +12673,12 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>{ id:'mean.POSIXlt', href:'/detail/base/meanPOSIXlt.html',funcname:'mean.POSIXlt'},</t>
+          <t>{ id:'mean.POSIXlt', href:'/detail/base/mean_POSIXlt.html',funcname:'mean.POSIXlt'},</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>mean.POSIXlt</t>
+          <t>mean_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -12690,12 +12690,12 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>{ id:'mem.maxNSize', href:'/detail/base/memmaxNSize.html',funcname:'mem.maxNSize'},</t>
+          <t>{ id:'mem.maxNSize', href:'/detail/base/mem_maxNSize.html',funcname:'mem.maxNSize'},</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>mem.maxNSize</t>
+          <t>mem_maxNSize</t>
         </is>
       </c>
     </row>
@@ -12707,12 +12707,12 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>{ id:'mem.maxVSize', href:'/detail/base/memmaxVSize.html',funcname:'mem.maxVSize'},</t>
+          <t>{ id:'mem.maxVSize', href:'/detail/base/mem_maxVSize.html',funcname:'mem.maxVSize'},</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>mem.maxVSize</t>
+          <t>mem_maxVSize</t>
         </is>
       </c>
     </row>
@@ -12758,12 +12758,12 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>{ id:'memory.profile', href:'/detail/base/memoryprofile.html',funcname:'memory.profile'},</t>
+          <t>{ id:'memory.profile', href:'/detail/base/memory_profile.html',funcname:'memory.profile'},</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>memory.profile</t>
+          <t>memory_profile</t>
         </is>
       </c>
     </row>
@@ -12792,12 +12792,12 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>{ id:'merge.data.frame', href:'/detail/base/mergedata.frame.html',funcname:'merge.data.frame'},</t>
+          <t>{ id:'merge.data.frame', href:'/detail/base/merge_data_frame.html',funcname:'merge.data.frame'},</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>merge.data.frame</t>
+          <t>merge_data_frame</t>
         </is>
       </c>
     </row>
@@ -12809,12 +12809,12 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>{ id:'merge.default', href:'/detail/base/mergedefault.html',funcname:'merge.default'},</t>
+          <t>{ id:'merge.default', href:'/detail/base/merge_default.html',funcname:'merge.default'},</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>merge.default</t>
+          <t>merge_default</t>
         </is>
       </c>
     </row>
@@ -12945,12 +12945,12 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>{ id:'month.abb', href:'/detail/base/monthabb.html',funcname:'month.abb'},</t>
+          <t>{ id:'month.abb', href:'/detail/base/month_abb.html',funcname:'month.abb'},</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>month.abb</t>
+          <t>month_abb</t>
         </is>
       </c>
     </row>
@@ -12962,12 +12962,12 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>{ id:'month.name', href:'/detail/base/monthname.html',funcname:'month.name'},</t>
+          <t>{ id:'month.name', href:'/detail/base/month_name.html',funcname:'month.name'},</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>month.name</t>
+          <t>month_name</t>
         </is>
       </c>
     </row>
@@ -12996,12 +12996,12 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>{ id:'months.Date', href:'/detail/base/monthsDate.html',funcname:'months.Date'},</t>
+          <t>{ id:'months.Date', href:'/detail/base/months_Date.html',funcname:'months.Date'},</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>months.Date</t>
+          <t>months_Date</t>
         </is>
       </c>
     </row>
@@ -13013,12 +13013,12 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>{ id:'months.POSIXt', href:'/detail/base/monthsPOSIXt.html',funcname:'months.POSIXt'},</t>
+          <t>{ id:'months.POSIXt', href:'/detail/base/months_POSIXt.html',funcname:'months.POSIXt'},</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>months.POSIXt</t>
+          <t>months_POSIXt</t>
         </is>
       </c>
     </row>
@@ -13064,12 +13064,12 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>{ id:'names.POSIXlt', href:'/detail/base/namesPOSIXlt.html',funcname:'names.POSIXlt'},</t>
+          <t>{ id:'names.POSIXlt', href:'/detail/base/names_POSIXlt.html',funcname:'names.POSIXlt'},</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>names.POSIXlt</t>
+          <t>names_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -13098,12 +13098,12 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>{ id:'names&lt;-.POSIXlt', href:'/detail/base/names_-POSIXlt.html',funcname:'names&lt;-.POSIXlt'},</t>
+          <t>{ id:'names&lt;-.POSIXlt', href:'/detail/base/names_-_POSIXlt.html',funcname:'names&lt;-.POSIXlt'},</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>names_-.POSIXlt</t>
+          <t>names_-_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -13285,12 +13285,12 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>{ id:'new.env', href:'/detail/base/newenv.html',funcname:'new.env'},</t>
+          <t>{ id:'new.env', href:'/detail/base/new_env.html',funcname:'new.env'},</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>new.env</t>
+          <t>new_env</t>
         </is>
       </c>
     </row>
@@ -13625,12 +13625,12 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>{ id:'on.exit', href:'/detail/base/onexit.html',funcname:'on.exit'},</t>
+          <t>{ id:'on.exit', href:'/detail/base/on_exit.html',funcname:'on.exit'},</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>on.exit</t>
+          <t>on_exit</t>
         </is>
       </c>
     </row>
@@ -13659,12 +13659,12 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>{ id:'open.connection', href:'/detail/base/openconnection.html',funcname:'open.connection'},</t>
+          <t>{ id:'open.connection', href:'/detail/base/open_connection.html',funcname:'open.connection'},</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>open.connection</t>
+          <t>open_connection</t>
         </is>
       </c>
     </row>
@@ -13676,12 +13676,12 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>{ id:'open.srcfile', href:'/detail/base/opensrcfile.html',funcname:'open.srcfile'},</t>
+          <t>{ id:'open.srcfile', href:'/detail/base/open_srcfile.html',funcname:'open.srcfile'},</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>open.srcfile</t>
+          <t>open_srcfile</t>
         </is>
       </c>
     </row>
@@ -13693,12 +13693,12 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>{ id:'open.srcfilealias', href:'/detail/base/opensrcfilealias.html',funcname:'open.srcfilealias'},</t>
+          <t>{ id:'open.srcfilealias', href:'/detail/base/open_srcfilealias.html',funcname:'open.srcfilealias'},</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>open.srcfilealias</t>
+          <t>open_srcfilealias</t>
         </is>
       </c>
     </row>
@@ -13710,12 +13710,12 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>{ id:'open.srcfilecopy', href:'/detail/base/opensrcfilecopy.html',funcname:'open.srcfilecopy'},</t>
+          <t>{ id:'open.srcfilecopy', href:'/detail/base/open_srcfilecopy.html',funcname:'open.srcfilecopy'},</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>open.srcfilecopy</t>
+          <t>open_srcfilecopy</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>{ id:'Ops.data.frame', href:'/detail/base/Opsdata.frame.html',funcname:'Ops.data.frame'},</t>
+          <t>{ id:'Ops.data.frame', href:'/detail/base/Ops_data_frame.html',funcname:'Ops.data.frame'},</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Ops.data.frame</t>
+          <t>Ops_data_frame</t>
         </is>
       </c>
     </row>
@@ -13744,12 +13744,12 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>{ id:'Ops.Date', href:'/detail/base/OpsDate.html',funcname:'Ops.Date'},</t>
+          <t>{ id:'Ops.Date', href:'/detail/base/Ops_Date.html',funcname:'Ops.Date'},</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Ops.Date</t>
+          <t>Ops_Date</t>
         </is>
       </c>
     </row>
@@ -13761,12 +13761,12 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>{ id:'Ops.difftime', href:'/detail/base/Opsdifftime.html',funcname:'Ops.difftime'},</t>
+          <t>{ id:'Ops.difftime', href:'/detail/base/Ops_difftime.html',funcname:'Ops.difftime'},</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Ops.difftime</t>
+          <t>Ops_difftime</t>
         </is>
       </c>
     </row>
@@ -13778,12 +13778,12 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>{ id:'Ops.factor', href:'/detail/base/Opsfactor.html',funcname:'Ops.factor'},</t>
+          <t>{ id:'Ops.factor', href:'/detail/base/Ops_factor.html',funcname:'Ops.factor'},</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Ops.factor</t>
+          <t>Ops_factor</t>
         </is>
       </c>
     </row>
@@ -13795,12 +13795,12 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>{ id:'Ops.numeric_version', href:'/detail/base/Opsnumeric_version.html',funcname:'Ops.numeric_version'},</t>
+          <t>{ id:'Ops.numeric_version', href:'/detail/base/Ops_numeric_version.html',funcname:'Ops.numeric_version'},</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>Ops.numeric_version</t>
+          <t>Ops_numeric_version</t>
         </is>
       </c>
     </row>
@@ -13812,12 +13812,12 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>{ id:'Ops.ordered', href:'/detail/base/Opsordered.html',funcname:'Ops.ordered'},</t>
+          <t>{ id:'Ops.ordered', href:'/detail/base/Ops_ordered.html',funcname:'Ops.ordered'},</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Ops.ordered</t>
+          <t>Ops_ordered</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13829,12 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>{ id:'Ops.POSIXt', href:'/detail/base/OpsPOSIXt.html',funcname:'Ops.POSIXt'},</t>
+          <t>{ id:'Ops.POSIXt', href:'/detail/base/Ops_POSIXt.html',funcname:'Ops.POSIXt'},</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Ops.POSIXt</t>
+          <t>Ops_POSIXt</t>
         </is>
       </c>
     </row>
@@ -14033,12 +14033,12 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>{ id:'parent.env', href:'/detail/base/parentenv.html',funcname:'parent.env'},</t>
+          <t>{ id:'parent.env', href:'/detail/base/parent_env.html',funcname:'parent.env'},</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>parent.env</t>
+          <t>parent_env</t>
         </is>
       </c>
     </row>
@@ -14050,12 +14050,12 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>{ id:'parent.env&lt;-', href:'/detail/base/parentenv_-.html',funcname:'parent.env&lt;-'},</t>
+          <t>{ id:'parent.env&lt;-', href:'/detail/base/parent_env_-.html',funcname:'parent.env&lt;-'},</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>parent.env_-</t>
+          <t>parent_env_-</t>
         </is>
       </c>
     </row>
@@ -14067,12 +14067,12 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>{ id:'parent.frame', href:'/detail/base/parentframe.html',funcname:'parent.frame'},</t>
+          <t>{ id:'parent.frame', href:'/detail/base/parent_frame.html',funcname:'parent.frame'},</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>parent.frame</t>
+          <t>parent_frame</t>
         </is>
       </c>
     </row>
@@ -14152,12 +14152,12 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>{ id:'path.expand', href:'/detail/base/pathexpand.html',funcname:'path.expand'},</t>
+          <t>{ id:'path.expand', href:'/detail/base/path_expand.html',funcname:'path.expand'},</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>path.expand</t>
+          <t>path_expand</t>
         </is>
       </c>
     </row>
@@ -14169,12 +14169,12 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>{ id:'path.package', href:'/detail/base/pathpackage.html',funcname:'path.package'},</t>
+          <t>{ id:'path.package', href:'/detail/base/path_package.html',funcname:'path.package'},</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>path.package</t>
+          <t>path_package</t>
         </is>
       </c>
     </row>
@@ -14288,12 +14288,12 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>{ id:'pmax.int', href:'/detail/base/pmaxint.html',funcname:'pmax.int'},</t>
+          <t>{ id:'pmax.int', href:'/detail/base/pmax_int.html',funcname:'pmax.int'},</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>pmax.int</t>
+          <t>pmax_int</t>
         </is>
       </c>
     </row>
@@ -14322,12 +14322,12 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>{ id:'pmin.int', href:'/detail/base/pminint.html',funcname:'pmin.int'},</t>
+          <t>{ id:'pmin.int', href:'/detail/base/pmin_int.html',funcname:'pmin.int'},</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>pmin.int</t>
+          <t>pmin_int</t>
         </is>
       </c>
     </row>
@@ -14356,12 +14356,12 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>{ id:'pos.to.env', href:'/detail/base/posto.env.html',funcname:'pos.to.env'},</t>
+          <t>{ id:'pos.to.env', href:'/detail/base/pos_to_env.html',funcname:'pos.to.env'},</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>pos.to.env</t>
+          <t>pos_to_env</t>
         </is>
       </c>
     </row>
@@ -14407,12 +14407,12 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>{ id:'pretty.default', href:'/detail/base/prettydefault.html',funcname:'pretty.default'},</t>
+          <t>{ id:'pretty.default', href:'/detail/base/pretty_default.html',funcname:'pretty.default'},</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>pretty.default</t>
+          <t>pretty_default</t>
         </is>
       </c>
     </row>
@@ -14458,12 +14458,12 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>{ id:'print.AsIs', href:'/detail/base/printAsIs.html',funcname:'print.AsIs'},</t>
+          <t>{ id:'print.AsIs', href:'/detail/base/print_AsIs.html',funcname:'print.AsIs'},</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>print.AsIs</t>
+          <t>print_AsIs</t>
         </is>
       </c>
     </row>
@@ -14475,12 +14475,12 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>{ id:'print.by', href:'/detail/base/printby.html',funcname:'print.by'},</t>
+          <t>{ id:'print.by', href:'/detail/base/print_by.html',funcname:'print.by'},</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>print.by</t>
+          <t>print_by</t>
         </is>
       </c>
     </row>
@@ -14492,12 +14492,12 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>{ id:'print.condition', href:'/detail/base/printcondition.html',funcname:'print.condition'},</t>
+          <t>{ id:'print.condition', href:'/detail/base/print_condition.html',funcname:'print.condition'},</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>print.condition</t>
+          <t>print_condition</t>
         </is>
       </c>
     </row>
@@ -14509,12 +14509,12 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>{ id:'print.connection', href:'/detail/base/printconnection.html',funcname:'print.connection'},</t>
+          <t>{ id:'print.connection', href:'/detail/base/print_connection.html',funcname:'print.connection'},</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>print.connection</t>
+          <t>print_connection</t>
         </is>
       </c>
     </row>
@@ -14526,12 +14526,12 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>{ id:'print.data.frame', href:'/detail/base/printdata.frame.html',funcname:'print.data.frame'},</t>
+          <t>{ id:'print.data.frame', href:'/detail/base/print_data_frame.html',funcname:'print.data.frame'},</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>print.data.frame</t>
+          <t>print_data_frame</t>
         </is>
       </c>
     </row>
@@ -14543,12 +14543,12 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>{ id:'print.Date', href:'/detail/base/printDate.html',funcname:'print.Date'},</t>
+          <t>{ id:'print.Date', href:'/detail/base/print_Date.html',funcname:'print.Date'},</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>print.Date</t>
+          <t>print_Date</t>
         </is>
       </c>
     </row>
@@ -14560,12 +14560,12 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>{ id:'print.default', href:'/detail/base/printdefault.html',funcname:'print.default'},</t>
+          <t>{ id:'print.default', href:'/detail/base/print_default.html',funcname:'print.default'},</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>print.default</t>
+          <t>print_default</t>
         </is>
       </c>
     </row>
@@ -14577,12 +14577,12 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>{ id:'print.difftime', href:'/detail/base/printdifftime.html',funcname:'print.difftime'},</t>
+          <t>{ id:'print.difftime', href:'/detail/base/print_difftime.html',funcname:'print.difftime'},</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>print.difftime</t>
+          <t>print_difftime</t>
         </is>
       </c>
     </row>
@@ -14594,12 +14594,12 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>{ id:'print.Dlist', href:'/detail/base/printDlist.html',funcname:'print.Dlist'},</t>
+          <t>{ id:'print.Dlist', href:'/detail/base/print_Dlist.html',funcname:'print.Dlist'},</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>print.Dlist</t>
+          <t>print_Dlist</t>
         </is>
       </c>
     </row>
@@ -14611,12 +14611,12 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>{ id:'print.DLLInfo', href:'/detail/base/printDLLInfo.html',funcname:'print.DLLInfo'},</t>
+          <t>{ id:'print.DLLInfo', href:'/detail/base/print_DLLInfo.html',funcname:'print.DLLInfo'},</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>print.DLLInfo</t>
+          <t>print_DLLInfo</t>
         </is>
       </c>
     </row>
@@ -14628,12 +14628,12 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>{ id:'print.DLLInfoList', href:'/detail/base/printDLLInfoList.html',funcname:'print.DLLInfoList'},</t>
+          <t>{ id:'print.DLLInfoList', href:'/detail/base/print_DLLInfoList.html',funcname:'print.DLLInfoList'},</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>print.DLLInfoList</t>
+          <t>print_DLLInfoList</t>
         </is>
       </c>
     </row>
@@ -14645,12 +14645,12 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>{ id:'print.DLLRegisteredRoutines', href:'/detail/base/printDLLRegisteredRoutines.html',funcname:'print.DLLRegisteredRoutines'},</t>
+          <t>{ id:'print.DLLRegisteredRoutines', href:'/detail/base/print_DLLRegisteredRoutines.html',funcname:'print.DLLRegisteredRoutines'},</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>print.DLLRegisteredRoutines</t>
+          <t>print_DLLRegisteredRoutines</t>
         </is>
       </c>
     </row>
@@ -14662,12 +14662,12 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>{ id:'print.eigen', href:'/detail/base/printeigen.html',funcname:'print.eigen'},</t>
+          <t>{ id:'print.eigen', href:'/detail/base/print_eigen.html',funcname:'print.eigen'},</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>print.eigen</t>
+          <t>print_eigen</t>
         </is>
       </c>
     </row>
@@ -14679,12 +14679,12 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>{ id:'print.factor', href:'/detail/base/printfactor.html',funcname:'print.factor'},</t>
+          <t>{ id:'print.factor', href:'/detail/base/print_factor.html',funcname:'print.factor'},</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>print.factor</t>
+          <t>print_factor</t>
         </is>
       </c>
     </row>
@@ -14696,12 +14696,12 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>{ id:'print.function', href:'/detail/base/printfunction.html',funcname:'print.function'},</t>
+          <t>{ id:'print.function', href:'/detail/base/print_function.html',funcname:'print.function'},</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>print.function</t>
+          <t>print_function</t>
         </is>
       </c>
     </row>
@@ -14713,12 +14713,12 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>{ id:'print.hexmode', href:'/detail/base/printhexmode.html',funcname:'print.hexmode'},</t>
+          <t>{ id:'print.hexmode', href:'/detail/base/print_hexmode.html',funcname:'print.hexmode'},</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>print.hexmode</t>
+          <t>print_hexmode</t>
         </is>
       </c>
     </row>
@@ -14730,12 +14730,12 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>{ id:'print.libraryIQR', href:'/detail/base/printlibraryIQR.html',funcname:'print.libraryIQR'},</t>
+          <t>{ id:'print.libraryIQR', href:'/detail/base/print_libraryIQR.html',funcname:'print.libraryIQR'},</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>print.libraryIQR</t>
+          <t>print_libraryIQR</t>
         </is>
       </c>
     </row>
@@ -14747,12 +14747,12 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>{ id:'print.listof', href:'/detail/base/printlistof.html',funcname:'print.listof'},</t>
+          <t>{ id:'print.listof', href:'/detail/base/print_listof.html',funcname:'print.listof'},</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>print.listof</t>
+          <t>print_listof</t>
         </is>
       </c>
     </row>
@@ -14764,12 +14764,12 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>{ id:'print.NativeRoutineList', href:'/detail/base/printNativeRoutineList.html',funcname:'print.NativeRoutineList'},</t>
+          <t>{ id:'print.NativeRoutineList', href:'/detail/base/print_NativeRoutineList.html',funcname:'print.NativeRoutineList'},</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>print.NativeRoutineList</t>
+          <t>print_NativeRoutineList</t>
         </is>
       </c>
     </row>
@@ -14781,12 +14781,12 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>{ id:'print.noquote', href:'/detail/base/printnoquote.html',funcname:'print.noquote'},</t>
+          <t>{ id:'print.noquote', href:'/detail/base/print_noquote.html',funcname:'print.noquote'},</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>print.noquote</t>
+          <t>print_noquote</t>
         </is>
       </c>
     </row>
@@ -14798,12 +14798,12 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>{ id:'print.numeric_version', href:'/detail/base/printnumeric_version.html',funcname:'print.numeric_version'},</t>
+          <t>{ id:'print.numeric_version', href:'/detail/base/print_numeric_version.html',funcname:'print.numeric_version'},</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>print.numeric_version</t>
+          <t>print_numeric_version</t>
         </is>
       </c>
     </row>
@@ -14815,12 +14815,12 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>{ id:'print.octmode', href:'/detail/base/printoctmode.html',funcname:'print.octmode'},</t>
+          <t>{ id:'print.octmode', href:'/detail/base/print_octmode.html',funcname:'print.octmode'},</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>print.octmode</t>
+          <t>print_octmode</t>
         </is>
       </c>
     </row>
@@ -14832,12 +14832,12 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>{ id:'print.packageInfo', href:'/detail/base/printpackageInfo.html',funcname:'print.packageInfo'},</t>
+          <t>{ id:'print.packageInfo', href:'/detail/base/print_packageInfo.html',funcname:'print.packageInfo'},</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>print.packageInfo</t>
+          <t>print_packageInfo</t>
         </is>
       </c>
     </row>
@@ -14849,12 +14849,12 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>{ id:'print.POSIXct', href:'/detail/base/printPOSIXct.html',funcname:'print.POSIXct'},</t>
+          <t>{ id:'print.POSIXct', href:'/detail/base/print_POSIXct.html',funcname:'print.POSIXct'},</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>print.POSIXct</t>
+          <t>print_POSIXct</t>
         </is>
       </c>
     </row>
@@ -14866,12 +14866,12 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>{ id:'print.POSIXlt', href:'/detail/base/printPOSIXlt.html',funcname:'print.POSIXlt'},</t>
+          <t>{ id:'print.POSIXlt', href:'/detail/base/print_POSIXlt.html',funcname:'print.POSIXlt'},</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>print.POSIXlt</t>
+          <t>print_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -14883,12 +14883,12 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>{ id:'print.proc_time', href:'/detail/base/printproc_time.html',funcname:'print.proc_time'},</t>
+          <t>{ id:'print.proc_time', href:'/detail/base/print_proc_time.html',funcname:'print.proc_time'},</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>print.proc_time</t>
+          <t>print_proc_time</t>
         </is>
       </c>
     </row>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>{ id:'print.restart', href:'/detail/base/printrestart.html',funcname:'print.restart'},</t>
+          <t>{ id:'print.restart', href:'/detail/base/print_restart.html',funcname:'print.restart'},</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>print.restart</t>
+          <t>print_restart</t>
         </is>
       </c>
     </row>
@@ -14917,12 +14917,12 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>{ id:'print.rle', href:'/detail/base/printrle.html',funcname:'print.rle'},</t>
+          <t>{ id:'print.rle', href:'/detail/base/print_rle.html',funcname:'print.rle'},</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>print.rle</t>
+          <t>print_rle</t>
         </is>
       </c>
     </row>
@@ -14934,12 +14934,12 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>{ id:'print.simple.list', href:'/detail/base/printsimple.list.html',funcname:'print.simple.list'},</t>
+          <t>{ id:'print.simple.list', href:'/detail/base/print_simple_list.html',funcname:'print.simple.list'},</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>print.simple.list</t>
+          <t>print_simple_list</t>
         </is>
       </c>
     </row>
@@ -14951,12 +14951,12 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>{ id:'print.srcfile', href:'/detail/base/printsrcfile.html',funcname:'print.srcfile'},</t>
+          <t>{ id:'print.srcfile', href:'/detail/base/print_srcfile.html',funcname:'print.srcfile'},</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>print.srcfile</t>
+          <t>print_srcfile</t>
         </is>
       </c>
     </row>
@@ -14968,12 +14968,12 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>{ id:'print.srcref', href:'/detail/base/printsrcref.html',funcname:'print.srcref'},</t>
+          <t>{ id:'print.srcref', href:'/detail/base/print_srcref.html',funcname:'print.srcref'},</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>print.srcref</t>
+          <t>print_srcref</t>
         </is>
       </c>
     </row>
@@ -14985,12 +14985,12 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>{ id:'print.summary.table', href:'/detail/base/printsummary.table.html',funcname:'print.summary.table'},</t>
+          <t>{ id:'print.summary.table', href:'/detail/base/print_summary_table.html',funcname:'print.summary.table'},</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>print.summary.table</t>
+          <t>print_summary_table</t>
         </is>
       </c>
     </row>
@@ -15002,12 +15002,12 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>{ id:'print.summary.warnings', href:'/detail/base/printsummary.warnings.html',funcname:'print.summary.warnings'},</t>
+          <t>{ id:'print.summary.warnings', href:'/detail/base/print_summary_warnings.html',funcname:'print.summary.warnings'},</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>print.summary.warnings</t>
+          <t>print_summary_warnings</t>
         </is>
       </c>
     </row>
@@ -15019,12 +15019,12 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>{ id:'print.summaryDefault', href:'/detail/base/printsummaryDefault.html',funcname:'print.summaryDefault'},</t>
+          <t>{ id:'print.summaryDefault', href:'/detail/base/print_summaryDefault.html',funcname:'print.summaryDefault'},</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>print.summaryDefault</t>
+          <t>print_summaryDefault</t>
         </is>
       </c>
     </row>
@@ -15036,12 +15036,12 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>{ id:'print.table', href:'/detail/base/printtable.html',funcname:'print.table'},</t>
+          <t>{ id:'print.table', href:'/detail/base/print_table.html',funcname:'print.table'},</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>print.table</t>
+          <t>print_table</t>
         </is>
       </c>
     </row>
@@ -15053,12 +15053,12 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>{ id:'print.warnings', href:'/detail/base/printwarnings.html',funcname:'print.warnings'},</t>
+          <t>{ id:'print.warnings', href:'/detail/base/print_warnings.html',funcname:'print.warnings'},</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>print.warnings</t>
+          <t>print_warnings</t>
         </is>
       </c>
     </row>
@@ -15087,12 +15087,12 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>{ id:'proc.time', href:'/detail/base/proctime.html',funcname:'proc.time'},</t>
+          <t>{ id:'proc.time', href:'/detail/base/proc_time.html',funcname:'proc.time'},</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>proc.time</t>
+          <t>proc_time</t>
         </is>
       </c>
     </row>
@@ -15121,12 +15121,12 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>{ id:'prop.table', href:'/detail/base/proptable.html',funcname:'prop.table'},</t>
+          <t>{ id:'prop.table', href:'/detail/base/prop_table.html',funcname:'prop.table'},</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>prop.table</t>
+          <t>prop_table</t>
         </is>
       </c>
     </row>
@@ -15257,12 +15257,12 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>{ id:'qr.coef', href:'/detail/base/qrcoef.html',funcname:'qr.coef'},</t>
+          <t>{ id:'qr.coef', href:'/detail/base/qr_coef.html',funcname:'qr.coef'},</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>qr.coef</t>
+          <t>qr_coef</t>
         </is>
       </c>
     </row>
@@ -15274,12 +15274,12 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>{ id:'qr.default', href:'/detail/base/qrdefault.html',funcname:'qr.default'},</t>
+          <t>{ id:'qr.default', href:'/detail/base/qr_default.html',funcname:'qr.default'},</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>qr.default</t>
+          <t>qr_default</t>
         </is>
       </c>
     </row>
@@ -15291,12 +15291,12 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>{ id:'qr.fitted', href:'/detail/base/qrfitted.html',funcname:'qr.fitted'},</t>
+          <t>{ id:'qr.fitted', href:'/detail/base/qr_fitted.html',funcname:'qr.fitted'},</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>qr.fitted</t>
+          <t>qr_fitted</t>
         </is>
       </c>
     </row>
@@ -15308,12 +15308,12 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>{ id:'qr.Q', href:'/detail/base/qrQ.html',funcname:'qr.Q'},</t>
+          <t>{ id:'qr.Q', href:'/detail/base/qr_Q.html',funcname:'qr.Q'},</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>qr.Q</t>
+          <t>qr_Q</t>
         </is>
       </c>
     </row>
@@ -15325,12 +15325,12 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>{ id:'qr.qty', href:'/detail/base/qrqty.html',funcname:'qr.qty'},</t>
+          <t>{ id:'qr.qty', href:'/detail/base/qr_qty.html',funcname:'qr.qty'},</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>qr.qty</t>
+          <t>qr_qty</t>
         </is>
       </c>
     </row>
@@ -15342,12 +15342,12 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>{ id:'qr.qy', href:'/detail/base/qrqy.html',funcname:'qr.qy'},</t>
+          <t>{ id:'qr.qy', href:'/detail/base/qr_qy.html',funcname:'qr.qy'},</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>qr.qy</t>
+          <t>qr_qy</t>
         </is>
       </c>
     </row>
@@ -15359,12 +15359,12 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>{ id:'qr.R', href:'/detail/base/qrR.html',funcname:'qr.R'},</t>
+          <t>{ id:'qr.R', href:'/detail/base/qr_R.html',funcname:'qr.R'},</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>qr.R</t>
+          <t>qr_R</t>
         </is>
       </c>
     </row>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>{ id:'qr.resid', href:'/detail/base/qrresid.html',funcname:'qr.resid'},</t>
+          <t>{ id:'qr.resid', href:'/detail/base/qr_resid.html',funcname:'qr.resid'},</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>qr.resid</t>
+          <t>qr_resid</t>
         </is>
       </c>
     </row>
@@ -15393,12 +15393,12 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>{ id:'qr.solve', href:'/detail/base/qrsolve.html',funcname:'qr.solve'},</t>
+          <t>{ id:'qr.solve', href:'/detail/base/qr_solve.html',funcname:'qr.solve'},</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>qr.solve</t>
+          <t>qr_solve</t>
         </is>
       </c>
     </row>
@@ -15410,12 +15410,12 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>{ id:'qr.X', href:'/detail/base/qrX.html',funcname:'qr.X'},</t>
+          <t>{ id:'qr.X', href:'/detail/base/qr_X.html',funcname:'qr.X'},</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>qr.X</t>
+          <t>qr_X</t>
         </is>
       </c>
     </row>
@@ -15444,12 +15444,12 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>{ id:'quarters.Date', href:'/detail/base/quartersDate.html',funcname:'quarters.Date'},</t>
+          <t>{ id:'quarters.Date', href:'/detail/base/quarters_Date.html',funcname:'quarters.Date'},</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>quarters.Date</t>
+          <t>quarters_Date</t>
         </is>
       </c>
     </row>
@@ -15461,12 +15461,12 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>{ id:'quarters.POSIXt', href:'/detail/base/quartersPOSIXt.html',funcname:'quarters.POSIXt'},</t>
+          <t>{ id:'quarters.POSIXt', href:'/detail/base/quarters_POSIXt.html',funcname:'quarters.POSIXt'},</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>quarters.POSIXt</t>
+          <t>quarters_POSIXt</t>
         </is>
       </c>
     </row>
@@ -15529,12 +15529,12 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>{ id:'R.home', href:'/detail/base/Rhome.html',funcname:'R.home'},</t>
+          <t>{ id:'R.home', href:'/detail/base/R_home.html',funcname:'R.home'},</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>R.home</t>
+          <t>R_home</t>
         </is>
       </c>
     </row>
@@ -15546,12 +15546,12 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>{ id:'R.version', href:'/detail/base/Rversion.html',funcname:'R.version'},</t>
+          <t>{ id:'R.version', href:'/detail/base/R_version.html',funcname:'R.version'},</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>R.version</t>
+          <t>R_version</t>
         </is>
       </c>
     </row>
@@ -15563,12 +15563,12 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>{ id:'R.Version', href:'/detail/base/RVersion.html',funcname:'R.Version'},</t>
+          <t>{ id:'R.Version', href:'/detail/base/R_Version.html',funcname:'R.Version'},</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>R.Version</t>
+          <t>R_Version</t>
         </is>
       </c>
     </row>
@@ -15580,12 +15580,12 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>{ id:'R.version.string', href:'/detail/base/Rversion.string.html',funcname:'R.version.string'},</t>
+          <t>{ id:'R.version.string', href:'/detail/base/R_version_string.html',funcname:'R.version.string'},</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>R.version.string</t>
+          <t>R_version_string</t>
         </is>
       </c>
     </row>
@@ -15614,12 +15614,12 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>{ id:'range.default', href:'/detail/base/rangedefault.html',funcname:'range.default'},</t>
+          <t>{ id:'range.default', href:'/detail/base/range_default.html',funcname:'range.default'},</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>range.default</t>
+          <t>range_default</t>
         </is>
       </c>
     </row>
@@ -15784,12 +15784,12 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>{ id:'rbind.data.frame', href:'/detail/base/rbinddata.frame.html',funcname:'rbind.data.frame'},</t>
+          <t>{ id:'rbind.data.frame', href:'/detail/base/rbind_data_frame.html',funcname:'rbind.data.frame'},</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>rbind.data.frame</t>
+          <t>rbind_data_frame</t>
         </is>
       </c>
     </row>
@@ -15835,12 +15835,12 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>{ id:'read.dcf', href:'/detail/base/readdcf.html',funcname:'read.dcf'},</t>
+          <t>{ id:'read.dcf', href:'/detail/base/read_dcf.html',funcname:'read.dcf'},</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>read.dcf</t>
+          <t>read_dcf</t>
         </is>
       </c>
     </row>
@@ -15988,12 +15988,12 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>{ id:'reg.finalizer', href:'/detail/base/regfinalizer.html',funcname:'reg.finalizer'},</t>
+          <t>{ id:'reg.finalizer', href:'/detail/base/reg_finalizer.html',funcname:'reg.finalizer'},</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>reg.finalizer</t>
+          <t>reg_finalizer</t>
         </is>
       </c>
     </row>
@@ -16175,12 +16175,12 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>{ id:'rep.Date', href:'/detail/base/repDate.html',funcname:'rep.Date'},</t>
+          <t>{ id:'rep.Date', href:'/detail/base/rep_Date.html',funcname:'rep.Date'},</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>rep.Date</t>
+          <t>rep_Date</t>
         </is>
       </c>
     </row>
@@ -16192,12 +16192,12 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>{ id:'rep.difftime', href:'/detail/base/repdifftime.html',funcname:'rep.difftime'},</t>
+          <t>{ id:'rep.difftime', href:'/detail/base/rep_difftime.html',funcname:'rep.difftime'},</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>rep.difftime</t>
+          <t>rep_difftime</t>
         </is>
       </c>
     </row>
@@ -16209,12 +16209,12 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>{ id:'rep.factor', href:'/detail/base/repfactor.html',funcname:'rep.factor'},</t>
+          <t>{ id:'rep.factor', href:'/detail/base/rep_factor.html',funcname:'rep.factor'},</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>rep.factor</t>
+          <t>rep_factor</t>
         </is>
       </c>
     </row>
@@ -16226,12 +16226,12 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>{ id:'rep.int', href:'/detail/base/repint.html',funcname:'rep.int'},</t>
+          <t>{ id:'rep.int', href:'/detail/base/rep_int.html',funcname:'rep.int'},</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>rep.int</t>
+          <t>rep_int</t>
         </is>
       </c>
     </row>
@@ -16243,12 +16243,12 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>{ id:'rep.numeric_version', href:'/detail/base/repnumeric_version.html',funcname:'rep.numeric_version'},</t>
+          <t>{ id:'rep.numeric_version', href:'/detail/base/rep_numeric_version.html',funcname:'rep.numeric_version'},</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>rep.numeric_version</t>
+          <t>rep_numeric_version</t>
         </is>
       </c>
     </row>
@@ -16260,12 +16260,12 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>{ id:'rep.POSIXct', href:'/detail/base/repPOSIXct.html',funcname:'rep.POSIXct'},</t>
+          <t>{ id:'rep.POSIXct', href:'/detail/base/rep_POSIXct.html',funcname:'rep.POSIXct'},</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>rep.POSIXct</t>
+          <t>rep_POSIXct</t>
         </is>
       </c>
     </row>
@@ -16277,12 +16277,12 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>{ id:'rep.POSIXlt', href:'/detail/base/repPOSIXlt.html',funcname:'rep.POSIXlt'},</t>
+          <t>{ id:'rep.POSIXlt', href:'/detail/base/rep_POSIXlt.html',funcname:'rep.POSIXlt'},</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>rep.POSIXlt</t>
+          <t>rep_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -16481,12 +16481,12 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>{ id:'rev.default', href:'/detail/base/revdefault.html',funcname:'rev.default'},</t>
+          <t>{ id:'rev.default', href:'/detail/base/rev_default.html',funcname:'rev.default'},</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>rev.default</t>
+          <t>rev_default</t>
         </is>
       </c>
     </row>
@@ -16583,12 +16583,12 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>{ id:'round.Date', href:'/detail/base/roundDate.html',funcname:'round.Date'},</t>
+          <t>{ id:'round.Date', href:'/detail/base/round_Date.html',funcname:'round.Date'},</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>round.Date</t>
+          <t>round_Date</t>
         </is>
       </c>
     </row>
@@ -16600,12 +16600,12 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>{ id:'round.POSIXt', href:'/detail/base/roundPOSIXt.html',funcname:'round.POSIXt'},</t>
+          <t>{ id:'round.POSIXt', href:'/detail/base/round_POSIXt.html',funcname:'round.POSIXt'},</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>round.POSIXt</t>
+          <t>round_POSIXt</t>
         </is>
       </c>
     </row>
@@ -16634,12 +16634,12 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>{ id:'row.names', href:'/detail/base/rownames.html',funcname:'row.names'},</t>
+          <t>{ id:'row.names', href:'/detail/base/row_names.html',funcname:'row.names'},</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>row.names</t>
+          <t>row_names</t>
         </is>
       </c>
     </row>
@@ -16651,12 +16651,12 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>{ id:'row.names.data.frame', href:'/detail/base/rownames.data.frame.html',funcname:'row.names.data.frame'},</t>
+          <t>{ id:'row.names.data.frame', href:'/detail/base/row_names_data_frame.html',funcname:'row.names.data.frame'},</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>row.names.data.frame</t>
+          <t>row_names_data_frame</t>
         </is>
       </c>
     </row>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>{ id:'row.names.default', href:'/detail/base/rownames.default.html',funcname:'row.names.default'},</t>
+          <t>{ id:'row.names.default', href:'/detail/base/row_names_default.html',funcname:'row.names.default'},</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>row.names.default</t>
+          <t>row_names_default</t>
         </is>
       </c>
     </row>
@@ -16685,12 +16685,12 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>{ id:'row.names&lt;-', href:'/detail/base/rownames_-.html',funcname:'row.names&lt;-'},</t>
+          <t>{ id:'row.names&lt;-', href:'/detail/base/row_names_-.html',funcname:'row.names&lt;-'},</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>row.names_-</t>
+          <t>row_names_-</t>
         </is>
       </c>
     </row>
@@ -16702,12 +16702,12 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>{ id:'row.names&lt;-.data.frame', href:'/detail/base/rownames_-.data.frame.html',funcname:'row.names&lt;-.data.frame'},</t>
+          <t>{ id:'row.names&lt;-.data.frame', href:'/detail/base/row_names_-_data_frame.html',funcname:'row.names&lt;-.data.frame'},</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>row.names_-.data.frame</t>
+          <t>row_names_-_data_frame</t>
         </is>
       </c>
     </row>
@@ -16719,12 +16719,12 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>{ id:'row.names&lt;-.default', href:'/detail/base/rownames_-.default.html',funcname:'row.names&lt;-.default'},</t>
+          <t>{ id:'row.names&lt;-.default', href:'/detail/base/row_names_-_default.html',funcname:'row.names&lt;-.default'},</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>row.names_-.default</t>
+          <t>row_names_-_default</t>
         </is>
       </c>
     </row>
@@ -16804,12 +16804,12 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>{ id:'rowsum.data.frame', href:'/detail/base/rowsumdata.frame.html',funcname:'rowsum.data.frame'},</t>
+          <t>{ id:'rowsum.data.frame', href:'/detail/base/rowsum_data_frame.html',funcname:'rowsum.data.frame'},</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>rowsum.data.frame</t>
+          <t>rowsum_data_frame</t>
         </is>
       </c>
     </row>
@@ -16821,12 +16821,12 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>{ id:'rowsum.default', href:'/detail/base/rowsumdefault.html',funcname:'rowsum.default'},</t>
+          <t>{ id:'rowsum.default', href:'/detail/base/rowsum_default.html',funcname:'rowsum.default'},</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>rowsum.default</t>
+          <t>rowsum_default</t>
         </is>
       </c>
     </row>
@@ -16872,12 +16872,12 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>{ id:'sample.int', href:'/detail/base/sampleint.html',funcname:'sample.int'},</t>
+          <t>{ id:'sample.int', href:'/detail/base/sample_int.html',funcname:'sample.int'},</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>sample.int</t>
+          <t>sample_int</t>
         </is>
       </c>
     </row>
@@ -16923,12 +16923,12 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>{ id:'save.image', href:'/detail/base/saveimage.html',funcname:'save.image'},</t>
+          <t>{ id:'save.image', href:'/detail/base/save_image.html',funcname:'save.image'},</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>save.image</t>
+          <t>save_image</t>
         </is>
       </c>
     </row>
@@ -16974,12 +16974,12 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>{ id:'scale.default', href:'/detail/base/scaledefault.html',funcname:'scale.default'},</t>
+          <t>{ id:'scale.default', href:'/detail/base/scale_default.html',funcname:'scale.default'},</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>scale.default</t>
+          <t>scale_default</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>{ id:'seek.connection', href:'/detail/base/seekconnection.html',funcname:'seek.connection'},</t>
+          <t>{ id:'seek.connection', href:'/detail/base/seek_connection.html',funcname:'seek.connection'},</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>seek.connection</t>
+          <t>seek_connection</t>
         </is>
       </c>
     </row>
@@ -17127,12 +17127,12 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>{ id:'seq.Date', href:'/detail/base/seqDate.html',funcname:'seq.Date'},</t>
+          <t>{ id:'seq.Date', href:'/detail/base/seq_Date.html',funcname:'seq.Date'},</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>seq.Date</t>
+          <t>seq_Date</t>
         </is>
       </c>
     </row>
@@ -17144,12 +17144,12 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>{ id:'seq.default', href:'/detail/base/seqdefault.html',funcname:'seq.default'},</t>
+          <t>{ id:'seq.default', href:'/detail/base/seq_default.html',funcname:'seq.default'},</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>seq.default</t>
+          <t>seq_default</t>
         </is>
       </c>
     </row>
@@ -17161,12 +17161,12 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>{ id:'seq.int', href:'/detail/base/seqint.html',funcname:'seq.int'},</t>
+          <t>{ id:'seq.int', href:'/detail/base/seq_int.html',funcname:'seq.int'},</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>seq.int</t>
+          <t>seq_int</t>
         </is>
       </c>
     </row>
@@ -17178,12 +17178,12 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>{ id:'seq.POSIXt', href:'/detail/base/seqPOSIXt.html',funcname:'seq.POSIXt'},</t>
+          <t>{ id:'seq.POSIXt', href:'/detail/base/seq_POSIXt.html',funcname:'seq.POSIXt'},</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>seq.POSIXt</t>
+          <t>seq_POSIXt</t>
         </is>
       </c>
     </row>
@@ -17212,12 +17212,12 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>{ id:'sequence.default', href:'/detail/base/sequencedefault.html',funcname:'sequence.default'},</t>
+          <t>{ id:'sequence.default', href:'/detail/base/sequence_default.html',funcname:'sequence.default'},</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>sequence.default</t>
+          <t>sequence_default</t>
         </is>
       </c>
     </row>
@@ -17263,12 +17263,12 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>{ id:'set.seed', href:'/detail/base/setseed.html',funcname:'set.seed'},</t>
+          <t>{ id:'set.seed', href:'/detail/base/set_seed.html',funcname:'set.seed'},</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>set.seed</t>
+          <t>set_seed</t>
         </is>
       </c>
     </row>
@@ -17637,12 +17637,12 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>{ id:'sink.number', href:'/detail/base/sinknumber.html',funcname:'sink.number'},</t>
+          <t>{ id:'sink.number', href:'/detail/base/sink_number.html',funcname:'sink.number'},</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>sink.number</t>
+          <t>sink_number</t>
         </is>
       </c>
     </row>
@@ -17671,12 +17671,12 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>{ id:'slice.index', href:'/detail/base/sliceindex.html',funcname:'slice.index'},</t>
+          <t>{ id:'slice.index', href:'/detail/base/slice_index.html',funcname:'slice.index'},</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>slice.index</t>
+          <t>slice_index</t>
         </is>
       </c>
     </row>
@@ -17773,12 +17773,12 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>{ id:'solve.default', href:'/detail/base/solvedefault.html',funcname:'solve.default'},</t>
+          <t>{ id:'solve.default', href:'/detail/base/solve_default.html',funcname:'solve.default'},</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>solve.default</t>
+          <t>solve_default</t>
         </is>
       </c>
     </row>
@@ -17790,12 +17790,12 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>{ id:'solve.qr', href:'/detail/base/solveqr.html',funcname:'solve.qr'},</t>
+          <t>{ id:'solve.qr', href:'/detail/base/solve_qr.html',funcname:'solve.qr'},</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>solve.qr</t>
+          <t>solve_qr</t>
         </is>
       </c>
     </row>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>{ id:'sort.default', href:'/detail/base/sortdefault.html',funcname:'sort.default'},</t>
+          <t>{ id:'sort.default', href:'/detail/base/sort_default.html',funcname:'sort.default'},</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>sort.default</t>
+          <t>sort_default</t>
         </is>
       </c>
     </row>
@@ -17841,12 +17841,12 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>{ id:'sort.int', href:'/detail/base/sortint.html',funcname:'sort.int'},</t>
+          <t>{ id:'sort.int', href:'/detail/base/sort_int.html',funcname:'sort.int'},</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>sort.int</t>
+          <t>sort_int</t>
         </is>
       </c>
     </row>
@@ -17858,12 +17858,12 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>{ id:'sort.list', href:'/detail/base/sortlist.html',funcname:'sort.list'},</t>
+          <t>{ id:'sort.list', href:'/detail/base/sort_list.html',funcname:'sort.list'},</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>sort.list</t>
+          <t>sort_list</t>
         </is>
       </c>
     </row>
@@ -17875,12 +17875,12 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>{ id:'sort.POSIXlt', href:'/detail/base/sortPOSIXlt.html',funcname:'sort.POSIXlt'},</t>
+          <t>{ id:'sort.POSIXlt', href:'/detail/base/sort_POSIXlt.html',funcname:'sort.POSIXlt'},</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>sort.POSIXlt</t>
+          <t>sort_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -17926,12 +17926,12 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>{ id:'split.data.frame', href:'/detail/base/splitdata.frame.html',funcname:'split.data.frame'},</t>
+          <t>{ id:'split.data.frame', href:'/detail/base/split_data_frame.html',funcname:'split.data.frame'},</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>split.data.frame</t>
+          <t>split_data_frame</t>
         </is>
       </c>
     </row>
@@ -17943,12 +17943,12 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>{ id:'split.Date', href:'/detail/base/splitDate.html',funcname:'split.Date'},</t>
+          <t>{ id:'split.Date', href:'/detail/base/split_Date.html',funcname:'split.Date'},</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>split.Date</t>
+          <t>split_Date</t>
         </is>
       </c>
     </row>
@@ -17960,12 +17960,12 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>{ id:'split.default', href:'/detail/base/splitdefault.html',funcname:'split.default'},</t>
+          <t>{ id:'split.default', href:'/detail/base/split_default.html',funcname:'split.default'},</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>split.default</t>
+          <t>split_default</t>
         </is>
       </c>
     </row>
@@ -17977,12 +17977,12 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>{ id:'split.POSIXct', href:'/detail/base/splitPOSIXct.html',funcname:'split.POSIXct'},</t>
+          <t>{ id:'split.POSIXct', href:'/detail/base/split_POSIXct.html',funcname:'split.POSIXct'},</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>split.POSIXct</t>
+          <t>split_POSIXct</t>
         </is>
       </c>
     </row>
@@ -18011,12 +18011,12 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>{ id:'split&lt;-.data.frame', href:'/detail/base/split_-data.frame.html',funcname:'split&lt;-.data.frame'},</t>
+          <t>{ id:'split&lt;-.data.frame', href:'/detail/base/split_-_data_frame.html',funcname:'split&lt;-.data.frame'},</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>split_-.data.frame</t>
+          <t>split_-_data_frame</t>
         </is>
       </c>
     </row>
@@ -18028,12 +18028,12 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>{ id:'split&lt;-.default', href:'/detail/base/split_-default.html',funcname:'split&lt;-.default'},</t>
+          <t>{ id:'split&lt;-.default', href:'/detail/base/split_-_default.html',funcname:'split&lt;-.default'},</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>split_-.default</t>
+          <t>split_-_default</t>
         </is>
       </c>
     </row>
@@ -18283,12 +18283,12 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>{ id:'storage.mode', href:'/detail/base/storagemode.html',funcname:'storage.mode'},</t>
+          <t>{ id:'storage.mode', href:'/detail/base/storage_mode.html',funcname:'storage.mode'},</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>storage.mode</t>
+          <t>storage_mode</t>
         </is>
       </c>
     </row>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>{ id:'storage.mode&lt;-', href:'/detail/base/storagemode_-.html',funcname:'storage.mode&lt;-'},</t>
+          <t>{ id:'storage.mode&lt;-', href:'/detail/base/storage_mode_-.html',funcname:'storage.mode&lt;-'},</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>storage.mode_-</t>
+          <t>storage_mode_-</t>
         </is>
       </c>
     </row>
@@ -18521,12 +18521,12 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>{ id:'subset.data.frame', href:'/detail/base/subsetdata.frame.html',funcname:'subset.data.frame'},</t>
+          <t>{ id:'subset.data.frame', href:'/detail/base/subset_data_frame.html',funcname:'subset.data.frame'},</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>subset.data.frame</t>
+          <t>subset_data_frame</t>
         </is>
       </c>
     </row>
@@ -18538,12 +18538,12 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>{ id:'subset.default', href:'/detail/base/subsetdefault.html',funcname:'subset.default'},</t>
+          <t>{ id:'subset.default', href:'/detail/base/subset_default.html',funcname:'subset.default'},</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>subset.default</t>
+          <t>subset_default</t>
         </is>
       </c>
     </row>
@@ -18555,12 +18555,12 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>{ id:'subset.matrix', href:'/detail/base/subsetmatrix.html',funcname:'subset.matrix'},</t>
+          <t>{ id:'subset.matrix', href:'/detail/base/subset_matrix.html',funcname:'subset.matrix'},</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>subset.matrix</t>
+          <t>subset_matrix</t>
         </is>
       </c>
     </row>
@@ -18691,12 +18691,12 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>{ id:'summary.connection', href:'/detail/base/summaryconnection.html',funcname:'summary.connection'},</t>
+          <t>{ id:'summary.connection', href:'/detail/base/summary_connection.html',funcname:'summary.connection'},</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>summary.connection</t>
+          <t>summary_connection</t>
         </is>
       </c>
     </row>
@@ -18708,12 +18708,12 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>{ id:'summary.data.frame', href:'/detail/base/summarydata.frame.html',funcname:'summary.data.frame'},</t>
+          <t>{ id:'summary.data.frame', href:'/detail/base/summary_data_frame.html',funcname:'summary.data.frame'},</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>summary.data.frame</t>
+          <t>summary_data_frame</t>
         </is>
       </c>
     </row>
@@ -18725,12 +18725,12 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>{ id:'Summary.data.frame', href:'/detail/base/Summarydata.frame.html',funcname:'Summary.data.frame'},</t>
+          <t>{ id:'Summary.data.frame', href:'/detail/base/Summary_data_frame.html',funcname:'Summary.data.frame'},</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Summary.data.frame</t>
+          <t>Summary_data_frame</t>
         </is>
       </c>
     </row>
@@ -18742,12 +18742,12 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>{ id:'summary.Date', href:'/detail/base/summaryDate.html',funcname:'summary.Date'},</t>
+          <t>{ id:'summary.Date', href:'/detail/base/summary_Date.html',funcname:'summary.Date'},</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>summary.Date</t>
+          <t>summary_Date</t>
         </is>
       </c>
     </row>
@@ -18759,12 +18759,12 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>{ id:'Summary.Date', href:'/detail/base/SummaryDate.html',funcname:'Summary.Date'},</t>
+          <t>{ id:'Summary.Date', href:'/detail/base/Summary_Date.html',funcname:'Summary.Date'},</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Summary.Date</t>
+          <t>Summary_Date</t>
         </is>
       </c>
     </row>
@@ -18776,12 +18776,12 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>{ id:'summary.default', href:'/detail/base/summarydefault.html',funcname:'summary.default'},</t>
+          <t>{ id:'summary.default', href:'/detail/base/summary_default.html',funcname:'summary.default'},</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>summary.default</t>
+          <t>summary_default</t>
         </is>
       </c>
     </row>
@@ -18793,12 +18793,12 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>{ id:'Summary.difftime', href:'/detail/base/Summarydifftime.html',funcname:'Summary.difftime'},</t>
+          <t>{ id:'Summary.difftime', href:'/detail/base/Summary_difftime.html',funcname:'Summary.difftime'},</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Summary.difftime</t>
+          <t>Summary_difftime</t>
         </is>
       </c>
     </row>
@@ -18810,12 +18810,12 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>{ id:'summary.factor', href:'/detail/base/summaryfactor.html',funcname:'summary.factor'},</t>
+          <t>{ id:'summary.factor', href:'/detail/base/summary_factor.html',funcname:'summary.factor'},</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>summary.factor</t>
+          <t>summary_factor</t>
         </is>
       </c>
     </row>
@@ -18827,12 +18827,12 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>{ id:'Summary.factor', href:'/detail/base/Summaryfactor.html',funcname:'Summary.factor'},</t>
+          <t>{ id:'Summary.factor', href:'/detail/base/Summary_factor.html',funcname:'Summary.factor'},</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Summary.factor</t>
+          <t>Summary_factor</t>
         </is>
       </c>
     </row>
@@ -18844,12 +18844,12 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>{ id:'summary.matrix', href:'/detail/base/summarymatrix.html',funcname:'summary.matrix'},</t>
+          <t>{ id:'summary.matrix', href:'/detail/base/summary_matrix.html',funcname:'summary.matrix'},</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>summary.matrix</t>
+          <t>summary_matrix</t>
         </is>
       </c>
     </row>
@@ -18861,12 +18861,12 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>{ id:'Summary.numeric_version', href:'/detail/base/Summarynumeric_version.html',funcname:'Summary.numeric_version'},</t>
+          <t>{ id:'Summary.numeric_version', href:'/detail/base/Summary_numeric_version.html',funcname:'Summary.numeric_version'},</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Summary.numeric_version</t>
+          <t>Summary_numeric_version</t>
         </is>
       </c>
     </row>
@@ -18878,12 +18878,12 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>{ id:'Summary.ordered', href:'/detail/base/Summaryordered.html',funcname:'Summary.ordered'},</t>
+          <t>{ id:'Summary.ordered', href:'/detail/base/Summary_ordered.html',funcname:'Summary.ordered'},</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Summary.ordered</t>
+          <t>Summary_ordered</t>
         </is>
       </c>
     </row>
@@ -18895,12 +18895,12 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>{ id:'summary.POSIXct', href:'/detail/base/summaryPOSIXct.html',funcname:'summary.POSIXct'},</t>
+          <t>{ id:'summary.POSIXct', href:'/detail/base/summary_POSIXct.html',funcname:'summary.POSIXct'},</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>summary.POSIXct</t>
+          <t>summary_POSIXct</t>
         </is>
       </c>
     </row>
@@ -18912,12 +18912,12 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>{ id:'Summary.POSIXct', href:'/detail/base/SummaryPOSIXct.html',funcname:'Summary.POSIXct'},</t>
+          <t>{ id:'Summary.POSIXct', href:'/detail/base/Summary_POSIXct.html',funcname:'Summary.POSIXct'},</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Summary.POSIXct</t>
+          <t>Summary_POSIXct</t>
         </is>
       </c>
     </row>
@@ -18929,12 +18929,12 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>{ id:'summary.POSIXlt', href:'/detail/base/summaryPOSIXlt.html',funcname:'summary.POSIXlt'},</t>
+          <t>{ id:'summary.POSIXlt', href:'/detail/base/summary_POSIXlt.html',funcname:'summary.POSIXlt'},</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>summary.POSIXlt</t>
+          <t>summary_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -18946,12 +18946,12 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>{ id:'Summary.POSIXlt', href:'/detail/base/SummaryPOSIXlt.html',funcname:'Summary.POSIXlt'},</t>
+          <t>{ id:'Summary.POSIXlt', href:'/detail/base/Summary_POSIXlt.html',funcname:'Summary.POSIXlt'},</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Summary.POSIXlt</t>
+          <t>Summary_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -18963,12 +18963,12 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>{ id:'summary.proc_time', href:'/detail/base/summaryproc_time.html',funcname:'summary.proc_time'},</t>
+          <t>{ id:'summary.proc_time', href:'/detail/base/summary_proc_time.html',funcname:'summary.proc_time'},</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>summary.proc_time</t>
+          <t>summary_proc_time</t>
         </is>
       </c>
     </row>
@@ -18980,12 +18980,12 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>{ id:'summary.srcfile', href:'/detail/base/summarysrcfile.html',funcname:'summary.srcfile'},</t>
+          <t>{ id:'summary.srcfile', href:'/detail/base/summary_srcfile.html',funcname:'summary.srcfile'},</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>summary.srcfile</t>
+          <t>summary_srcfile</t>
         </is>
       </c>
     </row>
@@ -18997,12 +18997,12 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>{ id:'summary.srcref', href:'/detail/base/summarysrcref.html',funcname:'summary.srcref'},</t>
+          <t>{ id:'summary.srcref', href:'/detail/base/summary_srcref.html',funcname:'summary.srcref'},</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>summary.srcref</t>
+          <t>summary_srcref</t>
         </is>
       </c>
     </row>
@@ -19014,12 +19014,12 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>{ id:'summary.table', href:'/detail/base/summarytable.html',funcname:'summary.table'},</t>
+          <t>{ id:'summary.table', href:'/detail/base/summary_table.html',funcname:'summary.table'},</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>summary.table</t>
+          <t>summary_table</t>
         </is>
       </c>
     </row>
@@ -19031,12 +19031,12 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>{ id:'summary.warnings', href:'/detail/base/summarywarnings.html',funcname:'summary.warnings'},</t>
+          <t>{ id:'summary.warnings', href:'/detail/base/summary_warnings.html',funcname:'summary.warnings'},</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>summary.warnings</t>
+          <t>summary_warnings</t>
         </is>
       </c>
     </row>
@@ -19167,12 +19167,12 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>{ id:'sys.call', href:'/detail/base/syscall.html',funcname:'sys.call'},</t>
+          <t>{ id:'sys.call', href:'/detail/base/sys_call.html',funcname:'sys.call'},</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>sys.call</t>
+          <t>sys_call</t>
         </is>
       </c>
     </row>
@@ -19184,12 +19184,12 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>{ id:'sys.calls', href:'/detail/base/syscalls.html',funcname:'sys.calls'},</t>
+          <t>{ id:'sys.calls', href:'/detail/base/sys_calls.html',funcname:'sys.calls'},</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>sys.calls</t>
+          <t>sys_calls</t>
         </is>
       </c>
     </row>
@@ -19201,12 +19201,12 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>{ id:'Sys.chmod', href:'/detail/base/Syschmod.html',funcname:'Sys.chmod'},</t>
+          <t>{ id:'Sys.chmod', href:'/detail/base/Sys_chmod.html',funcname:'Sys.chmod'},</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Sys.chmod</t>
+          <t>Sys_chmod</t>
         </is>
       </c>
     </row>
@@ -19218,12 +19218,12 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>{ id:'Sys.Date', href:'/detail/base/SysDate.html',funcname:'Sys.Date'},</t>
+          <t>{ id:'Sys.Date', href:'/detail/base/Sys_Date.html',funcname:'Sys.Date'},</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Sys.Date</t>
+          <t>Sys_Date</t>
         </is>
       </c>
     </row>
@@ -19235,12 +19235,12 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>{ id:'sys.frame', href:'/detail/base/sysframe.html',funcname:'sys.frame'},</t>
+          <t>{ id:'sys.frame', href:'/detail/base/sys_frame.html',funcname:'sys.frame'},</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>sys.frame</t>
+          <t>sys_frame</t>
         </is>
       </c>
     </row>
@@ -19252,12 +19252,12 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>{ id:'sys.frames', href:'/detail/base/sysframes.html',funcname:'sys.frames'},</t>
+          <t>{ id:'sys.frames', href:'/detail/base/sys_frames.html',funcname:'sys.frames'},</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>sys.frames</t>
+          <t>sys_frames</t>
         </is>
       </c>
     </row>
@@ -19269,12 +19269,12 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>{ id:'sys.function', href:'/detail/base/sysfunction.html',funcname:'sys.function'},</t>
+          <t>{ id:'sys.function', href:'/detail/base/sys_function.html',funcname:'sys.function'},</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>sys.function</t>
+          <t>sys_function</t>
         </is>
       </c>
     </row>
@@ -19286,12 +19286,12 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>{ id:'Sys.getenv', href:'/detail/base/Sysgetenv.html',funcname:'Sys.getenv'},</t>
+          <t>{ id:'Sys.getenv', href:'/detail/base/Sys_getenv.html',funcname:'Sys.getenv'},</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Sys.getenv</t>
+          <t>Sys_getenv</t>
         </is>
       </c>
     </row>
@@ -19303,12 +19303,12 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>{ id:'Sys.getlocale', href:'/detail/base/Sysgetlocale.html',funcname:'Sys.getlocale'},</t>
+          <t>{ id:'Sys.getlocale', href:'/detail/base/Sys_getlocale.html',funcname:'Sys.getlocale'},</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Sys.getlocale</t>
+          <t>Sys_getlocale</t>
         </is>
       </c>
     </row>
@@ -19320,12 +19320,12 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>{ id:'Sys.getpid', href:'/detail/base/Sysgetpid.html',funcname:'Sys.getpid'},</t>
+          <t>{ id:'Sys.getpid', href:'/detail/base/Sys_getpid.html',funcname:'Sys.getpid'},</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Sys.getpid</t>
+          <t>Sys_getpid</t>
         </is>
       </c>
     </row>
@@ -19337,12 +19337,12 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>{ id:'Sys.glob', href:'/detail/base/Sysglob.html',funcname:'Sys.glob'},</t>
+          <t>{ id:'Sys.glob', href:'/detail/base/Sys_glob.html',funcname:'Sys.glob'},</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Sys.glob</t>
+          <t>Sys_glob</t>
         </is>
       </c>
     </row>
@@ -19354,12 +19354,12 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>{ id:'Sys.info', href:'/detail/base/Sysinfo.html',funcname:'Sys.info'},</t>
+          <t>{ id:'Sys.info', href:'/detail/base/Sys_info.html',funcname:'Sys.info'},</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Sys.info</t>
+          <t>Sys_info</t>
         </is>
       </c>
     </row>
@@ -19371,12 +19371,12 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>{ id:'sys.load.image', href:'/detail/base/sysload.image.html',funcname:'sys.load.image'},</t>
+          <t>{ id:'sys.load.image', href:'/detail/base/sys_load_image.html',funcname:'sys.load.image'},</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>sys.load.image</t>
+          <t>sys_load_image</t>
         </is>
       </c>
     </row>
@@ -19388,12 +19388,12 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>{ id:'Sys.localeconv', href:'/detail/base/Syslocaleconv.html',funcname:'Sys.localeconv'},</t>
+          <t>{ id:'Sys.localeconv', href:'/detail/base/Sys_localeconv.html',funcname:'Sys.localeconv'},</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Sys.localeconv</t>
+          <t>Sys_localeconv</t>
         </is>
       </c>
     </row>
@@ -19405,12 +19405,12 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>{ id:'sys.nframe', href:'/detail/base/sysnframe.html',funcname:'sys.nframe'},</t>
+          <t>{ id:'sys.nframe', href:'/detail/base/sys_nframe.html',funcname:'sys.nframe'},</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>sys.nframe</t>
+          <t>sys_nframe</t>
         </is>
       </c>
     </row>
@@ -19422,12 +19422,12 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>{ id:'sys.on.exit', href:'/detail/base/syson.exit.html',funcname:'sys.on.exit'},</t>
+          <t>{ id:'sys.on.exit', href:'/detail/base/sys_on_exit.html',funcname:'sys.on.exit'},</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>sys.on.exit</t>
+          <t>sys_on_exit</t>
         </is>
       </c>
     </row>
@@ -19439,12 +19439,12 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>{ id:'sys.parent', href:'/detail/base/sysparent.html',funcname:'sys.parent'},</t>
+          <t>{ id:'sys.parent', href:'/detail/base/sys_parent.html',funcname:'sys.parent'},</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>sys.parent</t>
+          <t>sys_parent</t>
         </is>
       </c>
     </row>
@@ -19456,12 +19456,12 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>{ id:'sys.parents', href:'/detail/base/sysparents.html',funcname:'sys.parents'},</t>
+          <t>{ id:'sys.parents', href:'/detail/base/sys_parents.html',funcname:'sys.parents'},</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>sys.parents</t>
+          <t>sys_parents</t>
         </is>
       </c>
     </row>
@@ -19473,12 +19473,12 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>{ id:'Sys.readlink', href:'/detail/base/Sysreadlink.html',funcname:'Sys.readlink'},</t>
+          <t>{ id:'Sys.readlink', href:'/detail/base/Sys_readlink.html',funcname:'Sys.readlink'},</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Sys.readlink</t>
+          <t>Sys_readlink</t>
         </is>
       </c>
     </row>
@@ -19490,12 +19490,12 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>{ id:'sys.save.image', href:'/detail/base/syssave.image.html',funcname:'sys.save.image'},</t>
+          <t>{ id:'sys.save.image', href:'/detail/base/sys_save_image.html',funcname:'sys.save.image'},</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>sys.save.image</t>
+          <t>sys_save_image</t>
         </is>
       </c>
     </row>
@@ -19507,12 +19507,12 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>{ id:'Sys.setenv', href:'/detail/base/Syssetenv.html',funcname:'Sys.setenv'},</t>
+          <t>{ id:'Sys.setenv', href:'/detail/base/Sys_setenv.html',funcname:'Sys.setenv'},</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Sys.setenv</t>
+          <t>Sys_setenv</t>
         </is>
       </c>
     </row>
@@ -19524,12 +19524,12 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>{ id:'Sys.setFileTime', href:'/detail/base/SyssetFileTime.html',funcname:'Sys.setFileTime'},</t>
+          <t>{ id:'Sys.setFileTime', href:'/detail/base/Sys_setFileTime.html',funcname:'Sys.setFileTime'},</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Sys.setFileTime</t>
+          <t>Sys_setFileTime</t>
         </is>
       </c>
     </row>
@@ -19541,12 +19541,12 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>{ id:'Sys.setlocale', href:'/detail/base/Syssetlocale.html',funcname:'Sys.setlocale'},</t>
+          <t>{ id:'Sys.setlocale', href:'/detail/base/Sys_setlocale.html',funcname:'Sys.setlocale'},</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Sys.setlocale</t>
+          <t>Sys_setlocale</t>
         </is>
       </c>
     </row>
@@ -19558,12 +19558,12 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>{ id:'Sys.sleep', href:'/detail/base/Syssleep.html',funcname:'Sys.sleep'},</t>
+          <t>{ id:'Sys.sleep', href:'/detail/base/Sys_sleep.html',funcname:'Sys.sleep'},</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Sys.sleep</t>
+          <t>Sys_sleep</t>
         </is>
       </c>
     </row>
@@ -19575,12 +19575,12 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>{ id:'sys.source', href:'/detail/base/syssource.html',funcname:'sys.source'},</t>
+          <t>{ id:'sys.source', href:'/detail/base/sys_source.html',funcname:'sys.source'},</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>sys.source</t>
+          <t>sys_source</t>
         </is>
       </c>
     </row>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>{ id:'sys.status', href:'/detail/base/sysstatus.html',funcname:'sys.status'},</t>
+          <t>{ id:'sys.status', href:'/detail/base/sys_status.html',funcname:'sys.status'},</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>sys.status</t>
+          <t>sys_status</t>
         </is>
       </c>
     </row>
@@ -19609,12 +19609,12 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>{ id:'Sys.time', href:'/detail/base/Systime.html',funcname:'Sys.time'},</t>
+          <t>{ id:'Sys.time', href:'/detail/base/Sys_time.html',funcname:'Sys.time'},</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Sys.time</t>
+          <t>Sys_time</t>
         </is>
       </c>
     </row>
@@ -19626,12 +19626,12 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>{ id:'Sys.timezone', href:'/detail/base/Systimezone.html',funcname:'Sys.timezone'},</t>
+          <t>{ id:'Sys.timezone', href:'/detail/base/Sys_timezone.html',funcname:'Sys.timezone'},</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Sys.timezone</t>
+          <t>Sys_timezone</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>{ id:'Sys.umask', href:'/detail/base/Sysumask.html',funcname:'Sys.umask'},</t>
+          <t>{ id:'Sys.umask', href:'/detail/base/Sys_umask.html',funcname:'Sys.umask'},</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Sys.umask</t>
+          <t>Sys_umask</t>
         </is>
       </c>
     </row>
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>{ id:'Sys.unsetenv', href:'/detail/base/Sysunsetenv.html',funcname:'Sys.unsetenv'},</t>
+          <t>{ id:'Sys.unsetenv', href:'/detail/base/Sys_unsetenv.html',funcname:'Sys.unsetenv'},</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Sys.unsetenv</t>
+          <t>Sys_unsetenv</t>
         </is>
       </c>
     </row>
@@ -19677,12 +19677,12 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>{ id:'Sys.which', href:'/detail/base/Syswhich.html',funcname:'Sys.which'},</t>
+          <t>{ id:'Sys.which', href:'/detail/base/Sys_which.html',funcname:'Sys.which'},</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Sys.which</t>
+          <t>Sys_which</t>
         </is>
       </c>
     </row>
@@ -19711,12 +19711,12 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>{ id:'system.file', href:'/detail/base/systemfile.html',funcname:'system.file'},</t>
+          <t>{ id:'system.file', href:'/detail/base/system_file.html',funcname:'system.file'},</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>system.file</t>
+          <t>system_file</t>
         </is>
       </c>
     </row>
@@ -19728,12 +19728,12 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>{ id:'system.time', href:'/detail/base/systemtime.html',funcname:'system.time'},</t>
+          <t>{ id:'system.time', href:'/detail/base/system_time.html',funcname:'system.time'},</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>system.time</t>
+          <t>system_time</t>
         </is>
       </c>
     </row>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>{ id:'t.data.frame', href:'/detail/base/tdata.frame.html',funcname:'t.data.frame'},</t>
+          <t>{ id:'t.data.frame', href:'/detail/base/t_data_frame.html',funcname:'t.data.frame'},</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>t.data.frame</t>
+          <t>t_data_frame</t>
         </is>
       </c>
     </row>
@@ -19813,12 +19813,12 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>{ id:'t.default', href:'/detail/base/tdefault.html',funcname:'t.default'},</t>
+          <t>{ id:'t.default', href:'/detail/base/t_default.html',funcname:'t.default'},</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>t.default</t>
+          <t>t_default</t>
         </is>
       </c>
     </row>
@@ -20085,12 +20085,12 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>{ id:'toString.default', href:'/detail/base/toStringdefault.html',funcname:'toString.default'},</t>
+          <t>{ id:'toString.default', href:'/detail/base/toString_default.html',funcname:'toString.default'},</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>toString.default</t>
+          <t>toString_default</t>
         </is>
       </c>
     </row>
@@ -20204,12 +20204,12 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>{ id:'transform.data.frame', href:'/detail/base/transformdata.frame.html',funcname:'transform.data.frame'},</t>
+          <t>{ id:'transform.data.frame', href:'/detail/base/transform_data_frame.html',funcname:'transform.data.frame'},</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>transform.data.frame</t>
+          <t>transform_data_frame</t>
         </is>
       </c>
     </row>
@@ -20221,12 +20221,12 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>{ id:'transform.default', href:'/detail/base/transformdefault.html',funcname:'transform.default'},</t>
+          <t>{ id:'transform.default', href:'/detail/base/transform_default.html',funcname:'transform.default'},</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>transform.default</t>
+          <t>transform_default</t>
         </is>
       </c>
     </row>
@@ -20289,12 +20289,12 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>{ id:'trunc.Date', href:'/detail/base/truncDate.html',funcname:'trunc.Date'},</t>
+          <t>{ id:'trunc.Date', href:'/detail/base/trunc_Date.html',funcname:'trunc.Date'},</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>trunc.Date</t>
+          <t>trunc_Date</t>
         </is>
       </c>
     </row>
@@ -20306,12 +20306,12 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>{ id:'trunc.POSIXt', href:'/detail/base/truncPOSIXt.html',funcname:'trunc.POSIXt'},</t>
+          <t>{ id:'trunc.POSIXt', href:'/detail/base/trunc_POSIXt.html',funcname:'trunc.POSIXt'},</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>trunc.POSIXt</t>
+          <t>trunc_POSIXt</t>
         </is>
       </c>
     </row>
@@ -20340,12 +20340,12 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>{ id:'truncate.connection', href:'/detail/base/truncateconnection.html',funcname:'truncate.connection'},</t>
+          <t>{ id:'truncate.connection', href:'/detail/base/truncate_connection.html',funcname:'truncate.connection'},</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>truncate.connection</t>
+          <t>truncate_connection</t>
         </is>
       </c>
     </row>
@@ -20493,12 +20493,12 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>{ id:'unique.array', href:'/detail/base/uniquearray.html',funcname:'unique.array'},</t>
+          <t>{ id:'unique.array', href:'/detail/base/unique_array.html',funcname:'unique.array'},</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>unique.array</t>
+          <t>unique_array</t>
         </is>
       </c>
     </row>
@@ -20510,12 +20510,12 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>{ id:'unique.data.frame', href:'/detail/base/uniquedata.frame.html',funcname:'unique.data.frame'},</t>
+          <t>{ id:'unique.data.frame', href:'/detail/base/unique_data_frame.html',funcname:'unique.data.frame'},</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>unique.data.frame</t>
+          <t>unique_data_frame</t>
         </is>
       </c>
     </row>
@@ -20527,12 +20527,12 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>{ id:'unique.default', href:'/detail/base/uniquedefault.html',funcname:'unique.default'},</t>
+          <t>{ id:'unique.default', href:'/detail/base/unique_default.html',funcname:'unique.default'},</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>unique.default</t>
+          <t>unique_default</t>
         </is>
       </c>
     </row>
@@ -20544,12 +20544,12 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>{ id:'unique.matrix', href:'/detail/base/uniquematrix.html',funcname:'unique.matrix'},</t>
+          <t>{ id:'unique.matrix', href:'/detail/base/unique_matrix.html',funcname:'unique.matrix'},</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>unique.matrix</t>
+          <t>unique_matrix</t>
         </is>
       </c>
     </row>
@@ -20561,12 +20561,12 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>{ id:'unique.numeric_version', href:'/detail/base/uniquenumeric_version.html',funcname:'unique.numeric_version'},</t>
+          <t>{ id:'unique.numeric_version', href:'/detail/base/unique_numeric_version.html',funcname:'unique.numeric_version'},</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>unique.numeric_version</t>
+          <t>unique_numeric_version</t>
         </is>
       </c>
     </row>
@@ -20578,12 +20578,12 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>{ id:'unique.POSIXlt', href:'/detail/base/uniquePOSIXlt.html',funcname:'unique.POSIXlt'},</t>
+          <t>{ id:'unique.POSIXlt', href:'/detail/base/unique_POSIXlt.html',funcname:'unique.POSIXlt'},</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>unique.POSIXlt</t>
+          <t>unique_POSIXlt</t>
         </is>
       </c>
     </row>
@@ -20595,12 +20595,12 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>{ id:'unique.warnings', href:'/detail/base/uniquewarnings.html',funcname:'unique.warnings'},</t>
+          <t>{ id:'unique.warnings', href:'/detail/base/unique_warnings.html',funcname:'unique.warnings'},</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>unique.warnings</t>
+          <t>unique_warnings</t>
         </is>
       </c>
     </row>
@@ -20629,12 +20629,12 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>{ id:'units.difftime', href:'/detail/base/unitsdifftime.html',funcname:'units.difftime'},</t>
+          <t>{ id:'units.difftime', href:'/detail/base/units_difftime.html',funcname:'units.difftime'},</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>units.difftime</t>
+          <t>units_difftime</t>
         </is>
       </c>
     </row>
@@ -20663,12 +20663,12 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>{ id:'units&lt;-.difftime', href:'/detail/base/units_-difftime.html',funcname:'units&lt;-.difftime'},</t>
+          <t>{ id:'units&lt;-.difftime', href:'/detail/base/units_-_difftime.html',funcname:'units&lt;-.difftime'},</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>units_-.difftime</t>
+          <t>units_-_difftime</t>
         </is>
       </c>
     </row>
@@ -20680,12 +20680,12 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>{ id:'unix.time', href:'/detail/base/unixtime.html',funcname:'unix.time'},</t>
+          <t>{ id:'unix.time', href:'/detail/base/unix_time.html',funcname:'unix.time'},</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>unix.time</t>
+          <t>unix_time</t>
         </is>
       </c>
     </row>
@@ -20867,12 +20867,12 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>{ id:'upper.tri', href:'/detail/base/uppertri.html',funcname:'upper.tri'},</t>
+          <t>{ id:'upper.tri', href:'/detail/base/upper_tri.html',funcname:'upper.tri'},</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>upper.tri</t>
+          <t>upper_tri</t>
         </is>
       </c>
     </row>
@@ -21105,12 +21105,12 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>{ id:'weekdays.Date', href:'/detail/base/weekdaysDate.html',funcname:'weekdays.Date'},</t>
+          <t>{ id:'weekdays.Date', href:'/detail/base/weekdays_Date.html',funcname:'weekdays.Date'},</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>weekdays.Date</t>
+          <t>weekdays_Date</t>
         </is>
       </c>
     </row>
@@ -21122,12 +21122,12 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>{ id:'weekdays.POSIXt', href:'/detail/base/weekdaysPOSIXt.html',funcname:'weekdays.POSIXt'},</t>
+          <t>{ id:'weekdays.POSIXt', href:'/detail/base/weekdays_POSIXt.html',funcname:'weekdays.POSIXt'},</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>weekdays.POSIXt</t>
+          <t>weekdays_POSIXt</t>
         </is>
       </c>
     </row>
@@ -21156,12 +21156,12 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>{ id:'which.max', href:'/detail/base/whichmax.html',funcname:'which.max'},</t>
+          <t>{ id:'which.max', href:'/detail/base/which_max.html',funcname:'which.max'},</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>which.max</t>
+          <t>which_max</t>
         </is>
       </c>
     </row>
@@ -21173,12 +21173,12 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>{ id:'which.min', href:'/detail/base/whichmin.html',funcname:'which.min'},</t>
+          <t>{ id:'which.min', href:'/detail/base/which_min.html',funcname:'which.min'},</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>which.min</t>
+          <t>which_min</t>
         </is>
       </c>
     </row>
@@ -21224,12 +21224,12 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>{ id:'with.default', href:'/detail/base/withdefault.html',funcname:'with.default'},</t>
+          <t>{ id:'with.default', href:'/detail/base/with_default.html',funcname:'with.default'},</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>with.default</t>
+          <t>with_default</t>
         </is>
       </c>
     </row>
@@ -21292,12 +21292,12 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>{ id:'within.data.frame', href:'/detail/base/withindata.frame.html',funcname:'within.data.frame'},</t>
+          <t>{ id:'within.data.frame', href:'/detail/base/within_data_frame.html',funcname:'within.data.frame'},</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>within.data.frame</t>
+          <t>within_data_frame</t>
         </is>
       </c>
     </row>
@@ -21309,12 +21309,12 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>{ id:'within.list', href:'/detail/base/withinlist.html',funcname:'within.list'},</t>
+          <t>{ id:'within.list', href:'/detail/base/within_list.html',funcname:'within.list'},</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>within.list</t>
+          <t>within_list</t>
         </is>
       </c>
     </row>
@@ -21377,12 +21377,12 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>{ id:'write.dcf', href:'/detail/base/writedcf.html',funcname:'write.dcf'},</t>
+          <t>{ id:'write.dcf', href:'/detail/base/write_dcf.html',funcname:'write.dcf'},</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>write.dcf</t>
+          <t>write_dcf</t>
         </is>
       </c>
     </row>
@@ -21462,12 +21462,12 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>{ id:'xpdrows.data.frame', href:'/detail/base/xpdrowsdata.frame.html',funcname:'xpdrows.data.frame'},</t>
+          <t>{ id:'xpdrows.data.frame', href:'/detail/base/xpdrows_data_frame.html',funcname:'xpdrows.data.frame'},</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>xpdrows.data.frame</t>
+          <t>xpdrows_data_frame</t>
         </is>
       </c>
     </row>
@@ -21496,12 +21496,12 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.AsIs', href:'/detail/base/xtfrmAsIs.html',funcname:'xtfrm.AsIs'},</t>
+          <t>{ id:'xtfrm.AsIs', href:'/detail/base/xtfrm_AsIs.html',funcname:'xtfrm.AsIs'},</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>xtfrm.AsIs</t>
+          <t>xtfrm_AsIs</t>
         </is>
       </c>
     </row>
@@ -21513,12 +21513,12 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.data.frame', href:'/detail/base/xtfrmdata.frame.html',funcname:'xtfrm.data.frame'},</t>
+          <t>{ id:'xtfrm.data.frame', href:'/detail/base/xtfrm_data_frame.html',funcname:'xtfrm.data.frame'},</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>xtfrm.data.frame</t>
+          <t>xtfrm_data_frame</t>
         </is>
       </c>
     </row>
@@ -21530,12 +21530,12 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.Date', href:'/detail/base/xtfrmDate.html',funcname:'xtfrm.Date'},</t>
+          <t>{ id:'xtfrm.Date', href:'/detail/base/xtfrm_Date.html',funcname:'xtfrm.Date'},</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>xtfrm.Date</t>
+          <t>xtfrm_Date</t>
         </is>
       </c>
     </row>
@@ -21547,12 +21547,12 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.default', href:'/detail/base/xtfrmdefault.html',funcname:'xtfrm.default'},</t>
+          <t>{ id:'xtfrm.default', href:'/detail/base/xtfrm_default.html',funcname:'xtfrm.default'},</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>xtfrm.default</t>
+          <t>xtfrm_default</t>
         </is>
       </c>
     </row>
@@ -21564,12 +21564,12 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.difftime', href:'/detail/base/xtfrmdifftime.html',funcname:'xtfrm.difftime'},</t>
+          <t>{ id:'xtfrm.difftime', href:'/detail/base/xtfrm_difftime.html',funcname:'xtfrm.difftime'},</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>xtfrm.difftime</t>
+          <t>xtfrm_difftime</t>
         </is>
       </c>
     </row>
@@ -21581,12 +21581,12 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.factor', href:'/detail/base/xtfrmfactor.html',funcname:'xtfrm.factor'},</t>
+          <t>{ id:'xtfrm.factor', href:'/detail/base/xtfrm_factor.html',funcname:'xtfrm.factor'},</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>xtfrm.factor</t>
+          <t>xtfrm_factor</t>
         </is>
       </c>
     </row>
@@ -21598,12 +21598,12 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.numeric_version', href:'/detail/base/xtfrmnumeric_version.html',funcname:'xtfrm.numeric_version'},</t>
+          <t>{ id:'xtfrm.numeric_version', href:'/detail/base/xtfrm_numeric_version.html',funcname:'xtfrm.numeric_version'},</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>xtfrm.numeric_version</t>
+          <t>xtfrm_numeric_version</t>
         </is>
       </c>
     </row>
@@ -21615,12 +21615,12 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.POSIXct', href:'/detail/base/xtfrmPOSIXct.html',funcname:'xtfrm.POSIXct'},</t>
+          <t>{ id:'xtfrm.POSIXct', href:'/detail/base/xtfrm_POSIXct.html',funcname:'xtfrm.POSIXct'},</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>xtfrm.POSIXct</t>
+          <t>xtfrm_POSIXct</t>
         </is>
       </c>
     </row>
@@ -21632,12 +21632,12 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>{ id:'xtfrm.POSIXlt', href:'/detail/base/xtfrmPOSIXlt.html',funcname:'xtfrm.POSIXlt'},</t>
+          <t>{ id:'xtfrm.POSIXlt', href:'/detail/base/xtfrm_POSIXlt.html',funcname:'xtfrm.POSIXlt'},</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>xtfrm.POSIXlt</t>
+          <t>xtfrm_POSIXlt</t>
         </is>
       </c>
     </row>

--- a/deletefuture/librarylist.xlsx
+++ b/deletefuture/librarylist.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,1479 +377,8228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{ id:'abline', href:'/detail/base/abline.html',funcname:'abline'},</t>
+          <t>{ id:'%+%', href:'/detail/psych/symbol4+symbol4.html',funcname:'%+%'},</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abline</t>
+          <t>symbol4+symbol4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{ id:'arrows', href:'/detail/base/arrows.html',funcname:'arrows'},</t>
+          <t>{ id:'acs', href:'/detail/psych/acs.html',funcname:'acs'},</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>arrows</t>
+          <t>acs</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{ id:'assocplot', href:'/detail/base/assocplot.html',funcname:'assocplot'},</t>
+          <t>{ id:'alpha', href:'/detail/psych/alpha.html',funcname:'alpha'},</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>assocplot</t>
+          <t>alpha</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{ id:'axis', href:'/detail/base/axis.html',funcname:'axis'},</t>
+          <t>{ id:'alpha.ci', href:'/detail/psych/alphasymbol11ci.html',funcname:'alpha.ci'},</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>axis</t>
+          <t>alphasymbol11ci</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{ id:'Axis', href:'/detail/base/Axis.html',funcname:'Axis'},</t>
+          <t>{ id:'anova.psych', href:'/detail/psych/anovasymbol11psych.html',funcname:'anova.psych'},</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Axis</t>
+          <t>anovasymbol11psych</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{ id:'axis.Date', href:'/detail/base/axissymbol11Date.html',funcname:'axis.Date'},</t>
+          <t>{ id:'AUC', href:'/detail/psych/AUC.html',funcname:'AUC'},</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>axissymbol11Date</t>
+          <t>AUC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{ id:'axis.POSIXct', href:'/detail/base/axissymbol11POSIXct.html',funcname:'axis.POSIXct'},</t>
+          <t>{ id:'autoR', href:'/detail/psych/autoR.html',funcname:'autoR'},</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>axissymbol11POSIXct</t>
+          <t>autoR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{ id:'axTicks', href:'/detail/base/axTicks.html',funcname:'axTicks'},</t>
+          <t>{ id:'bassAckward', href:'/detail/psych/bassAckward.html',funcname:'bassAckward'},</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>axTicks</t>
+          <t>bassAckward</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{ id:'barplot', href:'/detail/base/barplot.html',funcname:'barplot'},</t>
+          <t>{ id:'bassAckward.diagram', href:'/detail/psych/bassAckwardsymbol11diagram.html',funcname:'bassAckward.diagram'},</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>barplot</t>
+          <t>bassAckwardsymbol11diagram</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{ id:'barplot.default', href:'/detail/base/barplotsymbol11default.html',funcname:'barplot.default'},</t>
+          <t>{ id:'Bechtoldt', href:'/detail/psych/Bechtoldt.html',funcname:'Bechtoldt'},</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>barplotsymbol11default</t>
+          <t>Bechtoldt</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{ id:'box', href:'/detail/base/box.html',funcname:'box'},</t>
+          <t>{ id:'Bechtoldt.1', href:'/detail/psych/Bechtoldtsymbol111.html',funcname:'Bechtoldt.1'},</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>box</t>
+          <t>Bechtoldtsymbol111</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{ id:'boxplot', href:'/detail/base/boxplot.html',funcname:'boxplot'},</t>
+          <t>{ id:'Bechtoldt.2', href:'/detail/psych/Bechtoldtsymbol112.html',funcname:'Bechtoldt.2'},</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>boxplot</t>
+          <t>Bechtoldtsymbol112</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{ id:'boxplot.default', href:'/detail/base/boxplotsymbol11default.html',funcname:'boxplot.default'},</t>
+          <t>{ id:'bestItems', href:'/detail/psych/bestItems.html',funcname:'bestItems'},</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>boxplotsymbol11default</t>
+          <t>bestItems</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{ id:'boxplot.matrix', href:'/detail/base/boxplotsymbol11matrix.html',funcname:'boxplot.matrix'},</t>
+          <t>{ id:'bestScales', href:'/detail/psych/bestScales.html',funcname:'bestScales'},</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>boxplotsymbol11matrix</t>
+          <t>bestScales</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{ id:'bxp', href:'/detail/base/bxp.html',funcname:'bxp'},</t>
+          <t>{ id:'bfi', href:'/detail/psych/bfi.html',funcname:'bfi'},</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>bxp</t>
+          <t>bfi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{ id:'cdplot', href:'/detail/base/cdplot.html',funcname:'cdplot'},</t>
+          <t>{ id:'bfi.keys', href:'/detail/psych/bfisymbol11keys.html',funcname:'bfi.keys'},</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cdplot</t>
+          <t>bfisymbol11keys</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{ id:'clip', href:'/detail/base/clip.html',funcname:'clip'},</t>
+          <t>{ id:'bi.bars', href:'/detail/psych/bisymbol11bars.html',funcname:'bi.bars'},</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>clip</t>
+          <t>bisymbol11bars</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{ id:'close.screen', href:'/detail/base/closesymbol11screen.html',funcname:'close.screen'},</t>
+          <t>{ id:'bifactor', href:'/detail/psych/bifactor.html',funcname:'bifactor'},</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>closesymbol11screen</t>
+          <t>bifactor</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{ id:'co.intervals', href:'/detail/base/cosymbol11intervals.html',funcname:'co.intervals'},</t>
+          <t>{ id:'bigCor', href:'/detail/psych/bigCor.html',funcname:'bigCor'},</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cosymbol11intervals</t>
+          <t>bigCor</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{ id:'contour', href:'/detail/base/contour.html',funcname:'contour'},</t>
+          <t>{ id:'biplot.psych', href:'/detail/psych/biplotsymbol11psych.html',funcname:'biplot.psych'},</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contour</t>
+          <t>biplotsymbol11psych</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{ id:'contour.default', href:'/detail/base/contoursymbol11default.html',funcname:'contour.default'},</t>
+          <t>{ id:'biquartimin', href:'/detail/psych/biquartimin.html',funcname:'biquartimin'},</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contoursymbol11default</t>
+          <t>biquartimin</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{ id:'coplot', href:'/detail/base/coplot.html',funcname:'coplot'},</t>
+          <t>{ id:'biserial', href:'/detail/psych/biserial.html',funcname:'biserial'},</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>coplot</t>
+          <t>biserial</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{ id:'curve', href:'/detail/base/curve.html',funcname:'curve'},</t>
+          <t>{ id:'block.random', href:'/detail/psych/blocksymbol11random.html',funcname:'block.random'},</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>curve</t>
+          <t>blocksymbol11random</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{ id:'dotchart', href:'/detail/base/dotchart.html',funcname:'dotchart'},</t>
+          <t>{ id:'bock.table', href:'/detail/psych/bocksymbol11table.html',funcname:'bock.table'},</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dotchart</t>
+          <t>bocksymbol11table</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{ id:'erase.screen', href:'/detail/base/erasesymbol11screen.html',funcname:'erase.screen'},</t>
+          <t>{ id:'cattell', href:'/detail/psych/cattell.html',funcname:'cattell'},</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>erasesymbol11screen</t>
+          <t>cattell</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{ id:'filled.contour', href:'/detail/base/filledsymbol11contour.html',funcname:'filled.contour'},</t>
+          <t>{ id:'char2numeric', href:'/detail/psych/char2numeric.html',funcname:'char2numeric'},</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>filledsymbol11contour</t>
+          <t>char2numeric</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{ id:'fourfoldplot', href:'/detail/base/fourfoldplot.html',funcname:'fourfoldplot'},</t>
+          <t>{ id:'Chen', href:'/detail/psych/Chen.html',funcname:'Chen'},</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fourfoldplot</t>
+          <t>Chen</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{ id:'frame', href:'/detail/base/frame.html',funcname:'frame'},</t>
+          <t>{ id:'chi2r', href:'/detail/psych/chi2r.html',funcname:'chi2r'},</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>frame</t>
+          <t>chi2r</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{ id:'grconvertX', href:'/detail/base/grconvertX.html',funcname:'grconvertX'},</t>
+          <t>{ id:'circ.sim', href:'/detail/psych/circsymbol11sim.html',funcname:'circ.sim'},</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>grconvertX</t>
+          <t>circsymbol11sim</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{ id:'grconvertY', href:'/detail/base/grconvertY.html',funcname:'grconvertY'},</t>
+          <t>{ id:'circ.sim.plot', href:'/detail/psych/circsymbol11simsymbol11plot.html',funcname:'circ.sim.plot'},</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>grconvertY</t>
+          <t>circsymbol11simsymbol11plot</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{ id:'grid', href:'/detail/base/grid.html',funcname:'grid'},</t>
+          <t>{ id:'circ.simulation', href:'/detail/psych/circsymbol11simulation.html',funcname:'circ.simulation'},</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>grid</t>
+          <t>circsymbol11simulation</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{ id:'hist', href:'/detail/base/hist.html',funcname:'hist'},</t>
+          <t>{ id:'circ.tests', href:'/detail/psych/circsymbol11tests.html',funcname:'circ.tests'},</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>hist</t>
+          <t>circsymbol11tests</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{ id:'hist.default', href:'/detail/base/histsymbol11default.html',funcname:'hist.default'},</t>
+          <t>{ id:'circadian.cor', href:'/detail/psych/circadiansymbol11cor.html',funcname:'circadian.cor'},</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>histsymbol11default</t>
+          <t>circadiansymbol11cor</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{ id:'identify', href:'/detail/base/identify.html',funcname:'identify'},</t>
+          <t>{ id:'circadian.F', href:'/detail/psych/circadiansymbol11F.html',funcname:'circadian.F'},</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>circadiansymbol11F</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{ id:'image', href:'/detail/base/image.html',funcname:'image'},</t>
+          <t>{ id:'circadian.linear.cor', href:'/detail/psych/circadiansymbol11linearsymbol11cor.html',funcname:'circadian.linear.cor'},</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>circadiansymbol11linearsymbol11cor</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{ id:'image.default', href:'/detail/base/imagesymbol11default.html',funcname:'image.default'},</t>
+          <t>{ id:'circadian.mean', href:'/detail/psych/circadiansymbol11mean.html',funcname:'circadian.mean'},</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>imagesymbol11default</t>
+          <t>circadiansymbol11mean</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{ id:'layout', href:'/detail/base/layout.html',funcname:'layout'},</t>
+          <t>{ id:'circadian.phase', href:'/detail/psych/circadiansymbol11phase.html',funcname:'circadian.phase'},</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>layout</t>
+          <t>circadiansymbol11phase</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{ id:'layout.show', href:'/detail/base/layoutsymbol11show.html',funcname:'layout.show'},</t>
+          <t>{ id:'circadian.reliability', href:'/detail/psych/circadiansymbol11reliability.html',funcname:'circadian.reliability'},</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>layoutsymbol11show</t>
+          <t>circadiansymbol11reliability</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{ id:'lcm', href:'/detail/base/lcm.html',funcname:'lcm'},</t>
+          <t>{ id:'circadian.sd', href:'/detail/psych/circadiansymbol11sd.html',funcname:'circadian.sd'},</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lcm</t>
+          <t>circadiansymbol11sd</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{ id:'legend', href:'/detail/base/legend.html',funcname:'legend'},</t>
+          <t>{ id:'circadian.stats', href:'/detail/psych/circadiansymbol11stats.html',funcname:'circadian.stats'},</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>legend</t>
+          <t>circadiansymbol11stats</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{ id:'lines', href:'/detail/base/lines.html',funcname:'lines'},</t>
+          <t>{ id:'circular.cor', href:'/detail/psych/circularsymbol11cor.html',funcname:'circular.cor'},</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>lines</t>
+          <t>circularsymbol11cor</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{ id:'lines.default', href:'/detail/base/linessymbol11default.html',funcname:'lines.default'},</t>
+          <t>{ id:'circular.mean', href:'/detail/psych/circularsymbol11mean.html',funcname:'circular.mean'},</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>linessymbol11default</t>
+          <t>circularsymbol11mean</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{ id:'locator', href:'/detail/base/locator.html',funcname:'locator'},</t>
+          <t>{ id:'cluster.cor', href:'/detail/psych/clustersymbol11cor.html',funcname:'cluster.cor'},</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>locator</t>
+          <t>clustersymbol11cor</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{ id:'matlines', href:'/detail/base/matlines.html',funcname:'matlines'},</t>
+          <t>{ id:'cluster.fit', href:'/detail/psych/clustersymbol11fit.html',funcname:'cluster.fit'},</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>matlines</t>
+          <t>clustersymbol11fit</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{ id:'matplot', href:'/detail/base/matplot.html',funcname:'matplot'},</t>
+          <t>{ id:'cluster.loadings', href:'/detail/psych/clustersymbol11loadings.html',funcname:'cluster.loadings'},</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>matplot</t>
+          <t>clustersymbol11loadings</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{ id:'matpoints', href:'/detail/base/matpoints.html',funcname:'matpoints'},</t>
+          <t>{ id:'cluster.plot', href:'/detail/psych/clustersymbol11plot.html',funcname:'cluster.plot'},</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>matpoints</t>
+          <t>clustersymbol11plot</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{ id:'mosaicplot', href:'/detail/base/mosaicplot.html',funcname:'mosaicplot'},</t>
+          <t>{ id:'cluster2keys', href:'/detail/psych/cluster2keys.html',funcname:'cluster2keys'},</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>mosaicplot</t>
+          <t>cluster2keys</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{ id:'mtext', href:'/detail/base/mtext.html',funcname:'mtext'},</t>
+          <t>{ id:'cohen.d', href:'/detail/psych/cohensymbol11d.html',funcname:'cohen.d'},</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>mtext</t>
+          <t>cohensymbol11d</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{ id:'pairs', href:'/detail/base/pairs.html',funcname:'pairs'},</t>
+          <t>{ id:'cohen.d.by', href:'/detail/psych/cohensymbol11dsymbol11by.html',funcname:'cohen.d.by'},</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pairs</t>
+          <t>cohensymbol11dsymbol11by</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{ id:'pairs.default', href:'/detail/base/pairssymbol11default.html',funcname:'pairs.default'},</t>
+          <t>{ id:'cohen.d.ci', href:'/detail/psych/cohensymbol11dsymbol11ci.html',funcname:'cohen.d.ci'},</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pairssymbol11default</t>
+          <t>cohensymbol11dsymbol11ci</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{ id:'panel.smooth', href:'/detail/base/panelsymbol11smooth.html',funcname:'panel.smooth'},</t>
+          <t>{ id:'cohen.kappa', href:'/detail/psych/cohensymbol11kappa.html',funcname:'cohen.kappa'},</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>panelsymbol11smooth</t>
+          <t>cohensymbol11kappa</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{ id:'par', href:'/detail/base/par.html',funcname:'par'},</t>
+          <t>{ id:'cohen.profile', href:'/detail/psych/cohensymbol11profile.html',funcname:'cohen.profile'},</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>par</t>
+          <t>cohensymbol11profile</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{ id:'persp', href:'/detail/base/persp.html',funcname:'persp'},</t>
+          <t>{ id:'comorbidity', href:'/detail/psych/comorbidity.html',funcname:'comorbidity'},</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>persp</t>
+          <t>comorbidity</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{ id:'pie', href:'/detail/base/pie.html',funcname:'pie'},</t>
+          <t>{ id:'con2cat', href:'/detail/psych/con2cat.html',funcname:'con2cat'},</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>pie</t>
+          <t>con2cat</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{ id:'plot', href:'/detail/base/plot.html',funcname:'plot'},</t>
+          <t>{ id:'congeneric.sim', href:'/detail/psych/congenericsymbol11sim.html',funcname:'congeneric.sim'},</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>congenericsymbol11sim</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{ id:'plot.default', href:'/detail/base/plotsymbol11default.html',funcname:'plot.default'},</t>
+          <t>{ id:'congruence', href:'/detail/psych/congruence.html',funcname:'congruence'},</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>plotsymbol11default</t>
+          <t>congruence</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{ id:'plot.design', href:'/detail/base/plotsymbol11design.html',funcname:'plot.design'},</t>
+          <t>{ id:'cor.ci', href:'/detail/psych/corsymbol11ci.html',funcname:'cor.ci'},</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>plotsymbol11design</t>
+          <t>corsymbol11ci</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{ id:'plot.function', href:'/detail/base/plotsymbol11function.html',funcname:'plot.function'},</t>
+          <t>{ id:'cor.plot', href:'/detail/psych/corsymbol11plot.html',funcname:'cor.plot'},</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>plotsymbol11function</t>
+          <t>corsymbol11plot</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{ id:'plot.new', href:'/detail/base/plotsymbol11new.html',funcname:'plot.new'},</t>
+          <t>{ id:'cor.plot.upperLowerCi', href:'/detail/psych/corsymbol11plotsymbol11upperLowerCi.html',funcname:'cor.plot.upperLowerCi'},</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>plotsymbol11new</t>
+          <t>corsymbol11plotsymbol11upperLowerCi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{ id:'plot.window', href:'/detail/base/plotsymbol11window.html',funcname:'plot.window'},</t>
+          <t>{ id:'cor.smooth', href:'/detail/psych/corsymbol11smooth.html',funcname:'cor.smooth'},</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>plotsymbol11window</t>
+          <t>corsymbol11smooth</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{ id:'plot.xy', href:'/detail/base/plotsymbol11xy.html',funcname:'plot.xy'},</t>
+          <t>{ id:'cor.smoother', href:'/detail/psych/corsymbol11smoother.html',funcname:'cor.smoother'},</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>plotsymbol11xy</t>
+          <t>corsymbol11smoother</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{ id:'points', href:'/detail/base/points.html',funcname:'points'},</t>
+          <t>{ id:'cor.wt', href:'/detail/psych/corsymbol11wt.html',funcname:'cor.wt'},</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>points</t>
+          <t>corsymbol11wt</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{ id:'points.default', href:'/detail/base/pointssymbol11default.html',funcname:'points.default'},</t>
+          <t>{ id:'cor2', href:'/detail/psych/cor2.html',funcname:'cor2'},</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>pointssymbol11default</t>
+          <t>cor2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{ id:'polygon', href:'/detail/base/polygon.html',funcname:'polygon'},</t>
+          <t>{ id:'cor2cov', href:'/detail/psych/cor2cov.html',funcname:'cor2cov'},</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>polygon</t>
+          <t>cor2cov</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{ id:'polypath', href:'/detail/base/polypath.html',funcname:'polypath'},</t>
+          <t>{ id:'cor2dist', href:'/detail/psych/cor2dist.html',funcname:'cor2dist'},</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>polypath</t>
+          <t>cor2dist</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{ id:'rasterImage', href:'/detail/base/rasterImage.html',funcname:'rasterImage'},</t>
+          <t>{ id:'corCi', href:'/detail/psych/corCi.html',funcname:'corCi'},</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>rasterImage</t>
+          <t>corCi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{ id:'rect', href:'/detail/base/rect.html',funcname:'rect'},</t>
+          <t>{ id:'corFiml', href:'/detail/psych/corFiml.html',funcname:'corFiml'},</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>rect</t>
+          <t>corFiml</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{ id:'rug', href:'/detail/base/rug.html',funcname:'rug'},</t>
+          <t>{ id:'corPlot', href:'/detail/psych/corPlot.html',funcname:'corPlot'},</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>rug</t>
+          <t>corPlot</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{ id:'screen', href:'/detail/base/screen.html',funcname:'screen'},</t>
+          <t>{ id:'corPlotUpperLowerCi', href:'/detail/psych/corPlotUpperLowerCi.html',funcname:'corPlotUpperLowerCi'},</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>corPlotUpperLowerCi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{ id:'segments', href:'/detail/base/segments.html',funcname:'segments'},</t>
+          <t>{ id:'corr.p', href:'/detail/psych/corrsymbol11p.html',funcname:'corr.p'},</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>segments</t>
+          <t>corrsymbol11p</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{ id:'smoothScatter', href:'/detail/base/smoothScatter.html',funcname:'smoothScatter'},</t>
+          <t>{ id:'corr.test', href:'/detail/psych/corrsymbol11test.html',funcname:'corr.test'},</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>smoothScatter</t>
+          <t>corrsymbol11test</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{ id:'spineplot', href:'/detail/base/spineplot.html',funcname:'spineplot'},</t>
+          <t>{ id:'correct.cor', href:'/detail/psych/correctsymbol11cor.html',funcname:'correct.cor'},</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>spineplot</t>
+          <t>correctsymbol11cor</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{ id:'split.screen', href:'/detail/base/splitsymbol11screen.html',funcname:'split.screen'},</t>
+          <t>{ id:'cortest', href:'/detail/psych/cortest.html',funcname:'cortest'},</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>splitsymbol11screen</t>
+          <t>cortest</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{ id:'stars', href:'/detail/base/stars.html',funcname:'stars'},</t>
+          <t>{ id:'cortest.bartlett', href:'/detail/psych/cortestsymbol11bartlett.html',funcname:'cortest.bartlett'},</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>stars</t>
+          <t>cortestsymbol11bartlett</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{ id:'stem', href:'/detail/base/stem.html',funcname:'stem'},</t>
+          <t>{ id:'cortest.jennrich', href:'/detail/psych/cortestsymbol11jennrich.html',funcname:'cortest.jennrich'},</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>stem</t>
+          <t>cortestsymbol11jennrich</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{ id:'strheight', href:'/detail/base/strheight.html',funcname:'strheight'},</t>
+          <t>{ id:'cortest.mat', href:'/detail/psych/cortestsymbol11mat.html',funcname:'cortest.mat'},</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>strheight</t>
+          <t>cortestsymbol11mat</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{ id:'stripchart', href:'/detail/base/stripchart.html',funcname:'stripchart'},</t>
+          <t>{ id:'cortest.normal', href:'/detail/psych/cortestsymbol11normal.html',funcname:'cortest.normal'},</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>stripchart</t>
+          <t>cortestsymbol11normal</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{ id:'strwidth', href:'/detail/base/strwidth.html',funcname:'strwidth'},</t>
+          <t>{ id:'cosinor', href:'/detail/psych/cosinor.html',funcname:'cosinor'},</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>strwidth</t>
+          <t>cosinor</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{ id:'sunflowerplot', href:'/detail/base/sunflowerplot.html',funcname:'sunflowerplot'},</t>
+          <t>{ id:'cosinor.period', href:'/detail/psych/cosinorsymbol11period.html',funcname:'cosinor.period'},</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sunflowerplot</t>
+          <t>cosinorsymbol11period</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{ id:'symbols', href:'/detail/base/symbols.html',funcname:'symbols'},</t>
+          <t>{ id:'cosinor.plot', href:'/detail/psych/cosinorsymbol11plot.html',funcname:'cosinor.plot'},</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>symbols</t>
+          <t>cosinorsymbol11plot</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{ id:'text', href:'/detail/base/text.html',funcname:'text'},</t>
+          <t>{ id:'count.pairwise', href:'/detail/psych/countsymbol11pairwise.html',funcname:'count.pairwise'},</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>countsymbol11pairwise</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{ id:'text.default', href:'/detail/base/textsymbol11default.html',funcname:'text.default'},</t>
+          <t>{ id:'crossValidation', href:'/detail/psych/crossValidation.html',funcname:'crossValidation'},</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>textsymbol11default</t>
+          <t>crossValidation</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{ id:'title', href:'/detail/base/title.html',funcname:'title'},</t>
+          <t>{ id:'cs', href:'/detail/psych/cs.html',funcname:'cs'},</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>cs</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{ id:'xinch', href:'/detail/base/xinch.html',funcname:'xinch'},</t>
+          <t>{ id:'cta', href:'/detail/psych/cta.html',funcname:'cta'},</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>xinch</t>
+          <t>cta</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{ id:'xspline', href:'/detail/base/xspline.html',funcname:'xspline'},</t>
+          <t>{ id:'cta.15', href:'/detail/psych/ctasymbol1115.html',funcname:'cta.15'},</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>xspline</t>
+          <t>ctasymbol1115</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{ id:'xyinch', href:'/detail/base/xyinch.html',funcname:'xyinch'},</t>
+          <t>{ id:'d.ci', href:'/detail/psych/dsymbol11ci.html',funcname:'d.ci'},</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>xyinch</t>
+          <t>dsymbol11ci</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>graphics</t>
+          <t>psych</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{ id:'yinch', href:'/detail/base/yinch.html',funcname:'yinch'},</t>
+          <t>{ id:'d.robust', href:'/detail/psych/dsymbol11robust.html',funcname:'d.robust'},</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>yinch</t>
+          <t>dsymbol11robust</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>{ id:'d2CL', href:'/detail/psych/d2CL.html',funcname:'d2CL'},</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>d2CL</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>{ id:'d2OVL', href:'/detail/psych/d2OVL.html',funcname:'d2OVL'},</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>d2OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>{ id:'d2OVL2', href:'/detail/psych/d2OVL2.html',funcname:'d2OVL2'},</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>d2OVL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>{ id:'d2r', href:'/detail/psych/d2r.html',funcname:'d2r'},</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>d2r</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>{ id:'d2t', href:'/detail/psych/d2t.html',funcname:'d2t'},</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>d2t</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>{ id:'d2U3', href:'/detail/psych/d2U3.html',funcname:'d2U3'},</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>d2U3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{ id:'densityBy', href:'/detail/psych/densityBy.html',funcname:'densityBy'},</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>densityBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{ id:'describe', href:'/detail/psych/describe.html',funcname:'describe'},</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>describe</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{ id:'describe.by', href:'/detail/psych/describesymbol11by.html',funcname:'describe.by'},</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>describesymbol11by</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{ id:'describeBy', href:'/detail/psych/describeBy.html',funcname:'describeBy'},</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>describeBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{ id:'describeData', href:'/detail/psych/describeData.html',funcname:'describeData'},</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>describeData</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>{ id:'describeFast', href:'/detail/psych/describeFast.html',funcname:'describeFast'},</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>describeFast</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>{ id:'dia.arrow', href:'/detail/psych/diasymbol11arrow.html',funcname:'dia.arrow'},</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>diasymbol11arrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>{ id:'dia.cone', href:'/detail/psych/diasymbol11cone.html',funcname:'dia.cone'},</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>diasymbol11cone</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>{ id:'dia.curve', href:'/detail/psych/diasymbol11curve.html',funcname:'dia.curve'},</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>diasymbol11curve</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>{ id:'dia.curved.arrow', href:'/detail/psych/diasymbol11curvedsymbol11arrow.html',funcname:'dia.curved.arrow'},</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>diasymbol11curvedsymbol11arrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>{ id:'dia.ellipse', href:'/detail/psych/diasymbol11ellipse.html',funcname:'dia.ellipse'},</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>diasymbol11ellipse</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>{ id:'dia.ellipse1', href:'/detail/psych/diasymbol11ellipse1.html',funcname:'dia.ellipse1'},</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>diasymbol11ellipse1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>{ id:'dia.rect', href:'/detail/psych/diasymbol11rect.html',funcname:'dia.rect'},</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>diasymbol11rect</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>{ id:'dia.self', href:'/detail/psych/diasymbol11self.html',funcname:'dia.self'},</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>diasymbol11self</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>{ id:'dia.shape', href:'/detail/psych/diasymbol11shape.html',funcname:'dia.shape'},</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>diasymbol11shape</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>{ id:'dia.triangle', href:'/detail/psych/diasymbol11triangle.html',funcname:'dia.triangle'},</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>diasymbol11triangle</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>{ id:'diagram', href:'/detail/psych/diagram.html',funcname:'diagram'},</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>{ id:'directSl', href:'/detail/psych/directSl.html',funcname:'directSl'},</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>directSl</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>{ id:'distance', href:'/detail/psych/distance.html',funcname:'distance'},</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>{ id:'draw.cor', href:'/detail/psych/drawsymbol11cor.html',funcname:'draw.cor'},</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>drawsymbol11cor</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>{ id:'draw.tetra', href:'/detail/psych/drawsymbol11tetra.html',funcname:'draw.tetra'},</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>drawsymbol11tetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>{ id:'dummy.code', href:'/detail/psych/dummysymbol11code.html',funcname:'dummy.code'},</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>dummysymbol11code</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>{ id:'Dwyer', href:'/detail/psych/Dwyer.html',funcname:'Dwyer'},</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Dwyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>{ id:'eigen.loadings', href:'/detail/psych/eigensymbol11loadings.html',funcname:'eigen.loadings'},</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>eigensymbol11loadings</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>{ id:'ellipses', href:'/detail/psych/ellipses.html',funcname:'ellipses'},</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ellipses</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>{ id:'equamax', href:'/detail/psych/equamax.html',funcname:'equamax'},</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>equamax</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>{ id:'error.bars', href:'/detail/psych/errorsymbol11bars.html',funcname:'error.bars'},</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>errorsymbol11bars</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>{ id:'error.bars.by', href:'/detail/psych/errorsymbol11barssymbol11by.html',funcname:'error.bars.by'},</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>errorsymbol11barssymbol11by</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>{ id:'error.bars.tab', href:'/detail/psych/errorsymbol11barssymbol11tab.html',funcname:'error.bars.tab'},</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>errorsymbol11barssymbol11tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>{ id:'error.crosses', href:'/detail/psych/errorsymbol11crosses.html',funcname:'error.crosses'},</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>errorsymbol11crosses</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>{ id:'error.dots', href:'/detail/psych/errorsymbol11dots.html',funcname:'error.dots'},</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>errorsymbol11dots</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>{ id:'errorCircles', href:'/detail/psych/errorCircles.html',funcname:'errorCircles'},</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>errorCircles</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>{ id:'esem', href:'/detail/psych/esem.html',funcname:'esem'},</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>esem</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>{ id:'esem.diagram', href:'/detail/psych/esemsymbol11diagram.html',funcname:'esem.diagram'},</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>esemsymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>{ id:'extension.diagram', href:'/detail/psych/extensionsymbol11diagram.html',funcname:'extension.diagram'},</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>extensionsymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>{ id:'fa', href:'/detail/psych/fa.html',funcname:'fa'},</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>fa</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>{ id:'fa.congruence', href:'/detail/psych/fasymbol11congruence.html',funcname:'fa.congruence'},</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>fasymbol11congruence</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>{ id:'fa.diagram', href:'/detail/psych/fasymbol11diagram.html',funcname:'fa.diagram'},</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>fasymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>{ id:'fa.extend', href:'/detail/psych/fasymbol11extend.html',funcname:'fa.extend'},</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>fasymbol11extend</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>{ id:'fa.extension', href:'/detail/psych/fasymbol11extension.html',funcname:'fa.extension'},</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>fasymbol11extension</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>{ id:'fa.graph', href:'/detail/psych/fasymbol11graph.html',funcname:'fa.graph'},</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>fasymbol11graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>{ id:'fa.lookup', href:'/detail/psych/fasymbol11lookup.html',funcname:'fa.lookup'},</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>fasymbol11lookup</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>{ id:'fa.multi', href:'/detail/psych/fasymbol11multi.html',funcname:'fa.multi'},</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>fasymbol11multi</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>{ id:'fa.multi.diagram', href:'/detail/psych/fasymbol11multisymbol11diagram.html',funcname:'fa.multi.diagram'},</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>fasymbol11multisymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>{ id:'fa.organize', href:'/detail/psych/fasymbol11organize.html',funcname:'fa.organize'},</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>fasymbol11organize</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>{ id:'fa.parallel', href:'/detail/psych/fasymbol11parallel.html',funcname:'fa.parallel'},</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>fasymbol11parallel</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>{ id:'fa.parallel.poly', href:'/detail/psych/fasymbol11parallelsymbol11poly.html',funcname:'fa.parallel.poly'},</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>fasymbol11parallelsymbol11poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>{ id:'fa.plot', href:'/detail/psych/fasymbol11plot.html',funcname:'fa.plot'},</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>fasymbol11plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>{ id:'fa.poly', href:'/detail/psych/fasymbol11poly.html',funcname:'fa.poly'},</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>fasymbol11poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>{ id:'fa.pooled', href:'/detail/psych/fasymbol11pooled.html',funcname:'fa.pooled'},</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>fasymbol11pooled</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>{ id:'fa.random', href:'/detail/psych/fasymbol11random.html',funcname:'fa.random'},</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>fasymbol11random</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>{ id:'fa.rgraph', href:'/detail/psych/fasymbol11rgraph.html',funcname:'fa.rgraph'},</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>fasymbol11rgraph</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>{ id:'fa.sapa', href:'/detail/psych/fasymbol11sapa.html',funcname:'fa.sapa'},</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>fasymbol11sapa</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>{ id:'fa.sort', href:'/detail/psych/fasymbol11sort.html',funcname:'fa.sort'},</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>fasymbol11sort</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>{ id:'fa.stats', href:'/detail/psych/fasymbol11stats.html',funcname:'fa.stats'},</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>fasymbol11stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>{ id:'fa2irt', href:'/detail/psych/fa2irt.html',funcname:'fa2irt'},</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>fa2irt</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>{ id:'faBy', href:'/detail/psych/faBy.html',funcname:'faBy'},</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>faBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>{ id:'fac', href:'/detail/psych/fac.html',funcname:'fac'},</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>fac</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>{ id:'faCor', href:'/detail/psych/faCor.html',funcname:'faCor'},</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>faCor</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>{ id:'factor.congruence', href:'/detail/psych/factorsymbol11congruence.html',funcname:'factor.congruence'},</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>factorsymbol11congruence</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>{ id:'factor.fit', href:'/detail/psych/factorsymbol11fit.html',funcname:'factor.fit'},</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>factorsymbol11fit</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>{ id:'factor.minres', href:'/detail/psych/factorsymbol11minres.html',funcname:'factor.minres'},</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>factorsymbol11minres</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>{ id:'factor.model', href:'/detail/psych/factorsymbol11model.html',funcname:'factor.model'},</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>factorsymbol11model</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>{ id:'factor.pa', href:'/detail/psych/factorsymbol11pa.html',funcname:'factor.pa'},</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>factorsymbol11pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>{ id:'factor.plot', href:'/detail/psych/factorsymbol11plot.html',funcname:'factor.plot'},</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>factorsymbol11plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>{ id:'factor.residuals', href:'/detail/psych/factorsymbol11residuals.html',funcname:'factor.residuals'},</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>factorsymbol11residuals</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>{ id:'factor.rotate', href:'/detail/psych/factorsymbol11rotate.html',funcname:'factor.rotate'},</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>factorsymbol11rotate</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>{ id:'factor.scores', href:'/detail/psych/factorsymbol11scores.html',funcname:'factor.scores'},</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>factorsymbol11scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>{ id:'factor.stats', href:'/detail/psych/factorsymbol11stats.html',funcname:'factor.stats'},</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>factorsymbol11stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>{ id:'factor.wls', href:'/detail/psych/factorsymbol11wls.html',funcname:'factor.wls'},</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>factorsymbol11wls</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>{ id:'factor2cluster', href:'/detail/psych/factor2cluster.html',funcname:'factor2cluster'},</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>factor2cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>{ id:'faRotate', href:'/detail/psych/faRotate.html',funcname:'faRotate'},</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>faRotate</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>{ id:'faRotations', href:'/detail/psych/faRotations.html',funcname:'faRotations'},</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>faRotations</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>{ id:'fisherz', href:'/detail/psych/fisherz.html',funcname:'fisherz'},</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>fisherz</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>{ id:'fisherz2r', href:'/detail/psych/fisherz2r.html',funcname:'fisherz2r'},</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>fisherz2r</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>{ id:'fparse', href:'/detail/psych/fparse.html',funcname:'fparse'},</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>fparse</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>{ id:'fromTo', href:'/detail/psych/fromTo.html',funcname:'fromTo'},</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>fromTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>{ id:'g2r', href:'/detail/psych/g2r.html',funcname:'g2r'},</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>g2r</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>{ id:'Garcia', href:'/detail/psych/Garcia.html',funcname:'Garcia'},</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>{ id:'geometric.mean', href:'/detail/psych/geometricsymbol11mean.html',funcname:'geometric.mean'},</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>geometricsymbol11mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>{ id:'glb', href:'/detail/psych/glb.html',funcname:'glb'},</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>glb</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>{ id:'glb.algebraic', href:'/detail/psych/glbsymbol11algebraic.html',funcname:'glb.algebraic'},</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>glbsymbol11algebraic</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>{ id:'glb.fa', href:'/detail/psych/glbsymbol11fa.html',funcname:'glb.fa'},</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>glbsymbol11fa</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>{ id:'Gleser', href:'/detail/psych/Gleser.html',funcname:'Gleser'},</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Gleser</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>{ id:'Gorsuch', href:'/detail/psych/Gorsuch.html',funcname:'Gorsuch'},</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Gorsuch</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>{ id:'guttman', href:'/detail/psych/guttman.html',funcname:'guttman'},</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>guttman</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>{ id:'Harman.5', href:'/detail/psych/Harmansymbol115.html',funcname:'Harman.5'},</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Harmansymbol115</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>{ id:'Harman.8', href:'/detail/psych/Harmansymbol118.html',funcname:'Harman.8'},</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Harmansymbol118</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>{ id:'Harman.Burt', href:'/detail/psych/Harmansymbol11Burt.html',funcname:'Harman.Burt'},</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Harmansymbol11Burt</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>{ id:'Harman.Holzinger', href:'/detail/psych/Harmansymbol11Holzinger.html',funcname:'Harman.Holzinger'},</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Harmansymbol11Holzinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>{ id:'Harman.political', href:'/detail/psych/Harmansymbol11political.html',funcname:'Harman.political'},</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Harmansymbol11political</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>{ id:'harmonic.mean', href:'/detail/psych/harmonicsymbol11mean.html',funcname:'harmonic.mean'},</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>harmonicsymbol11mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>{ id:'headtail', href:'/detail/psych/headtail.html',funcname:'headtail'},</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>headtail</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>{ id:'headTail', href:'/detail/psych/headTail.html',funcname:'headTail'},</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>headTail</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>{ id:'het.diagram', href:'/detail/psych/hetsymbol11diagram.html',funcname:'het.diagram'},</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>hetsymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>{ id:'histBy', href:'/detail/psych/histBy.html',funcname:'histBy'},</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>histBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>{ id:'Holzinger', href:'/detail/psych/Holzinger.html',funcname:'Holzinger'},</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Holzinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>{ id:'Holzinger.9', href:'/detail/psych/Holzingersymbol119.html',funcname:'Holzinger.9'},</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Holzingersymbol119</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>{ id:'ICC', href:'/detail/psych/ICC.html',funcname:'ICC'},</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ICC</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>{ id:'iclust', href:'/detail/psych/iclust.html',funcname:'iclust'},</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>iclust</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>{ id:'ICLUST', href:'/detail/psych/ICLUST.html',funcname:'ICLUST'},</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ICLUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>{ id:'ICLUST.cluster', href:'/detail/psych/ICLUSTsymbol11cluster.html',funcname:'ICLUST.cluster'},</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ICLUSTsymbol11cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>{ id:'iclust.diagram', href:'/detail/psych/iclustsymbol11diagram.html',funcname:'iclust.diagram'},</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>iclustsymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>{ id:'ICLUST.graph', href:'/detail/psych/ICLUSTsymbol11graph.html',funcname:'ICLUST.graph'},</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ICLUSTsymbol11graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>{ id:'ICLUST.rgraph', href:'/detail/psych/ICLUSTsymbol11rgraph.html',funcname:'ICLUST.rgraph'},</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ICLUSTsymbol11rgraph</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>{ id:'iclust.sort', href:'/detail/psych/iclustsymbol11sort.html',funcname:'iclust.sort'},</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>iclustsymbol11sort</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>{ id:'ICLUST.sort', href:'/detail/psych/ICLUSTsymbol11sort.html',funcname:'ICLUST.sort'},</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ICLUSTsymbol11sort</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>{ id:'interbattery', href:'/detail/psych/interbattery.html',funcname:'interbattery'},</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>interbattery</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>{ id:'interp.boxplot', href:'/detail/psych/interpsymbol11boxplot.html',funcname:'interp.boxplot'},</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>interpsymbol11boxplot</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>{ id:'interp.median', href:'/detail/psych/interpsymbol11median.html',funcname:'interp.median'},</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>interpsymbol11median</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>{ id:'interp.q', href:'/detail/psych/interpsymbol11q.html',funcname:'interp.q'},</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>interpsymbol11q</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>{ id:'interp.qplot.by', href:'/detail/psych/interpsymbol11qplotsymbol11by.html',funcname:'interp.qplot.by'},</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>interpsymbol11qplotsymbol11by</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>{ id:'interp.quantiles', href:'/detail/psych/interpsymbol11quantiles.html',funcname:'interp.quantiles'},</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>interpsymbol11quantiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>{ id:'interp.quart', href:'/detail/psych/interpsymbol11quart.html',funcname:'interp.quart'},</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>interpsymbol11quart</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>{ id:'interp.quartiles', href:'/detail/psych/interpsymbol11quartiles.html',funcname:'interp.quartiles'},</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>interpsymbol11quartiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>{ id:'interp.values', href:'/detail/psych/interpsymbol11values.html',funcname:'interp.values'},</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>interpsymbol11values</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>{ id:'irt.0p', href:'/detail/psych/irtsymbol110p.html',funcname:'irt.0p'},</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>irtsymbol110p</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>{ id:'irt.1p', href:'/detail/psych/irtsymbol111p.html',funcname:'irt.1p'},</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>irtsymbol111p</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>{ id:'irt.2p', href:'/detail/psych/irtsymbol112p.html',funcname:'irt.2p'},</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>irtsymbol112p</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>{ id:'irt.discrim', href:'/detail/psych/irtsymbol11discrim.html',funcname:'irt.discrim'},</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>irtsymbol11discrim</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>{ id:'irt.fa', href:'/detail/psych/irtsymbol11fa.html',funcname:'irt.fa'},</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>irtsymbol11fa</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>{ id:'irt.item.diff.rasch', href:'/detail/psych/irtsymbol11itemsymbol11diffsymbol11rasch.html',funcname:'irt.item.diff.rasch'},</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>irtsymbol11itemsymbol11diffsymbol11rasch</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>{ id:'irt.person.rasch', href:'/detail/psych/irtsymbol11personsymbol11rasch.html',funcname:'irt.person.rasch'},</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>irtsymbol11personsymbol11rasch</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>{ id:'irt.responses', href:'/detail/psych/irtsymbol11responses.html',funcname:'irt.responses'},</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>irtsymbol11responses</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>{ id:'irt.se', href:'/detail/psych/irtsymbol11se.html',funcname:'irt.se'},</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>irtsymbol11se</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>{ id:'irt.select', href:'/detail/psych/irtsymbol11select.html',funcname:'irt.select'},</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>irtsymbol11select</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>{ id:'irt.stats.like', href:'/detail/psych/irtsymbol11statssymbol11like.html',funcname:'irt.stats.like'},</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>irtsymbol11statssymbol11like</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>{ id:'irt.tau', href:'/detail/psych/irtsymbol11tau.html',funcname:'irt.tau'},</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>irtsymbol11tau</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>{ id:'isCorrelation', href:'/detail/psych/isCorrelation.html',funcname:'isCorrelation'},</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>isCorrelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>{ id:'isCovariance', href:'/detail/psych/isCovariance.html',funcname:'isCovariance'},</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>isCovariance</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>{ id:'item.dichot', href:'/detail/psych/itemsymbol11dichot.html',funcname:'item.dichot'},</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>itemsymbol11dichot</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>{ id:'item.lookup', href:'/detail/psych/itemsymbol11lookup.html',funcname:'item.lookup'},</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>itemsymbol11lookup</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>{ id:'item.sim', href:'/detail/psych/itemsymbol11sim.html',funcname:'item.sim'},</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>itemsymbol11sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>{ id:'item.validity', href:'/detail/psych/itemsymbol11validity.html',funcname:'item.validity'},</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>itemsymbol11validity</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>{ id:'kaiser', href:'/detail/psych/kaiser.html',funcname:'kaiser'},</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>kaiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>{ id:'keys.lookup', href:'/detail/psych/keyssymbol11lookup.html',funcname:'keys.lookup'},</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>keyssymbol11lookup</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>{ id:'keys2list', href:'/detail/psych/keys2list.html',funcname:'keys2list'},</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>keys2list</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>{ id:'keysort', href:'/detail/psych/keysort.html',funcname:'keysort'},</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>keysort</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>{ id:'KMO', href:'/detail/psych/KMO.html',funcname:'KMO'},</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>KMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>{ id:'kurtosi', href:'/detail/psych/kurtosi.html',funcname:'kurtosi'},</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>kurtosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>{ id:'lavaan.diagram', href:'/detail/psych/lavaansymbol11diagram.html',funcname:'lavaan.diagram'},</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>lavaansymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>{ id:'levels2numeric', href:'/detail/psych/levels2numeric.html',funcname:'levels2numeric'},</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>levels2numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>{ id:'logistic', href:'/detail/psych/logistic.html',funcname:'logistic'},</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>logistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>{ id:'logistic.grm', href:'/detail/psych/logisticsymbol11grm.html',funcname:'logistic.grm'},</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>logisticsymbol11grm</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>{ id:'logit', href:'/detail/psych/logit.html',funcname:'logit'},</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>logit</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>{ id:'lookup', href:'/detail/psych/lookup.html',funcname:'lookup'},</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>lookup</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>{ id:'lookupFromKeys', href:'/detail/psych/lookupFromKeys.html',funcname:'lookupFromKeys'},</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>lookupFromKeys</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>{ id:'lookupItems', href:'/detail/psych/lookupItems.html',funcname:'lookupItems'},</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>lookupItems</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>{ id:'lowerCor', href:'/detail/psych/lowerCor.html',funcname:'lowerCor'},</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>lowerCor</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>{ id:'lowerMat', href:'/detail/psych/lowerMat.html',funcname:'lowerMat'},</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>lowerMat</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>{ id:'lowerUpper', href:'/detail/psych/lowerUpper.html',funcname:'lowerUpper'},</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>lowerUpper</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>{ id:'lsat6', href:'/detail/psych/lsat6.html',funcname:'lsat6'},</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>lsat6</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>{ id:'lsat7', href:'/detail/psych/lsat7.html',funcname:'lsat7'},</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>lsat7</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>{ id:'m2d', href:'/detail/psych/m2d.html',funcname:'m2d'},</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>m2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>{ id:'m2t', href:'/detail/psych/m2t.html',funcname:'m2t'},</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>m2t</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>{ id:'make.congeneric', href:'/detail/psych/makesymbol11congeneric.html',funcname:'make.congeneric'},</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>makesymbol11congeneric</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>{ id:'make.hierarchical', href:'/detail/psych/makesymbol11hierarchical.html',funcname:'make.hierarchical'},</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>makesymbol11hierarchical</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>{ id:'make.irt.stats', href:'/detail/psych/makesymbol11irtsymbol11stats.html',funcname:'make.irt.stats'},</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>makesymbol11irtsymbol11stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>{ id:'make.keys', href:'/detail/psych/makesymbol11keys.html',funcname:'make.keys'},</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>makesymbol11keys</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>{ id:'makePositiveKeys', href:'/detail/psych/makePositiveKeys.html',funcname:'makePositiveKeys'},</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>makePositiveKeys</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>{ id:'manhattan', href:'/detail/psych/manhattan.html',funcname:'manhattan'},</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>manhattan</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>{ id:'mardia', href:'/detail/psych/mardia.html',funcname:'mardia'},</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>mardia</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>{ id:'mat.regress', href:'/detail/psych/matsymbol11regress.html',funcname:'mat.regress'},</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>matsymbol11regress</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>{ id:'mat.sort', href:'/detail/psych/matsymbol11sort.html',funcname:'mat.sort'},</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>matsymbol11sort</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>{ id:'matPlot', href:'/detail/psych/matPlot.html',funcname:'matPlot'},</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>matPlot</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>{ id:'matReg', href:'/detail/psych/matReg.html',funcname:'matReg'},</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>matReg</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>{ id:'matSort', href:'/detail/psych/matSort.html',funcname:'matSort'},</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>matSort</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>{ id:'mediate', href:'/detail/psych/mediate.html',funcname:'mediate'},</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>mediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>{ id:'mediate.diagram', href:'/detail/psych/mediatesymbol11diagram.html',funcname:'mediate.diagram'},</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>mediatesymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>{ id:'minkowski', href:'/detail/psych/minkowski.html',funcname:'minkowski'},</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>minkowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>{ id:'mixed.cor', href:'/detail/psych/mixedsymbol11cor.html',funcname:'mixed.cor'},</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>mixedsymbol11cor</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>{ id:'mixedCor', href:'/detail/psych/mixedCor.html',funcname:'mixedCor'},</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>mixedCor</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>{ id:'mlArrange', href:'/detail/psych/mlArrange.html',funcname:'mlArrange'},</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>mlArrange</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>{ id:'mlPlot', href:'/detail/psych/mlPlot.html',funcname:'mlPlot'},</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>mlPlot</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>{ id:'mlr', href:'/detail/psych/mlr.html',funcname:'mlr'},</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>mlr</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>{ id:'moderate.diagram', href:'/detail/psych/moderatesymbol11diagram.html',funcname:'moderate.diagram'},</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>moderatesymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>{ id:'mssd', href:'/detail/psych/mssd.html',funcname:'mssd'},</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>mssd</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>{ id:'multi.arrow', href:'/detail/psych/multisymbol11arrow.html',funcname:'multi.arrow'},</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>multisymbol11arrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>{ id:'multi.curved.arrow', href:'/detail/psych/multisymbol11curvedsymbol11arrow.html',funcname:'multi.curved.arrow'},</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>multisymbol11curvedsymbol11arrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>{ id:'multi.hist', href:'/detail/psych/multisymbol11hist.html',funcname:'multi.hist'},</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>multisymbol11hist</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>{ id:'multi.rect', href:'/detail/psych/multisymbol11rect.html',funcname:'multi.rect'},</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>multisymbol11rect</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>{ id:'multi.self', href:'/detail/psych/multisymbol11self.html',funcname:'multi.self'},</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>multisymbol11self</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>{ id:'multilevel.reliability', href:'/detail/psych/multilevelsymbol11reliability.html',funcname:'multilevel.reliability'},</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>multilevelsymbol11reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>{ id:'nchar2numeric', href:'/detail/psych/nchar2numeric.html',funcname:'nchar2numeric'},</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>nchar2numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>{ id:'nfactors', href:'/detail/psych/nfactors.html',funcname:'nfactors'},</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>nfactors</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>{ id:'omega', href:'/detail/psych/omega.html',funcname:'omega'},</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>omega</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>{ id:'omega.diagram', href:'/detail/psych/omegasymbol11diagram.html',funcname:'omega.diagram'},</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>omegasymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>{ id:'omega.graph', href:'/detail/psych/omegasymbol11graph.html',funcname:'omega.graph'},</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>omegasymbol11graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>{ id:'omegaDirect', href:'/detail/psych/omegaDirect.html',funcname:'omegaDirect'},</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>omegaDirect</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>{ id:'omegaFromSem', href:'/detail/psych/omegaFromSem.html',funcname:'omegaFromSem'},</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>omegaFromSem</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>{ id:'omegah', href:'/detail/psych/omegah.html',funcname:'omegah'},</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>omegah</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>{ id:'omegaSem', href:'/detail/psych/omegaSem.html',funcname:'omegaSem'},</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>omegaSem</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>{ id:'outlier', href:'/detail/psych/outlier.html',funcname:'outlier'},</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>{ id:'p.rep', href:'/detail/psych/psymbol11rep.html',funcname:'p.rep'},</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>psymbol11rep</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>{ id:'p.rep.f', href:'/detail/psych/psymbol11repsymbol11f.html',funcname:'p.rep.f'},</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>psymbol11repsymbol11f</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>{ id:'p.rep.r', href:'/detail/psych/psymbol11repsymbol11r.html',funcname:'p.rep.r'},</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>psymbol11repsymbol11r</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>{ id:'p.rep.t', href:'/detail/psych/psymbol11repsymbol11t.html',funcname:'p.rep.t'},</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>psymbol11repsymbol11t</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>{ id:'paired.r', href:'/detail/psych/pairedsymbol11r.html',funcname:'paired.r'},</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>pairedsymbol11r</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>{ id:'pairs.panels', href:'/detail/psych/pairssymbol11panels.html',funcname:'pairs.panels'},</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>pairssymbol11panels</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseCount', href:'/detail/psych/pairwiseCount.html',funcname:'pairwiseCount'},</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>pairwiseCount</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseCountBig', href:'/detail/psych/pairwiseCountBig.html',funcname:'pairwiseCountBig'},</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>pairwiseCountBig</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseDescribe', href:'/detail/psych/pairwiseDescribe.html',funcname:'pairwiseDescribe'},</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>pairwiseDescribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseImpute', href:'/detail/psych/pairwiseImpute.html',funcname:'pairwiseImpute'},</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>pairwiseImpute</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>{ id:'pairwisePlot', href:'/detail/psych/pairwisePlot.html',funcname:'pairwisePlot'},</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>pairwisePlot</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseReport', href:'/detail/psych/pairwiseReport.html',funcname:'pairwiseReport'},</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>pairwiseReport</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseSample', href:'/detail/psych/pairwiseSample.html',funcname:'pairwiseSample'},</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>pairwiseSample</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>{ id:'pairwiseZero', href:'/detail/psych/pairwiseZero.html',funcname:'pairwiseZero'},</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>pairwiseZero</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>{ id:'parcels', href:'/detail/psych/parcels.html',funcname:'parcels'},</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>parcels</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>{ id:'partial.r', href:'/detail/psych/partialsymbol11r.html',funcname:'partial.r'},</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>partialsymbol11r</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>{ id:'pca', href:'/detail/psych/pca.html',funcname:'pca'},</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>pca</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>{ id:'phi', href:'/detail/psych/phi.html',funcname:'phi'},</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>phi</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>{ id:'phi.demo', href:'/detail/psych/phisymbol11demo.html',funcname:'phi.demo'},</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>phisymbol11demo</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>{ id:'phi.list', href:'/detail/psych/phisymbol11list.html',funcname:'phi.list'},</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>phisymbol11list</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>{ id:'phi2poly', href:'/detail/psych/phi2poly.html',funcname:'phi2poly'},</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>phi2poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>{ id:'phi2poly.matrix', href:'/detail/psych/phi2polysymbol11matrix.html',funcname:'phi2poly.matrix'},</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>phi2polysymbol11matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>{ id:'phi2tetra', href:'/detail/psych/phi2tetra.html',funcname:'phi2tetra'},</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>phi2tetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>{ id:'Pinv', href:'/detail/psych/Pinv.html',funcname:'Pinv'},</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Pinv</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>{ id:'plot.irt', href:'/detail/psych/plotsymbol11irt.html',funcname:'plot.irt'},</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>plotsymbol11irt</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>{ id:'plot.poly', href:'/detail/psych/plotsymbol11poly.html',funcname:'plot.poly'},</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>plotsymbol11poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>{ id:'plot.poly.parallel', href:'/detail/psych/plotsymbol11polysymbol11parallel.html',funcname:'plot.poly.parallel'},</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>plotsymbol11polysymbol11parallel</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>{ id:'plot.psych', href:'/detail/psych/plotsymbol11psych.html',funcname:'plot.psych'},</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>plotsymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>{ id:'plot.reliability', href:'/detail/psych/plotsymbol11reliability.html',funcname:'plot.reliability'},</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>plotsymbol11reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>{ id:'plot.residuals', href:'/detail/psych/plotsymbol11residuals.html',funcname:'plot.residuals'},</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>plotsymbol11residuals</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>{ id:'polar', href:'/detail/psych/polar.html',funcname:'polar'},</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>polar</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>{ id:'poly.mat', href:'/detail/psych/polysymbol11mat.html',funcname:'poly.mat'},</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>polysymbol11mat</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>{ id:'polychoric', href:'/detail/psych/polychoric.html',funcname:'polychoric'},</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>polychoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>{ id:'polydi', href:'/detail/psych/polydi.html',funcname:'polydi'},</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>polydi</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>{ id:'polyserial', href:'/detail/psych/polyserial.html',funcname:'polyserial'},</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>polyserial</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>{ id:'predict.psych', href:'/detail/psych/predictsymbol11psych.html',funcname:'predict.psych'},</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>predictsymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>{ id:'predicted.validity', href:'/detail/psych/predictedsymbol11validity.html',funcname:'predicted.validity'},</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>predictedsymbol11validity</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>{ id:'principal', href:'/detail/psych/principal.html',funcname:'principal'},</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>{ id:'print.psych', href:'/detail/psych/printsymbol11psych.html',funcname:'print.psych'},</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>printsymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>{ id:'Procrustes', href:'/detail/psych/Procrustes.html',funcname:'Procrustes'},</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Procrustes</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>{ id:'progressBar', href:'/detail/psych/progressBar.html',funcname:'progressBar'},</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>progressBar</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>{ id:'Promax', href:'/detail/psych/Promax.html',funcname:'Promax'},</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Promax</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>{ id:'psych', href:'/detail/psych/psych.html',funcname:'psych'},</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>{ id:'psych.misc', href:'/detail/psych/psychsymbol11misc.html',funcname:'psych.misc'},</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>psychsymbol11misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>{ id:'quickView', href:'/detail/psych/quickView.html',funcname:'quickView'},</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>quickView</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>{ id:'r.con', href:'/detail/psych/rsymbol11con.html',funcname:'r.con'},</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>rsymbol11con</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>{ id:'r.test', href:'/detail/psych/rsymbol11test.html',funcname:'r.test'},</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>rsymbol11test</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>{ id:'r2c', href:'/detail/psych/r2c.html',funcname:'r2c'},</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>r2c</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>{ id:'r2chi', href:'/detail/psych/r2chi.html',funcname:'r2chi'},</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>r2chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>{ id:'r2d', href:'/detail/psych/r2d.html',funcname:'r2d'},</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>r2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>{ id:'r2t', href:'/detail/psych/r2t.html',funcname:'r2t'},</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>r2t</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>{ id:'radar', href:'/detail/psych/radar.html',funcname:'radar'},</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>radar</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>{ id:'rangeCorrection', href:'/detail/psych/rangeCorrection.html',funcname:'rangeCorrection'},</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>rangeCorrection</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>{ id:'reflect', href:'/detail/psych/reflect.html',funcname:'reflect'},</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>reflect</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>{ id:'Reise', href:'/detail/psych/Reise.html',funcname:'Reise'},</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Reise</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>{ id:'reliability', href:'/detail/psych/reliability.html',funcname:'reliability'},</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>{ id:'rescale', href:'/detail/psych/rescale.html',funcname:'rescale'},</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>rescale</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>{ id:'resid.psych', href:'/detail/psych/residsymbol11psych.html',funcname:'resid.psych'},</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>residsymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>{ id:'residuals.psych', href:'/detail/psych/residualssymbol11psych.html',funcname:'residuals.psych'},</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>residualssymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>{ id:'response.frequencies', href:'/detail/psych/responsesymbol11frequencies.html',funcname:'response.frequencies'},</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>responsesymbol11frequencies</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>{ id:'responseFrequency', href:'/detail/psych/responseFrequency.html',funcname:'responseFrequency'},</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>responseFrequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>{ id:'reverse.code', href:'/detail/psych/reversesymbol11code.html',funcname:'reverse.code'},</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>reversesymbol11code</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>{ id:'rmssd', href:'/detail/psych/rmssd.html',funcname:'rmssd'},</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>rmssd</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>{ id:'sat.act', href:'/detail/psych/satsymbol11act.html',funcname:'sat.act'},</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>satsymbol11act</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>{ id:'scaling.fits', href:'/detail/psych/scalingsymbol11fits.html',funcname:'scaling.fits'},</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>scalingsymbol11fits</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>{ id:'scatter.hist', href:'/detail/psych/scattersymbol11hist.html',funcname:'scatter.hist'},</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>scattersymbol11hist</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>{ id:'scatterHist', href:'/detail/psych/scatterHist.html',funcname:'scatterHist'},</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>scatterHist</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>{ id:'schmid', href:'/detail/psych/schmid.html',funcname:'schmid'},</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>schmid</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>{ id:'Schmid', href:'/detail/psych/Schmid.html',funcname:'Schmid'},</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Schmid</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>{ id:'schmid.leiman', href:'/detail/psych/schmidsymbol11leiman.html',funcname:'schmid.leiman'},</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>schmidsymbol11leiman</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>{ id:'score.alpha', href:'/detail/psych/scoresymbol11alpha.html',funcname:'score.alpha'},</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>scoresymbol11alpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>{ id:'score.irt', href:'/detail/psych/scoresymbol11irt.html',funcname:'score.irt'},</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>scoresymbol11irt</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>{ id:'score.irt.2', href:'/detail/psych/scoresymbol11irtsymbol112.html',funcname:'score.irt.2'},</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>scoresymbol11irtsymbol112</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>{ id:'score.irt.poly', href:'/detail/psych/scoresymbol11irtsymbol11poly.html',funcname:'score.irt.poly'},</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>scoresymbol11irtsymbol11poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>{ id:'score.items', href:'/detail/psych/scoresymbol11items.html',funcname:'score.items'},</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>scoresymbol11items</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>{ id:'score.multiple.choice', href:'/detail/psych/scoresymbol11multiplesymbol11choice.html',funcname:'score.multiple.choice'},</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>scoresymbol11multiplesymbol11choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>{ id:'scoreBy', href:'/detail/psych/scoreBy.html',funcname:'scoreBy'},</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>scoreBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>{ id:'scoreFast', href:'/detail/psych/scoreFast.html',funcname:'scoreFast'},</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>scoreFast</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>{ id:'scoreIrt', href:'/detail/psych/scoreIrt.html',funcname:'scoreIrt'},</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>scoreIrt</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>{ id:'scoreIrt.1pl', href:'/detail/psych/scoreIrtsymbol111pl.html',funcname:'scoreIrt.1pl'},</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>scoreIrtsymbol111pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>{ id:'scoreIrt.2pl', href:'/detail/psych/scoreIrtsymbol112pl.html',funcname:'scoreIrt.2pl'},</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>scoreIrtsymbol112pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>{ id:'scoreItems', href:'/detail/psych/scoreItems.html',funcname:'scoreItems'},</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>scoreItems</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>{ id:'scoreOverlap', href:'/detail/psych/scoreOverlap.html',funcname:'scoreOverlap'},</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>scoreOverlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>{ id:'scoreVeryFast', href:'/detail/psych/scoreVeryFast.html',funcname:'scoreVeryFast'},</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>scoreVeryFast</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>{ id:'scoreWtd', href:'/detail/psych/scoreWtd.html',funcname:'scoreWtd'},</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>scoreWtd</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>{ id:'scree', href:'/detail/psych/scree.html',funcname:'scree'},</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>scree</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>{ id:'scrub', href:'/detail/psych/scrub.html',funcname:'scrub'},</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>scrub</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>{ id:'SD', href:'/detail/psych/SD.html',funcname:'SD'},</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>{ id:'selectFromKeys', href:'/detail/psych/selectFromKeys.html',funcname:'selectFromKeys'},</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>selectFromKeys</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>{ id:'sem.diagram', href:'/detail/psych/semsymbol11diagram.html',funcname:'sem.diagram'},</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>semsymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>{ id:'sem.graph', href:'/detail/psych/semsymbol11graph.html',funcname:'sem.graph'},</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>semsymbol11graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>{ id:'set.cor', href:'/detail/psych/setsymbol11cor.html',funcname:'set.cor'},</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>setsymbol11cor</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>{ id:'setCor', href:'/detail/psych/setCor.html',funcname:'setCor'},</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>setCor</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>{ id:'setCor.diagram', href:'/detail/psych/setCorsymbol11diagram.html',funcname:'setCor.diagram'},</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>setCorsymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>{ id:'setCorLookup', href:'/detail/psych/setCorLookup.html',funcname:'setCorLookup'},</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>setCorLookup</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>{ id:'shannon', href:'/detail/psych/shannon.html',funcname:'shannon'},</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>shannon</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>{ id:'sim', href:'/detail/psych/sim.html',funcname:'sim'},</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>{ id:'sim.anova', href:'/detail/psych/simsymbol11anova.html',funcname:'sim.anova'},</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>simsymbol11anova</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>{ id:'sim.bonds', href:'/detail/psych/simsymbol11bonds.html',funcname:'sim.bonds'},</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>simsymbol11bonds</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>{ id:'sim.circ', href:'/detail/psych/simsymbol11circ.html',funcname:'sim.circ'},</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>simsymbol11circ</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>{ id:'sim.congeneric', href:'/detail/psych/simsymbol11congeneric.html',funcname:'sim.congeneric'},</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>simsymbol11congeneric</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>{ id:'sim.correlation', href:'/detail/psych/simsymbol11correlation.html',funcname:'sim.correlation'},</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>simsymbol11correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>{ id:'sim.dichot', href:'/detail/psych/simsymbol11dichot.html',funcname:'sim.dichot'},</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>simsymbol11dichot</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>{ id:'sim.general', href:'/detail/psych/simsymbol11general.html',funcname:'sim.general'},</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>simsymbol11general</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>{ id:'sim.hierarchical', href:'/detail/psych/simsymbol11hierarchical.html',funcname:'sim.hierarchical'},</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>simsymbol11hierarchical</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>{ id:'sim.irt', href:'/detail/psych/simsymbol11irt.html',funcname:'sim.irt'},</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>simsymbol11irt</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>{ id:'sim.item', href:'/detail/psych/simsymbol11item.html',funcname:'sim.item'},</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>simsymbol11item</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>{ id:'sim.minor', href:'/detail/psych/simsymbol11minor.html',funcname:'sim.minor'},</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>simsymbol11minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>{ id:'sim.multi', href:'/detail/psych/simsymbol11multi.html',funcname:'sim.multi'},</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>simsymbol11multi</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>{ id:'sim.multilevel', href:'/detail/psych/simsymbol11multilevel.html',funcname:'sim.multilevel'},</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>simsymbol11multilevel</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>{ id:'sim.npl', href:'/detail/psych/simsymbol11npl.html',funcname:'sim.npl'},</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>simsymbol11npl</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>{ id:'sim.npn', href:'/detail/psych/simsymbol11npn.html',funcname:'sim.npn'},</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>simsymbol11npn</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>{ id:'sim.omega', href:'/detail/psych/simsymbol11omega.html',funcname:'sim.omega'},</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>simsymbol11omega</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>{ id:'sim.parallel', href:'/detail/psych/simsymbol11parallel.html',funcname:'sim.parallel'},</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>simsymbol11parallel</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly', href:'/detail/psych/simsymbol11poly.html',funcname:'sim.poly'},</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>simsymbol11poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly.ideal', href:'/detail/psych/simsymbol11polysymbol11ideal.html',funcname:'sim.poly.ideal'},</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>simsymbol11polysymbol11ideal</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly.ideal.npl', href:'/detail/psych/simsymbol11polysymbol11idealsymbol11npl.html',funcname:'sim.poly.ideal.npl'},</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>simsymbol11polysymbol11idealsymbol11npl</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly.ideal.npn', href:'/detail/psych/simsymbol11polysymbol11idealsymbol11npn.html',funcname:'sim.poly.ideal.npn'},</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>simsymbol11polysymbol11idealsymbol11npn</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly.mat', href:'/detail/psych/simsymbol11polysymbol11mat.html',funcname:'sim.poly.mat'},</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>simsymbol11polysymbol11mat</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly.npl', href:'/detail/psych/simsymbol11polysymbol11npl.html',funcname:'sim.poly.npl'},</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>simsymbol11polysymbol11npl</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>{ id:'sim.poly.npn', href:'/detail/psych/simsymbol11polysymbol11npn.html',funcname:'sim.poly.npn'},</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>simsymbol11polysymbol11npn</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>{ id:'sim.rasch', href:'/detail/psych/simsymbol11rasch.html',funcname:'sim.rasch'},</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>simsymbol11rasch</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>{ id:'sim.simplex', href:'/detail/psych/simsymbol11simplex.html',funcname:'sim.simplex'},</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>simsymbol11simplex</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>{ id:'sim.spherical', href:'/detail/psych/simsymbol11spherical.html',funcname:'sim.spherical'},</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>simsymbol11spherical</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>{ id:'sim.structural', href:'/detail/psych/simsymbol11structural.html',funcname:'sim.structural'},</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>simsymbol11structural</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>{ id:'sim.structure', href:'/detail/psych/simsymbol11structure.html',funcname:'sim.structure'},</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>simsymbol11structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>{ id:'sim.VSS', href:'/detail/psych/simsymbol11VSS.html',funcname:'sim.VSS'},</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>simsymbol11VSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>{ id:'simCor', href:'/detail/psych/simCor.html',funcname:'simCor'},</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>simCor</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>{ id:'simulation.circ', href:'/detail/psych/simulationsymbol11circ.html',funcname:'simulation.circ'},</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>simulationsymbol11circ</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>{ id:'skew', href:'/detail/psych/skew.html',funcname:'skew'},</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>skew</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>{ id:'smc', href:'/detail/psych/smc.html',funcname:'smc'},</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>smc</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>{ id:'spider', href:'/detail/psych/spider.html',funcname:'spider'},</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>spider</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>{ id:'splitHalf', href:'/detail/psych/splitHalf.html',funcname:'splitHalf'},</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>splitHalf</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>{ id:'statsBy', href:'/detail/psych/statsBy.html',funcname:'statsBy'},</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>statsBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>{ id:'statsBy.boot', href:'/detail/psych/statsBysymbol11boot.html',funcname:'statsBy.boot'},</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>statsBysymbol11boot</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>{ id:'statsBy.boot.summary', href:'/detail/psych/statsBysymbol11bootsymbol11summary.html',funcname:'statsBy.boot.summary'},</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>statsBysymbol11bootsymbol11summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>{ id:'structure.diagram', href:'/detail/psych/structuresymbol11diagram.html',funcname:'structure.diagram'},</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>structuresymbol11diagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>{ id:'structure.graph', href:'/detail/psych/structuresymbol11graph.html',funcname:'structure.graph'},</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>structuresymbol11graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>{ id:'structure.list', href:'/detail/psych/structuresymbol11list.html',funcname:'structure.list'},</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>structuresymbol11list</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>{ id:'structure.sem', href:'/detail/psych/structuresymbol11sem.html',funcname:'structure.sem'},</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>structuresymbol11sem</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>{ id:'summary.psych', href:'/detail/psych/summarysymbol11psych.html',funcname:'summary.psych'},</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>summarysymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>{ id:'super.matrix', href:'/detail/psych/supersymbol11matrix.html',funcname:'super.matrix'},</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>supersymbol11matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>{ id:'superCor', href:'/detail/psych/superCor.html',funcname:'superCor'},</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>superCor</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>{ id:'superMatrix', href:'/detail/psych/superMatrix.html',funcname:'superMatrix'},</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>superMatrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>{ id:'t2d', href:'/detail/psych/t2d.html',funcname:'t2d'},</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>t2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>{ id:'t2r', href:'/detail/psych/t2r.html',funcname:'t2r'},</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>t2r</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>{ id:'table2df', href:'/detail/psych/table2df.html',funcname:'table2df'},</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>table2df</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>{ id:'table2matrix', href:'/detail/psych/table2matrix.html',funcname:'table2matrix'},</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>table2matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>{ id:'tableF', href:'/detail/psych/tableF.html',funcname:'tableF'},</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>tableF</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>{ id:'Tal_Or', href:'/detail/psych/Tal_Or.html',funcname:'Tal_Or'},</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Tal_Or</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>{ id:'Tal.Or', href:'/detail/psych/Talsymbol11Or.html',funcname:'Tal.Or'},</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Talsymbol11Or</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>{ id:'target.rot', href:'/detail/psych/targetsymbol11rot.html',funcname:'target.rot'},</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>targetsymbol11rot</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>{ id:'TargetQ', href:'/detail/psych/TargetQ.html',funcname:'TargetQ'},</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>TargetQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>{ id:'TargetT', href:'/detail/psych/TargetT.html',funcname:'TargetT'},</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>TargetT</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>{ id:'tenberge', href:'/detail/psych/tenberge.html',funcname:'tenberge'},</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>tenberge</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>{ id:'test.all', href:'/detail/psych/testsymbol11all.html',funcname:'test.all'},</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>testsymbol11all</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>{ id:'test.irt', href:'/detail/psych/testsymbol11irt.html',funcname:'test.irt'},</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>testsymbol11irt</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>{ id:'test.psych', href:'/detail/psych/testsymbol11psych.html',funcname:'test.psych'},</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>testsymbol11psych</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>{ id:'testRetest', href:'/detail/psych/testRetest.html',funcname:'testRetest'},</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>testRetest</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>{ id:'tetrachoric', href:'/detail/psych/tetrachoric.html',funcname:'tetrachoric'},</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>tetrachoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>{ id:'thurstone', href:'/detail/psych/thurstone.html',funcname:'thurstone'},</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>thurstone</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>{ id:'Thurstone', href:'/detail/psych/Thurstone.html',funcname:'Thurstone'},</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Thurstone</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>{ id:'Thurstone.33', href:'/detail/psych/Thurstonesymbol1133.html',funcname:'Thurstone.33'},</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Thurstonesymbol1133</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>{ id:'Thurstone.9', href:'/detail/psych/Thurstonesymbol119.html',funcname:'Thurstone.9'},</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Thurstonesymbol119</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>{ id:'topBottom', href:'/detail/psych/topBottom.html',funcname:'topBottom'},</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>topBottom</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>{ id:'tr', href:'/detail/psych/tr.html',funcname:'tr'},</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>{ id:'Tucker', href:'/detail/psych/Tucker.html',funcname:'Tucker'},</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Tucker</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>{ id:'unidim', href:'/detail/psych/unidim.html',funcname:'unidim'},</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>unidim</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>{ id:'varimin', href:'/detail/psych/varimin.html',funcname:'varimin'},</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>varimin</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>{ id:'vgQ.bimin', href:'/detail/psych/vgQsymbol11bimin.html',funcname:'vgQ.bimin'},</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>vgQsymbol11bimin</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>{ id:'vgQ.targetQ', href:'/detail/psych/vgQsymbol11targetQ.html',funcname:'vgQ.targetQ'},</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>vgQsymbol11targetQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>{ id:'vgQ.varimin', href:'/detail/psych/vgQsymbol11varimin.html',funcname:'vgQ.varimin'},</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>vgQsymbol11varimin</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>{ id:'violin', href:'/detail/psych/violin.html',funcname:'violin'},</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>violin</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>{ id:'violinBy', href:'/detail/psych/violinBy.html',funcname:'violinBy'},</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>violinBy</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>{ id:'vss', href:'/detail/psych/vss.html',funcname:'vss'},</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>vss</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>{ id:'VSS', href:'/detail/psych/VSS.html',funcname:'VSS'},</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>VSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>{ id:'VSS.parallel', href:'/detail/psych/VSSsymbol11parallel.html',funcname:'VSS.parallel'},</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>VSSsymbol11parallel</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>{ id:'VSS.plot', href:'/detail/psych/VSSsymbol11plot.html',funcname:'VSS.plot'},</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>VSSsymbol11plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>{ id:'VSS.scree', href:'/detail/psych/VSSsymbol11scree.html',funcname:'VSS.scree'},</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>VSSsymbol11scree</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>{ id:'VSS.sim', href:'/detail/psych/VSSsymbol11sim.html',funcname:'VSS.sim'},</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>VSSsymbol11sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>{ id:'VSS.simulate', href:'/detail/psych/VSSsymbol11simulate.html',funcname:'VSS.simulate'},</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>VSSsymbol11simulate</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>{ id:'West', href:'/detail/psych/West.html',funcname:'West'},</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>{ id:'winsor', href:'/detail/psych/winsor.html',funcname:'winsor'},</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>winsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>{ id:'winsor.mean', href:'/detail/psych/winsorsymbol11mean.html',funcname:'winsor.mean'},</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>winsorsymbol11mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>{ id:'winsor.means', href:'/detail/psych/winsorsymbol11means.html',funcname:'winsor.means'},</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>winsorsymbol11means</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>{ id:'winsor.sd', href:'/detail/psych/winsorsymbol11sd.html',funcname:'winsor.sd'},</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>winsorsymbol11sd</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>{ id:'winsor.var', href:'/detail/psych/winsorsymbol11var.html',funcname:'winsor.var'},</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>winsorsymbol11var</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>{ id:'withinBetween', href:'/detail/psych/withinBetween.html',funcname:'withinBetween'},</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>withinBetween</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>{ id:'wkappa', href:'/detail/psych/wkappa.html',funcname:'wkappa'},</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>wkappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>{ id:'Yule', href:'/detail/psych/Yule.html',funcname:'Yule'},</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Yule</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>{ id:'Yule.inv', href:'/detail/psych/Yulesymbol11inv.html',funcname:'Yule.inv'},</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Yulesymbol11inv</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>{ id:'Yule2phi', href:'/detail/psych/Yule2phi.html',funcname:'Yule2phi'},</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Yule2phi</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>{ id:'Yule2phi.matrix', href:'/detail/psych/Yule2phisymbol11matrix.html',funcname:'Yule2phi.matrix'},</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Yule2phisymbol11matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>{ id:'Yule2poly', href:'/detail/psych/Yule2poly.html',funcname:'Yule2poly'},</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Yule2poly</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>{ id:'Yule2poly.matrix', href:'/detail/psych/Yule2polysymbol11matrix.html',funcname:'Yule2poly.matrix'},</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Yule2polysymbol11matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>{ id:'Yule2tetra', href:'/detail/psych/Yule2tetra.html',funcname:'Yule2tetra'},</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Yule2tetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>{ id:'YuleBonett', href:'/detail/psych/YuleBonett.html',funcname:'YuleBonett'},</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>YuleBonett</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>{ id:'YuleCor', href:'/detail/psych/YuleCor.html',funcname:'YuleCor'},</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>YuleCor</t>
         </is>
       </c>
     </row>
